--- a/設計書/01.基本設計/02.画面設計/画面設計書(商品詳細).xlsx
+++ b/設計書/01.基本設計/02.画面設計/画面設計書(商品詳細).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\DesignDocs\設計書\01.基本設計\02.画面設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC4D077-18D3-4B7E-9360-9E913D801D66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C3CDE1-D50D-4B09-9EA9-183093FE8C60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1530" yWindow="2835" windowWidth="15375" windowHeight="10725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/設計書/01.基本設計/02.画面設計/画面設計書(商品詳細).xlsx
+++ b/設計書/01.基本設計/02.画面設計/画面設計書(商品詳細).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\DesignDocs\設計書\01.基本設計\02.画面設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C3CDE1-D50D-4B09-9EA9-183093FE8C60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC4D077-18D3-4B7E-9360-9E913D801D66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1530" yWindow="2835" windowWidth="15375" windowHeight="10725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/設計書/01.基本設計/02.画面設計/画面設計書(商品詳細).xlsx
+++ b/設計書/01.基本設計/02.画面設計/画面設計書(商品詳細).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\DesignDocs\設計書\01.基本設計\02.画面設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2CEC1E-A86C-48F4-9F61-D1598FBE36C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188C1147-E219-4637-89C1-846C920B7F00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="315" yWindow="285" windowWidth="15375" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
   <si>
     <t>システム名</t>
   </si>
@@ -216,29 +216,6 @@
     <t>在庫あり</t>
   </si>
   <si>
-    <t>■在庫表示対応</t>
-    <rPh sb="1" eb="3">
-      <t>ザイコ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>タイオウ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>■在庫表示対応</t>
-    <rPh sb="1" eb="5">
-      <t>ザイコヒョウジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>タイオウ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
     <t>2019/10/9 JTM01対応　久保田</t>
     <rPh sb="15" eb="17">
       <t>タイオウ</t>
@@ -280,6 +257,42 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>ヨシユキ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>【JTM01】 在庫表示対応</t>
+    <rPh sb="8" eb="10">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>【JTM01】在庫表示対応</t>
+    <rPh sb="7" eb="9">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>【JTM01】在庫表示対応</t>
+    <rPh sb="7" eb="11">
+      <t>ザイコヒョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>タイオウ</t>
     </rPh>
     <phoneticPr fontId="10"/>
   </si>
@@ -4863,8 +4876,8 @@
   </sheetPr>
   <dimension ref="A1:BZ1122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BP2" sqref="BP2:BX2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ89" sqref="AJ89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -5046,7 +5059,7 @@
       <c r="BN2" s="51"/>
       <c r="BO2" s="52"/>
       <c r="BP2" s="67" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BQ2" s="68"/>
       <c r="BR2" s="68"/>
@@ -6870,7 +6883,7 @@
       <c r="BJ24" s="25"/>
       <c r="BK24" s="25"/>
       <c r="BL24" s="79" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="BM24" s="25"/>
       <c r="BN24" s="25"/>
@@ -7118,7 +7131,7 @@
       <c r="BJ27" s="13"/>
       <c r="BK27" s="81"/>
       <c r="BL27" s="87" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="BM27" s="25"/>
       <c r="BN27" s="25"/>
@@ -7366,7 +7379,7 @@
       <c r="BJ30" s="4"/>
       <c r="BK30" s="4"/>
       <c r="BL30" s="78" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="BM30" s="4"/>
       <c r="BN30" s="4"/>
@@ -8826,7 +8839,7 @@
     <row r="49" spans="1:78" ht="14.25" customHeight="1">
       <c r="A49" s="6"/>
       <c r="B49" s="78" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -12030,7 +12043,7 @@
       <c r="A89" s="6"/>
       <c r="B89" s="25"/>
       <c r="C89" s="78" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D89" s="25"/>
       <c r="E89" s="25"/>
@@ -15312,7 +15325,7 @@
       <c r="A130" s="6"/>
       <c r="B130" s="25"/>
       <c r="C130" s="78" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D130" s="25"/>
       <c r="E130" s="25"/>

--- a/設計書/01.基本設計/02.画面設計/画面設計書(商品詳細).xlsx
+++ b/設計書/01.基本設計/02.画面設計/画面設計書(商品詳細).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\DesignDocs\設計書\01.基本設計\02.画面設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DesignDocs\設計書\01.基本設計\02.画面設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188C1147-E219-4637-89C1-846C920B7F00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A500E24-9AF4-4E8F-8017-EA1DE15BA7CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="285" windowWidth="15375" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="商品詳細画面" sheetId="1" r:id="rId1"/>
@@ -337,6 +337,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -819,79 +820,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -914,6 +847,74 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2047,7 +2048,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="136072" y="8882743"/>
+          <a:off x="136072" y="9244693"/>
           <a:ext cx="6561363" cy="6177765"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2064,15 +2065,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>145810</xdr:colOff>
+      <xdr:colOff>183910</xdr:colOff>
       <xdr:row>89</xdr:row>
-      <xdr:rowOff>123531</xdr:rowOff>
+      <xdr:rowOff>85431</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>108749</xdr:colOff>
+      <xdr:colOff>146849</xdr:colOff>
       <xdr:row>123</xdr:row>
-      <xdr:rowOff>148146</xdr:rowOff>
+      <xdr:rowOff>110046</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2095,8 +2096,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="145810" y="17313355"/>
-          <a:ext cx="6619233" cy="6120615"/>
+          <a:off x="183910" y="16535106"/>
+          <a:ext cx="6563764" cy="6177765"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4058,11 +4059,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>89869</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>60136</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="295275" cy="266700"/>
+    <xdr:ext cx="337519" cy="266700"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="90" name="Shape 24">
@@ -4076,8 +4077,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5737634" y="2368548"/>
-          <a:ext cx="295275" cy="266700"/>
+          <a:off x="5648325" y="2393761"/>
+          <a:ext cx="337519" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
           <a:avLst>
@@ -4316,15 +4317,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>163286</xdr:colOff>
+      <xdr:colOff>172811</xdr:colOff>
       <xdr:row>137</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>2014</xdr:colOff>
+      <xdr:colOff>11539</xdr:colOff>
       <xdr:row>155</xdr:row>
-      <xdr:rowOff>101970</xdr:rowOff>
+      <xdr:rowOff>149595</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4354,7 +4355,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="163286" y="24936451"/>
+          <a:off x="172811" y="25346026"/>
           <a:ext cx="6639578" cy="3264269"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4571,6 +4572,274 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="295275" cy="266700"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="Shape 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C46BE92-8DA5-42D5-80FB-5CC1701F3EBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6229350" y="10220325"/>
+          <a:ext cx="295275" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -20833"/>
+            <a:gd name="adj2" fmla="val 62500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="6AA84F"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>8</a:t>
+          </a:r>
+          <a:endParaRPr sz="1400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="295275" cy="266700"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="Shape 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B38383FA-86D7-40C3-85F3-4573CA12C1B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6162675" y="17535525"/>
+          <a:ext cx="295275" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -20833"/>
+            <a:gd name="adj2" fmla="val 62500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="6AA84F"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="0" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="590550" cy="266700"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="Shape 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B05C2E17-68EB-4975-A566-6C64629D139F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096000" y="25079325"/>
+          <a:ext cx="590550" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -20833"/>
+            <a:gd name="adj2" fmla="val 62500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="6AA84F"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+            </a:rPr>
+            <a:t>10</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="0" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4876,8 +5145,8 @@
   </sheetPr>
   <dimension ref="A1:BZ1122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AJ89" sqref="AJ89"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH129" sqref="AH129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -4887,188 +5156,188 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="58" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="54"/>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="54"/>
-      <c r="AI1" s="54"/>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="54"/>
-      <c r="AL1" s="54"/>
-      <c r="AM1" s="54"/>
-      <c r="AN1" s="54"/>
-      <c r="AO1" s="54"/>
-      <c r="AP1" s="54"/>
-      <c r="AQ1" s="54"/>
-      <c r="AR1" s="54"/>
-      <c r="AS1" s="54"/>
-      <c r="AT1" s="54"/>
-      <c r="AU1" s="54"/>
-      <c r="AV1" s="55"/>
-      <c r="AW1" s="60" t="s">
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59"/>
+      <c r="AL1" s="59"/>
+      <c r="AM1" s="59"/>
+      <c r="AN1" s="59"/>
+      <c r="AO1" s="59"/>
+      <c r="AP1" s="59"/>
+      <c r="AQ1" s="59"/>
+      <c r="AR1" s="59"/>
+      <c r="AS1" s="59"/>
+      <c r="AT1" s="59"/>
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="60"/>
+      <c r="AW1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="AX1" s="54"/>
-      <c r="AY1" s="54"/>
-      <c r="AZ1" s="54"/>
-      <c r="BA1" s="55"/>
-      <c r="BB1" s="66" t="s">
+      <c r="AX1" s="59"/>
+      <c r="AY1" s="59"/>
+      <c r="AZ1" s="59"/>
+      <c r="BA1" s="60"/>
+      <c r="BB1" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="BC1" s="51"/>
-      <c r="BD1" s="51"/>
-      <c r="BE1" s="51"/>
-      <c r="BF1" s="51"/>
-      <c r="BG1" s="51"/>
-      <c r="BH1" s="51"/>
-      <c r="BI1" s="51"/>
-      <c r="BJ1" s="52"/>
-      <c r="BK1" s="60" t="s">
+      <c r="BC1" s="70"/>
+      <c r="BD1" s="70"/>
+      <c r="BE1" s="70"/>
+      <c r="BF1" s="70"/>
+      <c r="BG1" s="70"/>
+      <c r="BH1" s="70"/>
+      <c r="BI1" s="70"/>
+      <c r="BJ1" s="71"/>
+      <c r="BK1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="BL1" s="54"/>
-      <c r="BM1" s="54"/>
-      <c r="BN1" s="54"/>
-      <c r="BO1" s="55"/>
+      <c r="BL1" s="59"/>
+      <c r="BM1" s="59"/>
+      <c r="BN1" s="59"/>
+      <c r="BO1" s="60"/>
       <c r="BP1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="BQ1" s="54"/>
-      <c r="BR1" s="54"/>
-      <c r="BS1" s="54"/>
-      <c r="BT1" s="54"/>
-      <c r="BU1" s="54"/>
-      <c r="BV1" s="54"/>
-      <c r="BW1" s="54"/>
+      <c r="BQ1" s="59"/>
+      <c r="BR1" s="59"/>
+      <c r="BS1" s="59"/>
+      <c r="BT1" s="59"/>
+      <c r="BU1" s="59"/>
+      <c r="BV1" s="59"/>
+      <c r="BW1" s="59"/>
       <c r="BX1" s="62"/>
       <c r="BY1" s="1"/>
       <c r="BZ1" s="1"/>
     </row>
     <row r="2" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="59" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="57" t="s">
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="71"/>
+      <c r="Z2" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="51"/>
-      <c r="AL2" s="51"/>
-      <c r="AM2" s="51"/>
-      <c r="AN2" s="51"/>
-      <c r="AO2" s="51"/>
-      <c r="AP2" s="51"/>
-      <c r="AQ2" s="51"/>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51"/>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="57" t="s">
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="71"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="70"/>
+      <c r="AG2" s="70"/>
+      <c r="AH2" s="70"/>
+      <c r="AI2" s="70"/>
+      <c r="AJ2" s="70"/>
+      <c r="AK2" s="70"/>
+      <c r="AL2" s="70"/>
+      <c r="AM2" s="70"/>
+      <c r="AN2" s="70"/>
+      <c r="AO2" s="70"/>
+      <c r="AP2" s="70"/>
+      <c r="AQ2" s="70"/>
+      <c r="AR2" s="70"/>
+      <c r="AS2" s="70"/>
+      <c r="AT2" s="70"/>
+      <c r="AU2" s="70"/>
+      <c r="AV2" s="71"/>
+      <c r="AW2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="52"/>
-      <c r="BB2" s="63">
+      <c r="AX2" s="70"/>
+      <c r="AY2" s="70"/>
+      <c r="AZ2" s="70"/>
+      <c r="BA2" s="71"/>
+      <c r="BB2" s="69">
         <v>43382</v>
       </c>
-      <c r="BC2" s="51"/>
-      <c r="BD2" s="51"/>
-      <c r="BE2" s="51"/>
-      <c r="BF2" s="51"/>
-      <c r="BG2" s="51"/>
-      <c r="BH2" s="51"/>
-      <c r="BI2" s="51"/>
-      <c r="BJ2" s="52"/>
-      <c r="BK2" s="57" t="s">
+      <c r="BC2" s="70"/>
+      <c r="BD2" s="70"/>
+      <c r="BE2" s="70"/>
+      <c r="BF2" s="70"/>
+      <c r="BG2" s="70"/>
+      <c r="BH2" s="70"/>
+      <c r="BI2" s="70"/>
+      <c r="BJ2" s="71"/>
+      <c r="BK2" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="BL2" s="51"/>
-      <c r="BM2" s="51"/>
-      <c r="BN2" s="51"/>
-      <c r="BO2" s="52"/>
-      <c r="BP2" s="67" t="s">
+      <c r="BL2" s="70"/>
+      <c r="BM2" s="70"/>
+      <c r="BN2" s="70"/>
+      <c r="BO2" s="71"/>
+      <c r="BP2" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="BQ2" s="68"/>
-      <c r="BR2" s="68"/>
-      <c r="BS2" s="68"/>
-      <c r="BT2" s="68"/>
-      <c r="BU2" s="68"/>
-      <c r="BV2" s="68"/>
-      <c r="BW2" s="68"/>
-      <c r="BX2" s="69"/>
+      <c r="BQ2" s="77"/>
+      <c r="BR2" s="77"/>
+      <c r="BS2" s="77"/>
+      <c r="BT2" s="77"/>
+      <c r="BU2" s="77"/>
+      <c r="BV2" s="77"/>
+      <c r="BW2" s="77"/>
+      <c r="BX2" s="78"/>
       <c r="BY2" s="1"/>
       <c r="BZ2" s="1"/>
     </row>
@@ -5273,51 +5542,51 @@
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
-      <c r="AM5" s="41" t="s">
+      <c r="AM5" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="AN5" s="42"/>
-      <c r="AO5" s="45" t="s">
+      <c r="AN5" s="65"/>
+      <c r="AO5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="AP5" s="46"/>
-      <c r="AQ5" s="46"/>
-      <c r="AR5" s="46"/>
-      <c r="AS5" s="46"/>
-      <c r="AT5" s="46"/>
-      <c r="AU5" s="42"/>
-      <c r="AV5" s="45" t="s">
+      <c r="AP5" s="64"/>
+      <c r="AQ5" s="64"/>
+      <c r="AR5" s="64"/>
+      <c r="AS5" s="64"/>
+      <c r="AT5" s="64"/>
+      <c r="AU5" s="65"/>
+      <c r="AV5" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="AW5" s="46"/>
-      <c r="AX5" s="46"/>
-      <c r="AY5" s="46"/>
-      <c r="AZ5" s="42"/>
-      <c r="BA5" s="45" t="s">
+      <c r="AW5" s="64"/>
+      <c r="AX5" s="64"/>
+      <c r="AY5" s="64"/>
+      <c r="AZ5" s="65"/>
+      <c r="BA5" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="BB5" s="46"/>
-      <c r="BC5" s="46"/>
-      <c r="BD5" s="46"/>
-      <c r="BE5" s="46"/>
-      <c r="BF5" s="46"/>
-      <c r="BG5" s="46"/>
-      <c r="BH5" s="46"/>
-      <c r="BI5" s="46"/>
-      <c r="BJ5" s="46"/>
-      <c r="BK5" s="46"/>
-      <c r="BL5" s="46"/>
-      <c r="BM5" s="46"/>
-      <c r="BN5" s="46"/>
-      <c r="BO5" s="46"/>
-      <c r="BP5" s="46"/>
-      <c r="BQ5" s="46"/>
-      <c r="BR5" s="46"/>
-      <c r="BS5" s="46"/>
-      <c r="BT5" s="46"/>
-      <c r="BU5" s="46"/>
-      <c r="BV5" s="46"/>
-      <c r="BW5" s="64"/>
+      <c r="BB5" s="64"/>
+      <c r="BC5" s="64"/>
+      <c r="BD5" s="64"/>
+      <c r="BE5" s="64"/>
+      <c r="BF5" s="64"/>
+      <c r="BG5" s="64"/>
+      <c r="BH5" s="64"/>
+      <c r="BI5" s="64"/>
+      <c r="BJ5" s="64"/>
+      <c r="BK5" s="64"/>
+      <c r="BL5" s="64"/>
+      <c r="BM5" s="64"/>
+      <c r="BN5" s="64"/>
+      <c r="BO5" s="64"/>
+      <c r="BP5" s="64"/>
+      <c r="BQ5" s="64"/>
+      <c r="BR5" s="64"/>
+      <c r="BS5" s="64"/>
+      <c r="BT5" s="64"/>
+      <c r="BU5" s="64"/>
+      <c r="BV5" s="64"/>
+      <c r="BW5" s="72"/>
       <c r="BX5" s="8"/>
       <c r="BY5" s="4"/>
       <c r="BZ5" s="4"/>
@@ -5361,43 +5630,43 @@
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
-      <c r="AM6" s="43"/>
-      <c r="AN6" s="44"/>
-      <c r="AO6" s="47"/>
-      <c r="AP6" s="48"/>
-      <c r="AQ6" s="48"/>
-      <c r="AR6" s="48"/>
-      <c r="AS6" s="48"/>
-      <c r="AT6" s="48"/>
-      <c r="AU6" s="44"/>
-      <c r="AV6" s="47"/>
-      <c r="AW6" s="48"/>
-      <c r="AX6" s="48"/>
-      <c r="AY6" s="48"/>
-      <c r="AZ6" s="44"/>
-      <c r="BA6" s="47"/>
-      <c r="BB6" s="48"/>
-      <c r="BC6" s="48"/>
-      <c r="BD6" s="48"/>
-      <c r="BE6" s="48"/>
-      <c r="BF6" s="48"/>
-      <c r="BG6" s="48"/>
-      <c r="BH6" s="48"/>
-      <c r="BI6" s="48"/>
-      <c r="BJ6" s="48"/>
-      <c r="BK6" s="48"/>
-      <c r="BL6" s="48"/>
-      <c r="BM6" s="48"/>
-      <c r="BN6" s="48"/>
-      <c r="BO6" s="48"/>
-      <c r="BP6" s="48"/>
-      <c r="BQ6" s="48"/>
-      <c r="BR6" s="48"/>
-      <c r="BS6" s="48"/>
-      <c r="BT6" s="48"/>
-      <c r="BU6" s="48"/>
-      <c r="BV6" s="48"/>
-      <c r="BW6" s="65"/>
+      <c r="AM6" s="86"/>
+      <c r="AN6" s="68"/>
+      <c r="AO6" s="66"/>
+      <c r="AP6" s="67"/>
+      <c r="AQ6" s="67"/>
+      <c r="AR6" s="67"/>
+      <c r="AS6" s="67"/>
+      <c r="AT6" s="67"/>
+      <c r="AU6" s="68"/>
+      <c r="AV6" s="66"/>
+      <c r="AW6" s="67"/>
+      <c r="AX6" s="67"/>
+      <c r="AY6" s="67"/>
+      <c r="AZ6" s="68"/>
+      <c r="BA6" s="66"/>
+      <c r="BB6" s="67"/>
+      <c r="BC6" s="67"/>
+      <c r="BD6" s="67"/>
+      <c r="BE6" s="67"/>
+      <c r="BF6" s="67"/>
+      <c r="BG6" s="67"/>
+      <c r="BH6" s="67"/>
+      <c r="BI6" s="67"/>
+      <c r="BJ6" s="67"/>
+      <c r="BK6" s="67"/>
+      <c r="BL6" s="67"/>
+      <c r="BM6" s="67"/>
+      <c r="BN6" s="67"/>
+      <c r="BO6" s="67"/>
+      <c r="BP6" s="67"/>
+      <c r="BQ6" s="67"/>
+      <c r="BR6" s="67"/>
+      <c r="BS6" s="67"/>
+      <c r="BT6" s="67"/>
+      <c r="BU6" s="67"/>
+      <c r="BV6" s="67"/>
+      <c r="BW6" s="73"/>
       <c r="BX6" s="8"/>
       <c r="BY6" s="4"/>
       <c r="BZ6" s="4"/>
@@ -5441,10 +5710,10 @@
       <c r="AJ7" s="4"/>
       <c r="AK7" s="4"/>
       <c r="AL7" s="4"/>
-      <c r="AM7" s="39" t="s">
+      <c r="AM7" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="AN7" s="49"/>
+      <c r="AN7" s="87"/>
       <c r="AO7" s="11" t="s">
         <v>17</v>
       </c>
@@ -5691,10 +5960,10 @@
       <c r="AJ10" s="4"/>
       <c r="AK10" s="4"/>
       <c r="AL10" s="4"/>
-      <c r="AM10" s="39" t="s">
+      <c r="AM10" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="AN10" s="40"/>
+      <c r="AN10" s="83"/>
       <c r="AO10" s="17" t="s">
         <v>22</v>
       </c>
@@ -5857,10 +6126,10 @@
       <c r="AJ12" s="4"/>
       <c r="AK12" s="4"/>
       <c r="AL12" s="4"/>
-      <c r="AM12" s="39" t="s">
+      <c r="AM12" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="AN12" s="40"/>
+      <c r="AN12" s="83"/>
       <c r="AO12" s="18" t="s">
         <v>25</v>
       </c>
@@ -6023,10 +6292,10 @@
       <c r="AJ14" s="4"/>
       <c r="AK14" s="4"/>
       <c r="AL14" s="4"/>
-      <c r="AM14" s="39" t="s">
+      <c r="AM14" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="AN14" s="40"/>
+      <c r="AN14" s="83"/>
       <c r="AO14" s="20" t="s">
         <v>28</v>
       </c>
@@ -6270,10 +6539,10 @@
       <c r="AJ17" s="4"/>
       <c r="AK17" s="4"/>
       <c r="AL17" s="4"/>
-      <c r="AM17" s="39" t="s">
+      <c r="AM17" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="AN17" s="40"/>
+      <c r="AN17" s="83"/>
       <c r="AO17" s="20" t="s">
         <v>32</v>
       </c>
@@ -6435,10 +6704,10 @@
       <c r="AI19" s="4"/>
       <c r="AJ19" s="4"/>
       <c r="AL19" s="4"/>
-      <c r="AM19" s="39" t="s">
+      <c r="AM19" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="AN19" s="40"/>
+      <c r="AN19" s="83"/>
       <c r="AO19" s="18" t="s">
         <v>35</v>
       </c>
@@ -6603,10 +6872,10 @@
       <c r="AJ21" s="4"/>
       <c r="AK21" s="4"/>
       <c r="AL21" s="4"/>
-      <c r="AM21" s="39" t="s">
+      <c r="AM21" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="AN21" s="40"/>
+      <c r="AN21" s="83"/>
       <c r="AO21" s="18" t="s">
         <v>39</v>
       </c>
@@ -6769,13 +7038,13 @@
       <c r="AH23" s="4"/>
       <c r="AI23" s="4"/>
       <c r="AJ23" s="4"/>
-      <c r="AK23" s="71"/>
-      <c r="AL23" s="70"/>
-      <c r="AM23" s="74" t="s">
+      <c r="AK23" s="40"/>
+      <c r="AL23" s="39"/>
+      <c r="AM23" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="AN23" s="72"/>
-      <c r="AO23" s="77" t="s">
+      <c r="AN23" s="55"/>
+      <c r="AO23" s="43" t="s">
         <v>45</v>
       </c>
       <c r="AP23" s="11"/>
@@ -6789,7 +7058,7 @@
       <c r="AX23" s="11"/>
       <c r="AY23" s="11"/>
       <c r="AZ23" s="12"/>
-      <c r="BA23" s="77" t="s">
+      <c r="BA23" s="43" t="s">
         <v>46</v>
       </c>
       <c r="BB23" s="11"/>
@@ -6855,11 +7124,11 @@
       <c r="AH24" s="25"/>
       <c r="AI24" s="25"/>
       <c r="AJ24" s="25"/>
-      <c r="AK24" s="71"/>
-      <c r="AL24" s="70"/>
-      <c r="AM24" s="76"/>
-      <c r="AN24" s="70"/>
-      <c r="AO24" s="86"/>
+      <c r="AK24" s="40"/>
+      <c r="AL24" s="39"/>
+      <c r="AM24" s="42"/>
+      <c r="AN24" s="39"/>
+      <c r="AO24" s="52"/>
       <c r="AP24" s="13"/>
       <c r="AQ24" s="13"/>
       <c r="AR24" s="13"/>
@@ -6871,7 +7140,7 @@
       <c r="AX24" s="13"/>
       <c r="AY24" s="13"/>
       <c r="AZ24" s="12"/>
-      <c r="BA24" s="77"/>
+      <c r="BA24" s="43"/>
       <c r="BB24" s="13"/>
       <c r="BC24" s="13"/>
       <c r="BD24" s="13"/>
@@ -6882,7 +7151,7 @@
       <c r="BI24" s="25"/>
       <c r="BJ24" s="25"/>
       <c r="BK24" s="25"/>
-      <c r="BL24" s="79" t="s">
+      <c r="BL24" s="45" t="s">
         <v>51</v>
       </c>
       <c r="BM24" s="25"/>
@@ -7019,11 +7288,11 @@
       <c r="AJ26" s="4"/>
       <c r="AK26" s="4"/>
       <c r="AL26" s="4"/>
-      <c r="AM26" s="74" t="s">
+      <c r="AM26" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="AN26" s="72"/>
-      <c r="AO26" s="77" t="s">
+      <c r="AN26" s="55"/>
+      <c r="AO26" s="43" t="s">
         <v>45</v>
       </c>
       <c r="AP26" s="11"/>
@@ -7037,7 +7306,7 @@
       <c r="AX26" s="11"/>
       <c r="AY26" s="11"/>
       <c r="AZ26" s="12"/>
-      <c r="BA26" s="82" t="s">
+      <c r="BA26" s="48" t="s">
         <v>48</v>
       </c>
       <c r="BB26" s="13"/>
@@ -7049,8 +7318,8 @@
       <c r="BH26" s="13"/>
       <c r="BI26" s="13"/>
       <c r="BJ26" s="13"/>
-      <c r="BK26" s="81"/>
-      <c r="BL26" s="80"/>
+      <c r="BK26" s="47"/>
+      <c r="BL26" s="46"/>
       <c r="BM26" s="4"/>
       <c r="BN26" s="4"/>
       <c r="BO26" s="4"/>
@@ -7105,9 +7374,9 @@
       <c r="AJ27" s="25"/>
       <c r="AK27" s="25"/>
       <c r="AL27" s="25"/>
-      <c r="AM27" s="76"/>
-      <c r="AN27" s="70"/>
-      <c r="AO27" s="86"/>
+      <c r="AM27" s="42"/>
+      <c r="AN27" s="39"/>
+      <c r="AO27" s="52"/>
       <c r="AP27" s="13"/>
       <c r="AQ27" s="13"/>
       <c r="AR27" s="13"/>
@@ -7119,7 +7388,7 @@
       <c r="AX27" s="13"/>
       <c r="AY27" s="13"/>
       <c r="AZ27" s="12"/>
-      <c r="BA27" s="85"/>
+      <c r="BA27" s="51"/>
       <c r="BB27" s="13"/>
       <c r="BC27" s="13"/>
       <c r="BD27" s="13"/>
@@ -7129,8 +7398,8 @@
       <c r="BH27" s="13"/>
       <c r="BI27" s="13"/>
       <c r="BJ27" s="13"/>
-      <c r="BK27" s="81"/>
-      <c r="BL27" s="87" t="s">
+      <c r="BK27" s="47"/>
+      <c r="BL27" s="53" t="s">
         <v>50</v>
       </c>
       <c r="BM27" s="25"/>
@@ -7267,11 +7536,11 @@
       <c r="AJ29" s="4"/>
       <c r="AK29" s="4"/>
       <c r="AL29" s="4"/>
-      <c r="AM29" s="74" t="s">
+      <c r="AM29" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="AN29" s="75"/>
-      <c r="AO29" s="78" t="s">
+      <c r="AN29" s="56"/>
+      <c r="AO29" s="44" t="s">
         <v>45</v>
       </c>
       <c r="AP29" s="4"/>
@@ -7285,7 +7554,7 @@
       <c r="AX29" s="4"/>
       <c r="AY29" s="4"/>
       <c r="AZ29" s="26"/>
-      <c r="BA29" s="79" t="s">
+      <c r="BA29" s="45" t="s">
         <v>47</v>
       </c>
       <c r="BB29" s="4"/>
@@ -7378,7 +7647,7 @@
       <c r="BI30" s="4"/>
       <c r="BJ30" s="4"/>
       <c r="BK30" s="4"/>
-      <c r="BL30" s="78" t="s">
+      <c r="BL30" s="44" t="s">
         <v>50</v>
       </c>
       <c r="BM30" s="4"/>
@@ -7435,8 +7704,8 @@
       <c r="AJ31" s="4"/>
       <c r="AK31" s="4"/>
       <c r="AL31" s="4"/>
-      <c r="AM31" s="39"/>
-      <c r="AN31" s="72"/>
+      <c r="AM31" s="57"/>
+      <c r="AN31" s="55"/>
       <c r="AO31" s="4"/>
       <c r="AP31" s="4"/>
       <c r="AQ31" s="4"/>
@@ -7595,9 +7864,9 @@
       <c r="AJ33" s="4"/>
       <c r="AK33" s="4"/>
       <c r="AL33" s="4"/>
-      <c r="AM33" s="39"/>
-      <c r="AN33" s="72"/>
-      <c r="AO33" s="73"/>
+      <c r="AM33" s="57"/>
+      <c r="AN33" s="55"/>
+      <c r="AO33" s="41"/>
       <c r="AP33" s="11"/>
       <c r="AQ33" s="11"/>
       <c r="AR33" s="11"/>
@@ -8838,7 +9107,7 @@
     </row>
     <row r="49" spans="1:78" ht="14.25" customHeight="1">
       <c r="A49" s="6"/>
-      <c r="B49" s="78" t="s">
+      <c r="B49" s="44" t="s">
         <v>53</v>
       </c>
       <c r="C49" s="25"/>
@@ -8861,7 +9130,7 @@
       <c r="T49" s="25"/>
       <c r="U49" s="25"/>
       <c r="V49" s="25"/>
-      <c r="W49" s="83"/>
+      <c r="W49" s="49"/>
       <c r="X49" s="25"/>
       <c r="Y49" s="25"/>
       <c r="Z49" s="25"/>
@@ -8941,7 +9210,7 @@
       <c r="T50" s="25"/>
       <c r="U50" s="25"/>
       <c r="V50" s="25"/>
-      <c r="W50" s="84" t="s">
+      <c r="W50" s="50" t="s">
         <v>49</v>
       </c>
       <c r="X50" s="25"/>
@@ -12042,7 +12311,7 @@
     <row r="89" spans="1:78" ht="14.25" customHeight="1">
       <c r="A89" s="6"/>
       <c r="B89" s="25"/>
-      <c r="C89" s="78" t="s">
+      <c r="C89" s="44" t="s">
         <v>54</v>
       </c>
       <c r="D89" s="25"/>
@@ -15324,7 +15593,7 @@
     <row r="130" spans="1:78" ht="15" customHeight="1">
       <c r="A130" s="6"/>
       <c r="B130" s="25"/>
-      <c r="C130" s="78" t="s">
+      <c r="C130" s="44" t="s">
         <v>55</v>
       </c>
       <c r="D130" s="25"/>
@@ -26517,11 +26786,22 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="AM23:AN23"/>
-    <mergeCell ref="AM26:AN26"/>
-    <mergeCell ref="AM29:AN29"/>
-    <mergeCell ref="AM31:AN31"/>
-    <mergeCell ref="AM33:AN33"/>
+    <mergeCell ref="AO5:AU6"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="AM17:AN17"/>
+    <mergeCell ref="AM21:AN21"/>
+    <mergeCell ref="AM19:AN19"/>
+    <mergeCell ref="AM14:AN14"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="AM10:AN10"/>
+    <mergeCell ref="AM12:AN12"/>
+    <mergeCell ref="AM5:AN6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="AE2:AV2"/>
+    <mergeCell ref="AW2:BA2"/>
+    <mergeCell ref="F1:AV1"/>
+    <mergeCell ref="F2:Y2"/>
+    <mergeCell ref="Z2:AD2"/>
     <mergeCell ref="BK1:BO1"/>
     <mergeCell ref="BP1:BX1"/>
     <mergeCell ref="AV5:AZ6"/>
@@ -26531,22 +26811,11 @@
     <mergeCell ref="BK2:BO2"/>
     <mergeCell ref="AW1:BA1"/>
     <mergeCell ref="BP2:BX2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="AE2:AV2"/>
-    <mergeCell ref="AW2:BA2"/>
-    <mergeCell ref="F1:AV1"/>
-    <mergeCell ref="F2:Y2"/>
-    <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="AM17:AN17"/>
-    <mergeCell ref="AM21:AN21"/>
-    <mergeCell ref="AM19:AN19"/>
-    <mergeCell ref="AM14:AN14"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="AM10:AN10"/>
-    <mergeCell ref="AM12:AN12"/>
-    <mergeCell ref="AM5:AN6"/>
-    <mergeCell ref="AO5:AU6"/>
-    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="AM23:AN23"/>
+    <mergeCell ref="AM26:AN26"/>
+    <mergeCell ref="AM29:AN29"/>
+    <mergeCell ref="AM31:AN31"/>
+    <mergeCell ref="AM33:AN33"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/設計書/01.基本設計/02.画面設計/画面設計書(商品詳細).xlsx
+++ b/設計書/01.基本設計/02.画面設計/画面設計書(商品詳細).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DesignDocs\設計書\01.基本設計\02.画面設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A500E24-9AF4-4E8F-8017-EA1DE15BA7CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1ECC04-4471-4330-86B3-6A14D272B0B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -251,16 +251,6 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>久保田　善之</t>
-    <rPh sb="0" eb="3">
-      <t>クボタ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヨシユキ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
     <t>【JTM01】 在庫表示対応</t>
     <rPh sb="8" eb="10">
       <t>ザイコ</t>
@@ -293,6 +283,19 @@
     </rPh>
     <rPh sb="11" eb="13">
       <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>森野　仁巨</t>
+    <rPh sb="0" eb="2">
+      <t>モリノ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ジン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キョ</t>
     </rPh>
     <phoneticPr fontId="10"/>
   </si>
@@ -847,6 +850,65 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -856,65 +918,6 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -5145,8 +5148,8 @@
   </sheetPr>
   <dimension ref="A1:BZ1122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH129" sqref="AH129"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BP2" sqref="BP2:BX2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -5156,188 +5159,188 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="81" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="59"/>
-      <c r="AO1" s="59"/>
-      <c r="AP1" s="59"/>
-      <c r="AQ1" s="59"/>
-      <c r="AR1" s="59"/>
-      <c r="AS1" s="59"/>
-      <c r="AT1" s="59"/>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="60"/>
-      <c r="AW1" s="58" t="s">
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69"/>
+      <c r="Z1" s="69"/>
+      <c r="AA1" s="69"/>
+      <c r="AB1" s="69"/>
+      <c r="AC1" s="69"/>
+      <c r="AD1" s="69"/>
+      <c r="AE1" s="69"/>
+      <c r="AF1" s="69"/>
+      <c r="AG1" s="69"/>
+      <c r="AH1" s="69"/>
+      <c r="AI1" s="69"/>
+      <c r="AJ1" s="69"/>
+      <c r="AK1" s="69"/>
+      <c r="AL1" s="69"/>
+      <c r="AM1" s="69"/>
+      <c r="AN1" s="69"/>
+      <c r="AO1" s="69"/>
+      <c r="AP1" s="69"/>
+      <c r="AQ1" s="69"/>
+      <c r="AR1" s="69"/>
+      <c r="AS1" s="69"/>
+      <c r="AT1" s="69"/>
+      <c r="AU1" s="69"/>
+      <c r="AV1" s="70"/>
+      <c r="AW1" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="AX1" s="59"/>
-      <c r="AY1" s="59"/>
-      <c r="AZ1" s="59"/>
-      <c r="BA1" s="60"/>
-      <c r="BB1" s="74" t="s">
+      <c r="AX1" s="69"/>
+      <c r="AY1" s="69"/>
+      <c r="AZ1" s="69"/>
+      <c r="BA1" s="70"/>
+      <c r="BB1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="BC1" s="70"/>
-      <c r="BD1" s="70"/>
-      <c r="BE1" s="70"/>
-      <c r="BF1" s="70"/>
-      <c r="BG1" s="70"/>
-      <c r="BH1" s="70"/>
-      <c r="BI1" s="70"/>
-      <c r="BJ1" s="71"/>
-      <c r="BK1" s="58" t="s">
+      <c r="BC1" s="64"/>
+      <c r="BD1" s="64"/>
+      <c r="BE1" s="64"/>
+      <c r="BF1" s="64"/>
+      <c r="BG1" s="64"/>
+      <c r="BH1" s="64"/>
+      <c r="BI1" s="64"/>
+      <c r="BJ1" s="65"/>
+      <c r="BK1" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="BL1" s="59"/>
-      <c r="BM1" s="59"/>
-      <c r="BN1" s="59"/>
-      <c r="BO1" s="60"/>
-      <c r="BP1" s="61" t="s">
+      <c r="BL1" s="69"/>
+      <c r="BM1" s="69"/>
+      <c r="BN1" s="69"/>
+      <c r="BO1" s="70"/>
+      <c r="BP1" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="BQ1" s="59"/>
-      <c r="BR1" s="59"/>
-      <c r="BS1" s="59"/>
-      <c r="BT1" s="59"/>
-      <c r="BU1" s="59"/>
-      <c r="BV1" s="59"/>
-      <c r="BW1" s="59"/>
-      <c r="BX1" s="62"/>
+      <c r="BQ1" s="69"/>
+      <c r="BR1" s="69"/>
+      <c r="BS1" s="69"/>
+      <c r="BT1" s="69"/>
+      <c r="BU1" s="69"/>
+      <c r="BV1" s="69"/>
+      <c r="BW1" s="69"/>
+      <c r="BX1" s="77"/>
       <c r="BY1" s="1"/>
       <c r="BZ1" s="1"/>
     </row>
     <row r="2" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="82" t="s">
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="70"/>
-      <c r="W2" s="70"/>
-      <c r="X2" s="70"/>
-      <c r="Y2" s="71"/>
-      <c r="Z2" s="75" t="s">
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="70"/>
-      <c r="AB2" s="70"/>
-      <c r="AC2" s="70"/>
-      <c r="AD2" s="71"/>
-      <c r="AE2" s="80"/>
-      <c r="AF2" s="70"/>
-      <c r="AG2" s="70"/>
-      <c r="AH2" s="70"/>
-      <c r="AI2" s="70"/>
-      <c r="AJ2" s="70"/>
-      <c r="AK2" s="70"/>
-      <c r="AL2" s="70"/>
-      <c r="AM2" s="70"/>
-      <c r="AN2" s="70"/>
-      <c r="AO2" s="70"/>
-      <c r="AP2" s="70"/>
-      <c r="AQ2" s="70"/>
-      <c r="AR2" s="70"/>
-      <c r="AS2" s="70"/>
-      <c r="AT2" s="70"/>
-      <c r="AU2" s="70"/>
-      <c r="AV2" s="71"/>
-      <c r="AW2" s="75" t="s">
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="65"/>
+      <c r="AE2" s="71"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="64"/>
+      <c r="AH2" s="64"/>
+      <c r="AI2" s="64"/>
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="64"/>
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="64"/>
+      <c r="AN2" s="64"/>
+      <c r="AO2" s="64"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="64"/>
+      <c r="AR2" s="64"/>
+      <c r="AS2" s="64"/>
+      <c r="AT2" s="64"/>
+      <c r="AU2" s="64"/>
+      <c r="AV2" s="65"/>
+      <c r="AW2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="AX2" s="70"/>
-      <c r="AY2" s="70"/>
-      <c r="AZ2" s="70"/>
-      <c r="BA2" s="71"/>
-      <c r="BB2" s="69">
-        <v>43382</v>
+      <c r="AX2" s="64"/>
+      <c r="AY2" s="64"/>
+      <c r="AZ2" s="64"/>
+      <c r="BA2" s="65"/>
+      <c r="BB2" s="78">
+        <v>43383</v>
       </c>
-      <c r="BC2" s="70"/>
-      <c r="BD2" s="70"/>
-      <c r="BE2" s="70"/>
-      <c r="BF2" s="70"/>
-      <c r="BG2" s="70"/>
-      <c r="BH2" s="70"/>
-      <c r="BI2" s="70"/>
-      <c r="BJ2" s="71"/>
-      <c r="BK2" s="75" t="s">
+      <c r="BC2" s="64"/>
+      <c r="BD2" s="64"/>
+      <c r="BE2" s="64"/>
+      <c r="BF2" s="64"/>
+      <c r="BG2" s="64"/>
+      <c r="BH2" s="64"/>
+      <c r="BI2" s="64"/>
+      <c r="BJ2" s="65"/>
+      <c r="BK2" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="BL2" s="70"/>
-      <c r="BM2" s="70"/>
-      <c r="BN2" s="70"/>
-      <c r="BO2" s="71"/>
-      <c r="BP2" s="76" t="s">
-        <v>52</v>
+      <c r="BL2" s="64"/>
+      <c r="BM2" s="64"/>
+      <c r="BN2" s="64"/>
+      <c r="BO2" s="65"/>
+      <c r="BP2" s="82" t="s">
+        <v>55</v>
       </c>
-      <c r="BQ2" s="77"/>
-      <c r="BR2" s="77"/>
-      <c r="BS2" s="77"/>
-      <c r="BT2" s="77"/>
-      <c r="BU2" s="77"/>
-      <c r="BV2" s="77"/>
-      <c r="BW2" s="77"/>
-      <c r="BX2" s="78"/>
+      <c r="BQ2" s="83"/>
+      <c r="BR2" s="83"/>
+      <c r="BS2" s="83"/>
+      <c r="BT2" s="83"/>
+      <c r="BU2" s="83"/>
+      <c r="BV2" s="83"/>
+      <c r="BW2" s="83"/>
+      <c r="BX2" s="84"/>
       <c r="BY2" s="1"/>
       <c r="BZ2" s="1"/>
     </row>
@@ -5542,51 +5545,51 @@
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
-      <c r="AM5" s="85" t="s">
+      <c r="AM5" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="AN5" s="65"/>
-      <c r="AO5" s="63" t="s">
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="AP5" s="64"/>
-      <c r="AQ5" s="64"/>
-      <c r="AR5" s="64"/>
-      <c r="AS5" s="64"/>
-      <c r="AT5" s="64"/>
-      <c r="AU5" s="65"/>
-      <c r="AV5" s="63" t="s">
+      <c r="AP5" s="55"/>
+      <c r="AQ5" s="55"/>
+      <c r="AR5" s="55"/>
+      <c r="AS5" s="55"/>
+      <c r="AT5" s="55"/>
+      <c r="AU5" s="56"/>
+      <c r="AV5" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="AW5" s="64"/>
-      <c r="AX5" s="64"/>
-      <c r="AY5" s="64"/>
-      <c r="AZ5" s="65"/>
-      <c r="BA5" s="63" t="s">
+      <c r="AW5" s="55"/>
+      <c r="AX5" s="55"/>
+      <c r="AY5" s="55"/>
+      <c r="AZ5" s="56"/>
+      <c r="BA5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="BB5" s="64"/>
-      <c r="BC5" s="64"/>
-      <c r="BD5" s="64"/>
-      <c r="BE5" s="64"/>
-      <c r="BF5" s="64"/>
-      <c r="BG5" s="64"/>
-      <c r="BH5" s="64"/>
-      <c r="BI5" s="64"/>
-      <c r="BJ5" s="64"/>
-      <c r="BK5" s="64"/>
-      <c r="BL5" s="64"/>
-      <c r="BM5" s="64"/>
-      <c r="BN5" s="64"/>
-      <c r="BO5" s="64"/>
-      <c r="BP5" s="64"/>
-      <c r="BQ5" s="64"/>
-      <c r="BR5" s="64"/>
-      <c r="BS5" s="64"/>
-      <c r="BT5" s="64"/>
-      <c r="BU5" s="64"/>
-      <c r="BV5" s="64"/>
-      <c r="BW5" s="72"/>
+      <c r="BB5" s="55"/>
+      <c r="BC5" s="55"/>
+      <c r="BD5" s="55"/>
+      <c r="BE5" s="55"/>
+      <c r="BF5" s="55"/>
+      <c r="BG5" s="55"/>
+      <c r="BH5" s="55"/>
+      <c r="BI5" s="55"/>
+      <c r="BJ5" s="55"/>
+      <c r="BK5" s="55"/>
+      <c r="BL5" s="55"/>
+      <c r="BM5" s="55"/>
+      <c r="BN5" s="55"/>
+      <c r="BO5" s="55"/>
+      <c r="BP5" s="55"/>
+      <c r="BQ5" s="55"/>
+      <c r="BR5" s="55"/>
+      <c r="BS5" s="55"/>
+      <c r="BT5" s="55"/>
+      <c r="BU5" s="55"/>
+      <c r="BV5" s="55"/>
+      <c r="BW5" s="79"/>
       <c r="BX5" s="8"/>
       <c r="BY5" s="4"/>
       <c r="BZ5" s="4"/>
@@ -5630,43 +5633,43 @@
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
-      <c r="AM6" s="86"/>
-      <c r="AN6" s="68"/>
-      <c r="AO6" s="66"/>
-      <c r="AP6" s="67"/>
-      <c r="AQ6" s="67"/>
-      <c r="AR6" s="67"/>
-      <c r="AS6" s="67"/>
-      <c r="AT6" s="67"/>
-      <c r="AU6" s="68"/>
-      <c r="AV6" s="66"/>
-      <c r="AW6" s="67"/>
-      <c r="AX6" s="67"/>
-      <c r="AY6" s="67"/>
-      <c r="AZ6" s="68"/>
-      <c r="BA6" s="66"/>
-      <c r="BB6" s="67"/>
-      <c r="BC6" s="67"/>
-      <c r="BD6" s="67"/>
-      <c r="BE6" s="67"/>
-      <c r="BF6" s="67"/>
-      <c r="BG6" s="67"/>
-      <c r="BH6" s="67"/>
-      <c r="BI6" s="67"/>
-      <c r="BJ6" s="67"/>
-      <c r="BK6" s="67"/>
-      <c r="BL6" s="67"/>
-      <c r="BM6" s="67"/>
-      <c r="BN6" s="67"/>
-      <c r="BO6" s="67"/>
-      <c r="BP6" s="67"/>
-      <c r="BQ6" s="67"/>
-      <c r="BR6" s="67"/>
-      <c r="BS6" s="67"/>
-      <c r="BT6" s="67"/>
-      <c r="BU6" s="67"/>
-      <c r="BV6" s="67"/>
-      <c r="BW6" s="73"/>
+      <c r="AM6" s="67"/>
+      <c r="AN6" s="59"/>
+      <c r="AO6" s="57"/>
+      <c r="AP6" s="58"/>
+      <c r="AQ6" s="58"/>
+      <c r="AR6" s="58"/>
+      <c r="AS6" s="58"/>
+      <c r="AT6" s="58"/>
+      <c r="AU6" s="59"/>
+      <c r="AV6" s="57"/>
+      <c r="AW6" s="58"/>
+      <c r="AX6" s="58"/>
+      <c r="AY6" s="58"/>
+      <c r="AZ6" s="59"/>
+      <c r="BA6" s="57"/>
+      <c r="BB6" s="58"/>
+      <c r="BC6" s="58"/>
+      <c r="BD6" s="58"/>
+      <c r="BE6" s="58"/>
+      <c r="BF6" s="58"/>
+      <c r="BG6" s="58"/>
+      <c r="BH6" s="58"/>
+      <c r="BI6" s="58"/>
+      <c r="BJ6" s="58"/>
+      <c r="BK6" s="58"/>
+      <c r="BL6" s="58"/>
+      <c r="BM6" s="58"/>
+      <c r="BN6" s="58"/>
+      <c r="BO6" s="58"/>
+      <c r="BP6" s="58"/>
+      <c r="BQ6" s="58"/>
+      <c r="BR6" s="58"/>
+      <c r="BS6" s="58"/>
+      <c r="BT6" s="58"/>
+      <c r="BU6" s="58"/>
+      <c r="BV6" s="58"/>
+      <c r="BW6" s="80"/>
       <c r="BX6" s="8"/>
       <c r="BY6" s="4"/>
       <c r="BZ6" s="4"/>
@@ -5710,10 +5713,10 @@
       <c r="AJ7" s="4"/>
       <c r="AK7" s="4"/>
       <c r="AL7" s="4"/>
-      <c r="AM7" s="57" t="s">
+      <c r="AM7" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="AN7" s="87"/>
+      <c r="AN7" s="61"/>
       <c r="AO7" s="11" t="s">
         <v>17</v>
       </c>
@@ -5960,10 +5963,10 @@
       <c r="AJ10" s="4"/>
       <c r="AK10" s="4"/>
       <c r="AL10" s="4"/>
-      <c r="AM10" s="57" t="s">
+      <c r="AM10" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="AN10" s="83"/>
+      <c r="AN10" s="62"/>
       <c r="AO10" s="17" t="s">
         <v>22</v>
       </c>
@@ -6126,10 +6129,10 @@
       <c r="AJ12" s="4"/>
       <c r="AK12" s="4"/>
       <c r="AL12" s="4"/>
-      <c r="AM12" s="57" t="s">
+      <c r="AM12" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="AN12" s="83"/>
+      <c r="AN12" s="62"/>
       <c r="AO12" s="18" t="s">
         <v>25</v>
       </c>
@@ -6292,10 +6295,10 @@
       <c r="AJ14" s="4"/>
       <c r="AK14" s="4"/>
       <c r="AL14" s="4"/>
-      <c r="AM14" s="57" t="s">
+      <c r="AM14" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="AN14" s="83"/>
+      <c r="AN14" s="62"/>
       <c r="AO14" s="20" t="s">
         <v>28</v>
       </c>
@@ -6539,10 +6542,10 @@
       <c r="AJ17" s="4"/>
       <c r="AK17" s="4"/>
       <c r="AL17" s="4"/>
-      <c r="AM17" s="57" t="s">
+      <c r="AM17" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="AN17" s="83"/>
+      <c r="AN17" s="62"/>
       <c r="AO17" s="20" t="s">
         <v>32</v>
       </c>
@@ -6704,10 +6707,10 @@
       <c r="AI19" s="4"/>
       <c r="AJ19" s="4"/>
       <c r="AL19" s="4"/>
-      <c r="AM19" s="57" t="s">
+      <c r="AM19" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="AN19" s="83"/>
+      <c r="AN19" s="62"/>
       <c r="AO19" s="18" t="s">
         <v>35</v>
       </c>
@@ -6872,10 +6875,10 @@
       <c r="AJ21" s="4"/>
       <c r="AK21" s="4"/>
       <c r="AL21" s="4"/>
-      <c r="AM21" s="57" t="s">
+      <c r="AM21" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="AN21" s="83"/>
+      <c r="AN21" s="62"/>
       <c r="AO21" s="18" t="s">
         <v>39</v>
       </c>
@@ -7040,10 +7043,10 @@
       <c r="AJ23" s="4"/>
       <c r="AK23" s="40"/>
       <c r="AL23" s="39"/>
-      <c r="AM23" s="54" t="s">
+      <c r="AM23" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="AN23" s="55"/>
+      <c r="AN23" s="86"/>
       <c r="AO23" s="43" t="s">
         <v>45</v>
       </c>
@@ -7288,10 +7291,10 @@
       <c r="AJ26" s="4"/>
       <c r="AK26" s="4"/>
       <c r="AL26" s="4"/>
-      <c r="AM26" s="54" t="s">
+      <c r="AM26" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="AN26" s="55"/>
+      <c r="AN26" s="86"/>
       <c r="AO26" s="43" t="s">
         <v>45</v>
       </c>
@@ -7536,10 +7539,10 @@
       <c r="AJ29" s="4"/>
       <c r="AK29" s="4"/>
       <c r="AL29" s="4"/>
-      <c r="AM29" s="54" t="s">
+      <c r="AM29" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="AN29" s="56"/>
+      <c r="AN29" s="87"/>
       <c r="AO29" s="44" t="s">
         <v>45</v>
       </c>
@@ -7704,8 +7707,8 @@
       <c r="AJ31" s="4"/>
       <c r="AK31" s="4"/>
       <c r="AL31" s="4"/>
-      <c r="AM31" s="57"/>
-      <c r="AN31" s="55"/>
+      <c r="AM31" s="60"/>
+      <c r="AN31" s="86"/>
       <c r="AO31" s="4"/>
       <c r="AP31" s="4"/>
       <c r="AQ31" s="4"/>
@@ -7864,8 +7867,8 @@
       <c r="AJ33" s="4"/>
       <c r="AK33" s="4"/>
       <c r="AL33" s="4"/>
-      <c r="AM33" s="57"/>
-      <c r="AN33" s="55"/>
+      <c r="AM33" s="60"/>
+      <c r="AN33" s="86"/>
       <c r="AO33" s="41"/>
       <c r="AP33" s="11"/>
       <c r="AQ33" s="11"/>
@@ -9108,7 +9111,7 @@
     <row r="49" spans="1:78" ht="14.25" customHeight="1">
       <c r="A49" s="6"/>
       <c r="B49" s="44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -12312,7 +12315,7 @@
       <c r="A89" s="6"/>
       <c r="B89" s="25"/>
       <c r="C89" s="44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D89" s="25"/>
       <c r="E89" s="25"/>
@@ -15594,7 +15597,7 @@
       <c r="A130" s="6"/>
       <c r="B130" s="25"/>
       <c r="C130" s="44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D130" s="25"/>
       <c r="E130" s="25"/>
@@ -26786,23 +26789,11 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="AO5:AU6"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="AM17:AN17"/>
-    <mergeCell ref="AM21:AN21"/>
-    <mergeCell ref="AM19:AN19"/>
-    <mergeCell ref="AM14:AN14"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="AM10:AN10"/>
-    <mergeCell ref="AM12:AN12"/>
-    <mergeCell ref="AM5:AN6"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="AE2:AV2"/>
-    <mergeCell ref="AW2:BA2"/>
-    <mergeCell ref="F1:AV1"/>
-    <mergeCell ref="F2:Y2"/>
-    <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="BK1:BO1"/>
+    <mergeCell ref="AM23:AN23"/>
+    <mergeCell ref="AM26:AN26"/>
+    <mergeCell ref="AM29:AN29"/>
+    <mergeCell ref="AM31:AN31"/>
+    <mergeCell ref="AM33:AN33"/>
     <mergeCell ref="BP1:BX1"/>
     <mergeCell ref="AV5:AZ6"/>
     <mergeCell ref="BB2:BJ2"/>
@@ -26811,11 +26802,23 @@
     <mergeCell ref="BK2:BO2"/>
     <mergeCell ref="AW1:BA1"/>
     <mergeCell ref="BP2:BX2"/>
-    <mergeCell ref="AM23:AN23"/>
-    <mergeCell ref="AM26:AN26"/>
-    <mergeCell ref="AM29:AN29"/>
-    <mergeCell ref="AM31:AN31"/>
-    <mergeCell ref="AM33:AN33"/>
+    <mergeCell ref="AW2:BA2"/>
+    <mergeCell ref="F1:AV1"/>
+    <mergeCell ref="F2:Y2"/>
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="BK1:BO1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="AM10:AN10"/>
+    <mergeCell ref="AM12:AN12"/>
+    <mergeCell ref="AM5:AN6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="AE2:AV2"/>
+    <mergeCell ref="AO5:AU6"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="AM17:AN17"/>
+    <mergeCell ref="AM21:AN21"/>
+    <mergeCell ref="AM19:AN19"/>
+    <mergeCell ref="AM14:AN14"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/設計書/01.基本設計/02.画面設計/画面設計書(商品詳細).xlsx
+++ b/設計書/01.基本設計/02.画面設計/画面設計書(商品詳細).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\DesignDocs\設計書\01.基本設計\02.画面設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0101B07D-A9FE-456B-8D2C-079A14DF5CD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DBEE96-164A-4C01-8426-638D57B05C4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="27420" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>システム名</t>
   </si>
@@ -157,12 +157,213 @@
     </rPh>
     <phoneticPr fontId="10"/>
   </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>在庫表示</t>
+    <rPh sb="0" eb="2">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>在庫数が２０個以下の場合、在庫数を表示する。</t>
+    <rPh sb="0" eb="3">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>参考価格（税込み）</t>
+    <rPh sb="0" eb="2">
+      <t>サンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゼイコ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>参考価格（税込）を表示。</t>
+    <rPh sb="0" eb="4">
+      <t>サンコウカカク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゼイコ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>割引率</t>
+    <rPh sb="0" eb="3">
+      <t>ワリビキリツ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>商品マスタテーブルより取得した参考価格をもとに税込計算した</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>サンコウカカク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ゼイコ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>商品マスタテーブルより取得した参考価格、販売単価をもとに計算した</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>サンコウカカク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>割引率を表示</t>
+    <rPh sb="0" eb="3">
+      <t>ワリビキリツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>問い合わせフォームボタン</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>押下することで問い合わせフォームへ遷移する。</t>
+    <rPh sb="0" eb="2">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>完売表示</t>
+    <rPh sb="0" eb="2">
+      <t>カンバイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>在庫数が０個になるとカートに入れるボタンが配置されなくなり完売と</t>
+    <rPh sb="0" eb="3">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カンバイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>表示される。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -215,6 +416,18 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="MS PGothic"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="MS PGothic"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -569,7 +782,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -633,38 +846,46 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -672,26 +893,41 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1276,18 +1512,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="190500" cy="819150"/>
+    <xdr:ext cx="790575" cy="295275"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Shape 10">
+        <xdr:cNvPr id="14" name="Shape 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1295,200 +1531,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5274563" y="3499013"/>
-          <a:ext cx="142875" cy="561975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightBrace">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 8333"/>
-            <a:gd name="adj2" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-          <a:headEnd type="none" w="sm" len="sm"/>
-          <a:tailEnd type="none" w="sm" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:endParaRPr sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="190500" cy="5295900"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Shape 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5274563" y="984413"/>
-          <a:ext cx="142875" cy="5591175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightBrace">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 8333"/>
-            <a:gd name="adj2" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-          <a:headEnd type="none" w="sm" len="sm"/>
-          <a:tailEnd type="none" w="sm" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:endParaRPr sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="161925" cy="571500"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Shape 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5274563" y="3503775"/>
-          <a:ext cx="142875" cy="552450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightBrace">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 8333"/>
-            <a:gd name="adj2" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-          <a:headEnd type="none" w="sm" len="sm"/>
-          <a:tailEnd type="none" w="sm" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:endParaRPr sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="790575" cy="314325"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Shape 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4955475" y="3632363"/>
-          <a:ext cx="781050" cy="295275"/>
+          <a:off x="5962650" y="5391150"/>
+          <a:ext cx="790575" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1513,18 +1557,6 @@
             </a:spcAft>
             <a:buNone/>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>header</a:t>
-          </a:r>
           <a:endParaRPr sz="1400"/>
         </a:p>
       </xdr:txBody>
@@ -1533,236 +1565,88 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="790575" cy="295275"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Shape 14">
+    <xdr:ext cx="304800" cy="314325"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="image1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>178072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="図 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F409603D-674C-4309-837C-57AC5F219DB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4955475" y="3632363"/>
-          <a:ext cx="781050" cy="295275"/>
+          <a:off x="190500" y="1244872"/>
+          <a:ext cx="7229475" cy="3450954"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
       </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>body</a:t>
-          </a:r>
-          <a:endParaRPr sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="790575" cy="314325"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Shape 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4955475" y="3627600"/>
-          <a:ext cx="781050" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>footer</a:t>
-          </a:r>
-          <a:endParaRPr sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="6696075" cy="6848475"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="16" name="Shape 16" title="図形描画">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="123825" y="1209675"/>
-          <a:ext cx="6696075" cy="6848475"/>
-          <a:chOff x="152400" y="152400"/>
-          <a:chExt cx="7315202" cy="4017819"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="17" name="Shape 17" descr="スクリーンショット 2018-03-14 16.57.55.png">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr preferRelativeResize="0"/>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-            <a:alphaModFix/>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="152400" y="152400"/>
-            <a:ext cx="7315201" cy="3633378"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="18" name="Shape 18" descr="スクリーンショット 2018-03-14 16.59.56.png">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr preferRelativeResize="0"/>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-            <a:alphaModFix/>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="152400" y="3785778"/>
-            <a:ext cx="7315202" cy="384441"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="219075" cy="266700"/>
     <xdr:sp macro="" textlink="">
@@ -1778,8 +1662,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3549225" y="1656750"/>
-          <a:ext cx="295800" cy="248100"/>
+          <a:off x="1304925" y="2028825"/>
+          <a:ext cx="219075" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
           <a:avLst>
@@ -1827,10 +1711,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="228600" cy="257175"/>
     <xdr:sp macro="" textlink="">
@@ -1846,8 +1730,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3511050" y="1408675"/>
-          <a:ext cx="267300" cy="238500"/>
+          <a:off x="2819400" y="1590675"/>
+          <a:ext cx="228600" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
           <a:avLst>
@@ -1895,10 +1779,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="228600" cy="276225"/>
     <xdr:sp macro="" textlink="">
@@ -1914,8 +1798,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3205750" y="1380075"/>
-          <a:ext cx="305400" cy="257700"/>
+          <a:off x="3895725" y="1666875"/>
+          <a:ext cx="228600" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
           <a:avLst>
@@ -1963,10 +1847,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="276225" cy="238125"/>
     <xdr:sp macro="" textlink="">
@@ -1981,9 +1865,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3577850" y="1284650"/>
-          <a:ext cx="286200" cy="238500"/>
+        <a:xfrm rot="751521">
+          <a:off x="3181351" y="2419349"/>
+          <a:ext cx="276225" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
           <a:avLst>
@@ -2031,12 +1915,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="304800" cy="247650"/>
+    <xdr:ext cx="533400" cy="247650"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="23" name="Shape 23">
@@ -2050,8 +1934,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3100800" y="1246500"/>
-          <a:ext cx="286200" cy="228900"/>
+          <a:off x="4324350" y="1981200"/>
+          <a:ext cx="533400" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
           <a:avLst>
@@ -2089,7 +1973,7 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1400"/>
-            <a:t>5</a:t>
+            <a:t>10</a:t>
           </a:r>
           <a:endParaRPr sz="1400"/>
         </a:p>
@@ -2099,10 +1983,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="295275" cy="266700"/>
     <xdr:sp macro="" textlink="">
@@ -2118,8 +2002,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2652375" y="1589975"/>
-          <a:ext cx="276600" cy="248100"/>
+          <a:off x="5972175" y="1562100"/>
+          <a:ext cx="295275" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
           <a:avLst>
@@ -2167,10 +2051,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="295275" cy="266700"/>
     <xdr:sp macro="" textlink="">
@@ -2186,8 +2070,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3577850" y="1885725"/>
-          <a:ext cx="276600" cy="248100"/>
+          <a:off x="6915150" y="2305050"/>
+          <a:ext cx="295275" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
           <a:avLst>
@@ -2235,36 +2119,386 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="304800" cy="314325"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png">
+    <xdr:ext cx="295275" cy="266700"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Shape 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80888A60-D036-483E-9AEB-C3F20A36B6AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6010275" y="2419350"/>
+          <a:ext cx="295275" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -47147"/>
+            <a:gd name="adj2" fmla="val -74141"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="6AA84F"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>8</a:t>
+          </a:r>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>63773</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="276225" cy="238125"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Shape 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F1CE86D-DB0B-41E9-94AB-B3853D757A9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="751521">
+          <a:off x="2409826" y="2397398"/>
+          <a:ext cx="276225" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 30005"/>
+            <a:gd name="adj2" fmla="val -62002"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="6AA84F"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>９</a:t>
+          </a:r>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="295275" cy="266700"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Shape 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB09DE65-EAA2-4481-B1D2-5EA2186EC586}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4381500" y="2828925"/>
+          <a:ext cx="295275" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -47147"/>
+            <a:gd name="adj2" fmla="val -74141"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="6AA84F"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="552450" cy="266700"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Shape 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CD70677-64D2-42A2-B403-3A0B485A695D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3019425" y="3076575"/>
+          <a:ext cx="552450" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -47147"/>
+            <a:gd name="adj2" fmla="val -74141"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="6AA84F"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>11</a:t>
+          </a:r>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="図 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FFB836A-B76C-49CF-83F7-6F9045E0549F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="209549" y="4876800"/>
+          <a:ext cx="7200901" cy="4152900"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="552450" cy="266700"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Shape 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F98290F-8BF1-4657-9B41-714EED63D8E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6086475" y="6115050"/>
+          <a:ext cx="552450" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -47147"/>
+            <a:gd name="adj2" fmla="val -74141"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="6AA84F"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>12</a:t>
+          </a:r>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
@@ -2572,8 +2806,8 @@
   </sheetPr>
   <dimension ref="A1:BZ1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BP2" sqref="BP2:BX2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="BA34" sqref="BA34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -2583,66 +2817,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="58" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="54"/>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="54"/>
-      <c r="AI1" s="54"/>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="54"/>
-      <c r="AL1" s="54"/>
-      <c r="AM1" s="54"/>
-      <c r="AN1" s="54"/>
-      <c r="AO1" s="54"/>
-      <c r="AP1" s="54"/>
-      <c r="AQ1" s="54"/>
-      <c r="AR1" s="54"/>
-      <c r="AS1" s="54"/>
-      <c r="AT1" s="54"/>
-      <c r="AU1" s="54"/>
-      <c r="AV1" s="55"/>
-      <c r="AW1" s="60" t="s">
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="40"/>
+      <c r="AL1" s="40"/>
+      <c r="AM1" s="40"/>
+      <c r="AN1" s="40"/>
+      <c r="AO1" s="40"/>
+      <c r="AP1" s="40"/>
+      <c r="AQ1" s="40"/>
+      <c r="AR1" s="40"/>
+      <c r="AS1" s="40"/>
+      <c r="AT1" s="40"/>
+      <c r="AU1" s="40"/>
+      <c r="AV1" s="41"/>
+      <c r="AW1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="AX1" s="54"/>
-      <c r="AY1" s="54"/>
-      <c r="AZ1" s="54"/>
-      <c r="BA1" s="55"/>
-      <c r="BB1" s="66" t="s">
+      <c r="AX1" s="40"/>
+      <c r="AY1" s="40"/>
+      <c r="AZ1" s="40"/>
+      <c r="BA1" s="41"/>
+      <c r="BB1" s="55" t="s">
         <v>3</v>
       </c>
       <c r="BC1" s="51"/>
@@ -2653,36 +2887,36 @@
       <c r="BH1" s="51"/>
       <c r="BI1" s="51"/>
       <c r="BJ1" s="52"/>
-      <c r="BK1" s="60" t="s">
+      <c r="BK1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="BL1" s="54"/>
-      <c r="BM1" s="54"/>
-      <c r="BN1" s="54"/>
-      <c r="BO1" s="55"/>
-      <c r="BP1" s="61" t="s">
+      <c r="BL1" s="40"/>
+      <c r="BM1" s="40"/>
+      <c r="BN1" s="40"/>
+      <c r="BO1" s="41"/>
+      <c r="BP1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="BQ1" s="54"/>
-      <c r="BR1" s="54"/>
-      <c r="BS1" s="54"/>
-      <c r="BT1" s="54"/>
-      <c r="BU1" s="54"/>
-      <c r="BV1" s="54"/>
-      <c r="BW1" s="54"/>
-      <c r="BX1" s="62"/>
+      <c r="BQ1" s="40"/>
+      <c r="BR1" s="40"/>
+      <c r="BS1" s="40"/>
+      <c r="BT1" s="40"/>
+      <c r="BU1" s="40"/>
+      <c r="BV1" s="40"/>
+      <c r="BW1" s="40"/>
+      <c r="BX1" s="43"/>
       <c r="BY1" s="1"/>
       <c r="BZ1" s="1"/>
     </row>
     <row r="2" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="66" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="51"/>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
       <c r="E2" s="52"/>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="63" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="51"/>
@@ -2704,14 +2938,14 @@
       <c r="W2" s="51"/>
       <c r="X2" s="51"/>
       <c r="Y2" s="52"/>
-      <c r="Z2" s="57" t="s">
+      <c r="Z2" s="56" t="s">
         <v>8</v>
       </c>
       <c r="AA2" s="51"/>
       <c r="AB2" s="51"/>
       <c r="AC2" s="51"/>
       <c r="AD2" s="52"/>
-      <c r="AE2" s="56"/>
+      <c r="AE2" s="61"/>
       <c r="AF2" s="51"/>
       <c r="AG2" s="51"/>
       <c r="AH2" s="51"/>
@@ -2729,15 +2963,15 @@
       <c r="AT2" s="51"/>
       <c r="AU2" s="51"/>
       <c r="AV2" s="52"/>
-      <c r="AW2" s="57" t="s">
+      <c r="AW2" s="56" t="s">
         <v>9</v>
       </c>
       <c r="AX2" s="51"/>
       <c r="AY2" s="51"/>
       <c r="AZ2" s="51"/>
       <c r="BA2" s="52"/>
-      <c r="BB2" s="63">
-        <v>43173</v>
+      <c r="BB2" s="50">
+        <v>43776</v>
       </c>
       <c r="BC2" s="51"/>
       <c r="BD2" s="51"/>
@@ -2747,24 +2981,24 @@
       <c r="BH2" s="51"/>
       <c r="BI2" s="51"/>
       <c r="BJ2" s="52"/>
-      <c r="BK2" s="57" t="s">
+      <c r="BK2" s="56" t="s">
         <v>10</v>
       </c>
       <c r="BL2" s="51"/>
       <c r="BM2" s="51"/>
       <c r="BN2" s="51"/>
       <c r="BO2" s="52"/>
-      <c r="BP2" s="67" t="s">
+      <c r="BP2" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="BQ2" s="68"/>
-      <c r="BR2" s="68"/>
-      <c r="BS2" s="68"/>
-      <c r="BT2" s="68"/>
-      <c r="BU2" s="68"/>
-      <c r="BV2" s="68"/>
-      <c r="BW2" s="68"/>
-      <c r="BX2" s="69"/>
+      <c r="BQ2" s="58"/>
+      <c r="BR2" s="58"/>
+      <c r="BS2" s="58"/>
+      <c r="BT2" s="58"/>
+      <c r="BU2" s="58"/>
+      <c r="BV2" s="58"/>
+      <c r="BW2" s="58"/>
+      <c r="BX2" s="59"/>
       <c r="BY2" s="1"/>
       <c r="BZ2" s="1"/>
     </row>
@@ -2969,51 +3203,51 @@
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
-      <c r="AM5" s="41" t="s">
+      <c r="AM5" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="AN5" s="42"/>
-      <c r="AO5" s="45" t="s">
+      <c r="AN5" s="46"/>
+      <c r="AO5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="AP5" s="46"/>
-      <c r="AQ5" s="46"/>
-      <c r="AR5" s="46"/>
-      <c r="AS5" s="46"/>
-      <c r="AT5" s="46"/>
-      <c r="AU5" s="42"/>
-      <c r="AV5" s="45" t="s">
+      <c r="AP5" s="45"/>
+      <c r="AQ5" s="45"/>
+      <c r="AR5" s="45"/>
+      <c r="AS5" s="45"/>
+      <c r="AT5" s="45"/>
+      <c r="AU5" s="46"/>
+      <c r="AV5" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="AW5" s="46"/>
-      <c r="AX5" s="46"/>
-      <c r="AY5" s="46"/>
-      <c r="AZ5" s="42"/>
-      <c r="BA5" s="45" t="s">
+      <c r="AW5" s="45"/>
+      <c r="AX5" s="45"/>
+      <c r="AY5" s="45"/>
+      <c r="AZ5" s="46"/>
+      <c r="BA5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="BB5" s="46"/>
-      <c r="BC5" s="46"/>
-      <c r="BD5" s="46"/>
-      <c r="BE5" s="46"/>
-      <c r="BF5" s="46"/>
-      <c r="BG5" s="46"/>
-      <c r="BH5" s="46"/>
-      <c r="BI5" s="46"/>
-      <c r="BJ5" s="46"/>
-      <c r="BK5" s="46"/>
-      <c r="BL5" s="46"/>
-      <c r="BM5" s="46"/>
-      <c r="BN5" s="46"/>
-      <c r="BO5" s="46"/>
-      <c r="BP5" s="46"/>
-      <c r="BQ5" s="46"/>
-      <c r="BR5" s="46"/>
-      <c r="BS5" s="46"/>
-      <c r="BT5" s="46"/>
-      <c r="BU5" s="46"/>
-      <c r="BV5" s="46"/>
-      <c r="BW5" s="64"/>
+      <c r="BB5" s="45"/>
+      <c r="BC5" s="45"/>
+      <c r="BD5" s="45"/>
+      <c r="BE5" s="45"/>
+      <c r="BF5" s="45"/>
+      <c r="BG5" s="45"/>
+      <c r="BH5" s="45"/>
+      <c r="BI5" s="45"/>
+      <c r="BJ5" s="45"/>
+      <c r="BK5" s="45"/>
+      <c r="BL5" s="45"/>
+      <c r="BM5" s="45"/>
+      <c r="BN5" s="45"/>
+      <c r="BO5" s="45"/>
+      <c r="BP5" s="45"/>
+      <c r="BQ5" s="45"/>
+      <c r="BR5" s="45"/>
+      <c r="BS5" s="45"/>
+      <c r="BT5" s="45"/>
+      <c r="BU5" s="45"/>
+      <c r="BV5" s="45"/>
+      <c r="BW5" s="53"/>
       <c r="BX5" s="8"/>
       <c r="BY5" s="4"/>
       <c r="BZ5" s="4"/>
@@ -3057,20 +3291,20 @@
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
-      <c r="AM6" s="43"/>
-      <c r="AN6" s="44"/>
+      <c r="AM6" s="68"/>
+      <c r="AN6" s="49"/>
       <c r="AO6" s="47"/>
       <c r="AP6" s="48"/>
       <c r="AQ6" s="48"/>
       <c r="AR6" s="48"/>
       <c r="AS6" s="48"/>
       <c r="AT6" s="48"/>
-      <c r="AU6" s="44"/>
+      <c r="AU6" s="49"/>
       <c r="AV6" s="47"/>
       <c r="AW6" s="48"/>
       <c r="AX6" s="48"/>
       <c r="AY6" s="48"/>
-      <c r="AZ6" s="44"/>
+      <c r="AZ6" s="49"/>
       <c r="BA6" s="47"/>
       <c r="BB6" s="48"/>
       <c r="BC6" s="48"/>
@@ -3093,7 +3327,7 @@
       <c r="BT6" s="48"/>
       <c r="BU6" s="48"/>
       <c r="BV6" s="48"/>
-      <c r="BW6" s="65"/>
+      <c r="BW6" s="54"/>
       <c r="BX6" s="8"/>
       <c r="BY6" s="4"/>
       <c r="BZ6" s="4"/>
@@ -3137,10 +3371,10 @@
       <c r="AJ7" s="4"/>
       <c r="AK7" s="4"/>
       <c r="AL7" s="4"/>
-      <c r="AM7" s="39" t="s">
+      <c r="AM7" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="AN7" s="49"/>
+      <c r="AN7" s="69"/>
       <c r="AO7" s="11" t="s">
         <v>17</v>
       </c>
@@ -3387,10 +3621,10 @@
       <c r="AJ10" s="4"/>
       <c r="AK10" s="4"/>
       <c r="AL10" s="4"/>
-      <c r="AM10" s="39" t="s">
+      <c r="AM10" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="AN10" s="40"/>
+      <c r="AN10" s="65"/>
       <c r="AO10" s="17" t="s">
         <v>22</v>
       </c>
@@ -3553,10 +3787,10 @@
       <c r="AJ12" s="4"/>
       <c r="AK12" s="4"/>
       <c r="AL12" s="4"/>
-      <c r="AM12" s="39" t="s">
+      <c r="AM12" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="AN12" s="40"/>
+      <c r="AN12" s="65"/>
       <c r="AO12" s="18" t="s">
         <v>25</v>
       </c>
@@ -3719,10 +3953,10 @@
       <c r="AJ14" s="4"/>
       <c r="AK14" s="4"/>
       <c r="AL14" s="4"/>
-      <c r="AM14" s="39" t="s">
+      <c r="AM14" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="AN14" s="40"/>
+      <c r="AN14" s="65"/>
       <c r="AO14" s="20" t="s">
         <v>28</v>
       </c>
@@ -3967,10 +4201,10 @@
       <c r="AJ17" s="4"/>
       <c r="AK17" s="4"/>
       <c r="AL17" s="4"/>
-      <c r="AM17" s="39" t="s">
+      <c r="AM17" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="AN17" s="40"/>
+      <c r="AN17" s="65"/>
       <c r="AO17" s="20" t="s">
         <v>32</v>
       </c>
@@ -4133,10 +4367,10 @@
       <c r="AJ19" s="4"/>
       <c r="AK19" s="4"/>
       <c r="AL19" s="4"/>
-      <c r="AM19" s="39" t="s">
+      <c r="AM19" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="AN19" s="40"/>
+      <c r="AN19" s="65"/>
       <c r="AO19" s="18" t="s">
         <v>35</v>
       </c>
@@ -4301,10 +4535,10 @@
       <c r="AJ21" s="4"/>
       <c r="AK21" s="4"/>
       <c r="AL21" s="4"/>
-      <c r="AM21" s="39" t="s">
+      <c r="AM21" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="AN21" s="40"/>
+      <c r="AN21" s="65"/>
       <c r="AO21" s="18" t="s">
         <v>39</v>
       </c>
@@ -4469,21 +4703,27 @@
       <c r="AJ23" s="4"/>
       <c r="AK23" s="4"/>
       <c r="AL23" s="4"/>
-      <c r="AM23" s="10"/>
-      <c r="AN23" s="15"/>
-      <c r="AO23" s="11"/>
-      <c r="AP23" s="11"/>
-      <c r="AQ23" s="11"/>
-      <c r="AR23" s="11"/>
-      <c r="AS23" s="11"/>
-      <c r="AT23" s="11"/>
-      <c r="AU23" s="12"/>
-      <c r="AV23" s="11"/>
+      <c r="AM23" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN23" s="70"/>
+      <c r="AO23" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP23" s="73"/>
+      <c r="AQ23" s="73"/>
+      <c r="AR23" s="73"/>
+      <c r="AS23" s="73"/>
+      <c r="AT23" s="73"/>
+      <c r="AU23" s="13"/>
+      <c r="AV23" s="74"/>
       <c r="AW23" s="11"/>
       <c r="AX23" s="11"/>
       <c r="AY23" s="11"/>
       <c r="AZ23" s="12"/>
-      <c r="BA23" s="11"/>
+      <c r="BA23" s="74" t="s">
+        <v>46</v>
+      </c>
       <c r="BB23" s="11"/>
       <c r="BC23" s="11"/>
       <c r="BD23" s="11"/>
@@ -4629,9 +4869,13 @@
       <c r="AJ25" s="4"/>
       <c r="AK25" s="4"/>
       <c r="AL25" s="4"/>
-      <c r="AM25" s="10"/>
-      <c r="AN25" s="15"/>
-      <c r="AO25" s="11"/>
+      <c r="AM25" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN25" s="75"/>
+      <c r="AO25" s="74" t="s">
+        <v>47</v>
+      </c>
       <c r="AP25" s="11"/>
       <c r="AQ25" s="11"/>
       <c r="AR25" s="11"/>
@@ -4643,7 +4887,9 @@
       <c r="AX25" s="11"/>
       <c r="AY25" s="11"/>
       <c r="AZ25" s="12"/>
-      <c r="BA25" s="11"/>
+      <c r="BA25" s="74" t="s">
+        <v>51</v>
+      </c>
       <c r="BB25" s="11"/>
       <c r="BC25" s="11"/>
       <c r="BD25" s="11"/>
@@ -4723,7 +4969,9 @@
       <c r="AX26" s="4"/>
       <c r="AY26" s="4"/>
       <c r="AZ26" s="26"/>
-      <c r="BA26" s="25"/>
+      <c r="BA26" s="76" t="s">
+        <v>48</v>
+      </c>
       <c r="BB26" s="4"/>
       <c r="BC26" s="4"/>
       <c r="BD26" s="4"/>
@@ -4869,9 +5117,13 @@
       <c r="AJ28" s="4"/>
       <c r="AK28" s="4"/>
       <c r="AL28" s="4"/>
-      <c r="AM28" s="10"/>
-      <c r="AN28" s="15"/>
-      <c r="AO28" s="17"/>
+      <c r="AM28" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN28" s="77"/>
+      <c r="AO28" s="78" t="s">
+        <v>50</v>
+      </c>
       <c r="AP28" s="11"/>
       <c r="AQ28" s="11"/>
       <c r="AR28" s="11"/>
@@ -4883,7 +5135,9 @@
       <c r="AX28" s="11"/>
       <c r="AY28" s="11"/>
       <c r="AZ28" s="12"/>
-      <c r="BA28" s="11"/>
+      <c r="BA28" s="74" t="s">
+        <v>52</v>
+      </c>
       <c r="BB28" s="4"/>
       <c r="BC28" s="4"/>
       <c r="BD28" s="4"/>
@@ -4963,7 +5217,9 @@
       <c r="AX29" s="4"/>
       <c r="AY29" s="4"/>
       <c r="AZ29" s="26"/>
-      <c r="BA29" s="4"/>
+      <c r="BA29" s="76" t="s">
+        <v>53</v>
+      </c>
       <c r="BB29" s="4"/>
       <c r="BC29" s="4"/>
       <c r="BD29" s="4"/>
@@ -5109,9 +5365,13 @@
       <c r="AJ31" s="4"/>
       <c r="AK31" s="4"/>
       <c r="AL31" s="4"/>
-      <c r="AM31" s="10"/>
-      <c r="AN31" s="15"/>
-      <c r="AO31" s="20"/>
+      <c r="AM31" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN31" s="77"/>
+      <c r="AO31" s="79" t="s">
+        <v>55</v>
+      </c>
       <c r="AP31" s="11"/>
       <c r="AQ31" s="11"/>
       <c r="AR31" s="11"/>
@@ -5123,7 +5383,9 @@
       <c r="AX31" s="11"/>
       <c r="AY31" s="11"/>
       <c r="AZ31" s="12"/>
-      <c r="BA31" s="13"/>
+      <c r="BA31" s="74" t="s">
+        <v>56</v>
+      </c>
       <c r="BB31" s="4"/>
       <c r="BC31" s="4"/>
       <c r="BD31" s="4"/>
@@ -5269,9 +5531,13 @@
       <c r="AJ33" s="4"/>
       <c r="AK33" s="4"/>
       <c r="AL33" s="4"/>
-      <c r="AM33" s="10"/>
-      <c r="AN33" s="15"/>
-      <c r="AO33" s="18"/>
+      <c r="AM33" s="71" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN33" s="77"/>
+      <c r="AO33" s="80" t="s">
+        <v>58</v>
+      </c>
       <c r="AP33" s="4"/>
       <c r="AQ33" s="4"/>
       <c r="AR33" s="4"/>
@@ -5283,7 +5549,9 @@
       <c r="AX33" s="4"/>
       <c r="AY33" s="4"/>
       <c r="AZ33" s="26"/>
-      <c r="BA33" s="25"/>
+      <c r="BA33" s="76" t="s">
+        <v>59</v>
+      </c>
       <c r="BB33" s="4"/>
       <c r="BC33" s="4"/>
       <c r="BD33" s="4"/>
@@ -5363,7 +5631,9 @@
       <c r="AX34" s="4"/>
       <c r="AY34" s="4"/>
       <c r="AZ34" s="26"/>
-      <c r="BA34" s="4"/>
+      <c r="BA34" s="76" t="s">
+        <v>60</v>
+      </c>
       <c r="BB34" s="4"/>
       <c r="BC34" s="4"/>
       <c r="BD34" s="4"/>
@@ -14503,7 +14773,29 @@
       <c r="BZ1001" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="31">
+    <mergeCell ref="AM25:AN25"/>
+    <mergeCell ref="AM28:AN28"/>
+    <mergeCell ref="AM31:AN31"/>
+    <mergeCell ref="AM33:AN33"/>
+    <mergeCell ref="AO5:AU6"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="AM23:AN23"/>
+    <mergeCell ref="AO23:AT23"/>
+    <mergeCell ref="AM17:AN17"/>
+    <mergeCell ref="AM21:AN21"/>
+    <mergeCell ref="AM19:AN19"/>
+    <mergeCell ref="AM14:AN14"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="AM10:AN10"/>
+    <mergeCell ref="AM12:AN12"/>
+    <mergeCell ref="AM5:AN6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="AE2:AV2"/>
+    <mergeCell ref="AW2:BA2"/>
+    <mergeCell ref="F1:AV1"/>
+    <mergeCell ref="F2:Y2"/>
+    <mergeCell ref="Z2:AD2"/>
     <mergeCell ref="BK1:BO1"/>
     <mergeCell ref="BP1:BX1"/>
     <mergeCell ref="AV5:AZ6"/>
@@ -14513,22 +14805,6 @@
     <mergeCell ref="BK2:BO2"/>
     <mergeCell ref="AW1:BA1"/>
     <mergeCell ref="BP2:BX2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="AE2:AV2"/>
-    <mergeCell ref="AW2:BA2"/>
-    <mergeCell ref="F1:AV1"/>
-    <mergeCell ref="F2:Y2"/>
-    <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="AM17:AN17"/>
-    <mergeCell ref="AM21:AN21"/>
-    <mergeCell ref="AM19:AN19"/>
-    <mergeCell ref="AM14:AN14"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="AM10:AN10"/>
-    <mergeCell ref="AM12:AN12"/>
-    <mergeCell ref="AM5:AN6"/>
-    <mergeCell ref="AO5:AU6"/>
-    <mergeCell ref="AM7:AN7"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/設計書/01.基本設計/02.画面設計/画面設計書(商品詳細).xlsx
+++ b/設計書/01.基本設計/02.画面設計/画面設計書(商品詳細).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\DesignDocs\設計書\01.基本設計\02.画面設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DBEE96-164A-4C01-8426-638D57B05C4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD61F250-C1FD-45D6-BD99-AE02882585A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="27420" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t>システム名</t>
   </si>
@@ -356,6 +356,31 @@
     <rPh sb="0" eb="2">
       <t>ヒョウジ</t>
     </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>2019/11/07 JTM01 岩田侑大対応</t>
+    <rPh sb="17" eb="19">
+      <t>イワタ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ユウダイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>2019/11/07 JTM01 岩田侑大対応</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>2019/11/07 JTM07 岩田侑大対応</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>2019/11/14 JTM01 岩田侑大対応</t>
     <phoneticPr fontId="10"/>
   </si>
 </sst>
@@ -846,15 +871,20 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -863,52 +893,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -917,17 +906,53 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2806,8 +2831,8 @@
   </sheetPr>
   <dimension ref="A1:BZ1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="BA34" sqref="BA34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="BH38" sqref="BH38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -2817,188 +2842,188 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="62" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="40"/>
-      <c r="AL1" s="40"/>
-      <c r="AM1" s="40"/>
-      <c r="AN1" s="40"/>
-      <c r="AO1" s="40"/>
-      <c r="AP1" s="40"/>
-      <c r="AQ1" s="40"/>
-      <c r="AR1" s="40"/>
-      <c r="AS1" s="40"/>
-      <c r="AT1" s="40"/>
-      <c r="AU1" s="40"/>
-      <c r="AV1" s="41"/>
-      <c r="AW1" s="39" t="s">
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="65"/>
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="65"/>
+      <c r="AL1" s="65"/>
+      <c r="AM1" s="65"/>
+      <c r="AN1" s="65"/>
+      <c r="AO1" s="65"/>
+      <c r="AP1" s="65"/>
+      <c r="AQ1" s="65"/>
+      <c r="AR1" s="65"/>
+      <c r="AS1" s="65"/>
+      <c r="AT1" s="65"/>
+      <c r="AU1" s="65"/>
+      <c r="AV1" s="66"/>
+      <c r="AW1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="AX1" s="40"/>
-      <c r="AY1" s="40"/>
-      <c r="AZ1" s="40"/>
-      <c r="BA1" s="41"/>
-      <c r="BB1" s="55" t="s">
+      <c r="AX1" s="65"/>
+      <c r="AY1" s="65"/>
+      <c r="AZ1" s="65"/>
+      <c r="BA1" s="66"/>
+      <c r="BB1" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="BC1" s="51"/>
-      <c r="BD1" s="51"/>
-      <c r="BE1" s="51"/>
-      <c r="BF1" s="51"/>
-      <c r="BG1" s="51"/>
-      <c r="BH1" s="51"/>
-      <c r="BI1" s="51"/>
-      <c r="BJ1" s="52"/>
-      <c r="BK1" s="39" t="s">
+      <c r="BC1" s="60"/>
+      <c r="BD1" s="60"/>
+      <c r="BE1" s="60"/>
+      <c r="BF1" s="60"/>
+      <c r="BG1" s="60"/>
+      <c r="BH1" s="60"/>
+      <c r="BI1" s="60"/>
+      <c r="BJ1" s="61"/>
+      <c r="BK1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="BL1" s="40"/>
-      <c r="BM1" s="40"/>
-      <c r="BN1" s="40"/>
-      <c r="BO1" s="41"/>
-      <c r="BP1" s="42" t="s">
+      <c r="BL1" s="65"/>
+      <c r="BM1" s="65"/>
+      <c r="BN1" s="65"/>
+      <c r="BO1" s="66"/>
+      <c r="BP1" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="BQ1" s="40"/>
-      <c r="BR1" s="40"/>
-      <c r="BS1" s="40"/>
-      <c r="BT1" s="40"/>
-      <c r="BU1" s="40"/>
-      <c r="BV1" s="40"/>
-      <c r="BW1" s="40"/>
-      <c r="BX1" s="43"/>
+      <c r="BQ1" s="65"/>
+      <c r="BR1" s="65"/>
+      <c r="BS1" s="65"/>
+      <c r="BT1" s="65"/>
+      <c r="BU1" s="65"/>
+      <c r="BV1" s="65"/>
+      <c r="BW1" s="65"/>
+      <c r="BX1" s="73"/>
       <c r="BY1" s="1"/>
       <c r="BZ1" s="1"/>
     </row>
     <row r="2" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="63" t="s">
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="56" t="s">
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="51"/>
-      <c r="AL2" s="51"/>
-      <c r="AM2" s="51"/>
-      <c r="AN2" s="51"/>
-      <c r="AO2" s="51"/>
-      <c r="AP2" s="51"/>
-      <c r="AQ2" s="51"/>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51"/>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="56" t="s">
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="61"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="60"/>
+      <c r="AG2" s="60"/>
+      <c r="AH2" s="60"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="60"/>
+      <c r="AK2" s="60"/>
+      <c r="AL2" s="60"/>
+      <c r="AM2" s="60"/>
+      <c r="AN2" s="60"/>
+      <c r="AO2" s="60"/>
+      <c r="AP2" s="60"/>
+      <c r="AQ2" s="60"/>
+      <c r="AR2" s="60"/>
+      <c r="AS2" s="60"/>
+      <c r="AT2" s="60"/>
+      <c r="AU2" s="60"/>
+      <c r="AV2" s="61"/>
+      <c r="AW2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="52"/>
-      <c r="BB2" s="50">
+      <c r="AX2" s="60"/>
+      <c r="AY2" s="60"/>
+      <c r="AZ2" s="60"/>
+      <c r="BA2" s="61"/>
+      <c r="BB2" s="74">
         <v>43776</v>
       </c>
-      <c r="BC2" s="51"/>
-      <c r="BD2" s="51"/>
-      <c r="BE2" s="51"/>
-      <c r="BF2" s="51"/>
-      <c r="BG2" s="51"/>
-      <c r="BH2" s="51"/>
-      <c r="BI2" s="51"/>
-      <c r="BJ2" s="52"/>
-      <c r="BK2" s="56" t="s">
+      <c r="BC2" s="60"/>
+      <c r="BD2" s="60"/>
+      <c r="BE2" s="60"/>
+      <c r="BF2" s="60"/>
+      <c r="BG2" s="60"/>
+      <c r="BH2" s="60"/>
+      <c r="BI2" s="60"/>
+      <c r="BJ2" s="61"/>
+      <c r="BK2" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="BL2" s="51"/>
-      <c r="BM2" s="51"/>
-      <c r="BN2" s="51"/>
-      <c r="BO2" s="52"/>
-      <c r="BP2" s="57" t="s">
+      <c r="BL2" s="60"/>
+      <c r="BM2" s="60"/>
+      <c r="BN2" s="60"/>
+      <c r="BO2" s="61"/>
+      <c r="BP2" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="BQ2" s="58"/>
-      <c r="BR2" s="58"/>
-      <c r="BS2" s="58"/>
-      <c r="BT2" s="58"/>
-      <c r="BU2" s="58"/>
-      <c r="BV2" s="58"/>
-      <c r="BW2" s="58"/>
-      <c r="BX2" s="59"/>
+      <c r="BQ2" s="79"/>
+      <c r="BR2" s="79"/>
+      <c r="BS2" s="79"/>
+      <c r="BT2" s="79"/>
+      <c r="BU2" s="79"/>
+      <c r="BV2" s="79"/>
+      <c r="BW2" s="79"/>
+      <c r="BX2" s="80"/>
       <c r="BY2" s="1"/>
       <c r="BZ2" s="1"/>
     </row>
@@ -3203,51 +3228,51 @@
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
-      <c r="AM5" s="67" t="s">
+      <c r="AM5" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="AN5" s="46"/>
-      <c r="AO5" s="44" t="s">
+      <c r="AN5" s="49"/>
+      <c r="AO5" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="AP5" s="45"/>
-      <c r="AQ5" s="45"/>
-      <c r="AR5" s="45"/>
-      <c r="AS5" s="45"/>
-      <c r="AT5" s="45"/>
-      <c r="AU5" s="46"/>
-      <c r="AV5" s="44" t="s">
+      <c r="AP5" s="48"/>
+      <c r="AQ5" s="48"/>
+      <c r="AR5" s="48"/>
+      <c r="AS5" s="48"/>
+      <c r="AT5" s="48"/>
+      <c r="AU5" s="49"/>
+      <c r="AV5" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="AW5" s="45"/>
-      <c r="AX5" s="45"/>
-      <c r="AY5" s="45"/>
-      <c r="AZ5" s="46"/>
-      <c r="BA5" s="44" t="s">
+      <c r="AW5" s="48"/>
+      <c r="AX5" s="48"/>
+      <c r="AY5" s="48"/>
+      <c r="AZ5" s="49"/>
+      <c r="BA5" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="BB5" s="45"/>
-      <c r="BC5" s="45"/>
-      <c r="BD5" s="45"/>
-      <c r="BE5" s="45"/>
-      <c r="BF5" s="45"/>
-      <c r="BG5" s="45"/>
-      <c r="BH5" s="45"/>
-      <c r="BI5" s="45"/>
-      <c r="BJ5" s="45"/>
-      <c r="BK5" s="45"/>
-      <c r="BL5" s="45"/>
-      <c r="BM5" s="45"/>
-      <c r="BN5" s="45"/>
-      <c r="BO5" s="45"/>
-      <c r="BP5" s="45"/>
-      <c r="BQ5" s="45"/>
-      <c r="BR5" s="45"/>
-      <c r="BS5" s="45"/>
-      <c r="BT5" s="45"/>
-      <c r="BU5" s="45"/>
-      <c r="BV5" s="45"/>
-      <c r="BW5" s="53"/>
+      <c r="BB5" s="48"/>
+      <c r="BC5" s="48"/>
+      <c r="BD5" s="48"/>
+      <c r="BE5" s="48"/>
+      <c r="BF5" s="48"/>
+      <c r="BG5" s="48"/>
+      <c r="BH5" s="48"/>
+      <c r="BI5" s="48"/>
+      <c r="BJ5" s="48"/>
+      <c r="BK5" s="48"/>
+      <c r="BL5" s="48"/>
+      <c r="BM5" s="48"/>
+      <c r="BN5" s="48"/>
+      <c r="BO5" s="48"/>
+      <c r="BP5" s="48"/>
+      <c r="BQ5" s="48"/>
+      <c r="BR5" s="48"/>
+      <c r="BS5" s="48"/>
+      <c r="BT5" s="48"/>
+      <c r="BU5" s="48"/>
+      <c r="BV5" s="48"/>
+      <c r="BW5" s="75"/>
       <c r="BX5" s="8"/>
       <c r="BY5" s="4"/>
       <c r="BZ5" s="4"/>
@@ -3291,43 +3316,43 @@
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
-      <c r="AM6" s="68"/>
-      <c r="AN6" s="49"/>
-      <c r="AO6" s="47"/>
-      <c r="AP6" s="48"/>
-      <c r="AQ6" s="48"/>
-      <c r="AR6" s="48"/>
-      <c r="AS6" s="48"/>
-      <c r="AT6" s="48"/>
-      <c r="AU6" s="49"/>
-      <c r="AV6" s="47"/>
-      <c r="AW6" s="48"/>
-      <c r="AX6" s="48"/>
-      <c r="AY6" s="48"/>
-      <c r="AZ6" s="49"/>
-      <c r="BA6" s="47"/>
-      <c r="BB6" s="48"/>
-      <c r="BC6" s="48"/>
-      <c r="BD6" s="48"/>
-      <c r="BE6" s="48"/>
-      <c r="BF6" s="48"/>
-      <c r="BG6" s="48"/>
-      <c r="BH6" s="48"/>
-      <c r="BI6" s="48"/>
-      <c r="BJ6" s="48"/>
-      <c r="BK6" s="48"/>
-      <c r="BL6" s="48"/>
-      <c r="BM6" s="48"/>
-      <c r="BN6" s="48"/>
-      <c r="BO6" s="48"/>
-      <c r="BP6" s="48"/>
-      <c r="BQ6" s="48"/>
-      <c r="BR6" s="48"/>
-      <c r="BS6" s="48"/>
-      <c r="BT6" s="48"/>
-      <c r="BU6" s="48"/>
-      <c r="BV6" s="48"/>
-      <c r="BW6" s="54"/>
+      <c r="AM6" s="63"/>
+      <c r="AN6" s="52"/>
+      <c r="AO6" s="50"/>
+      <c r="AP6" s="51"/>
+      <c r="AQ6" s="51"/>
+      <c r="AR6" s="51"/>
+      <c r="AS6" s="51"/>
+      <c r="AT6" s="51"/>
+      <c r="AU6" s="52"/>
+      <c r="AV6" s="50"/>
+      <c r="AW6" s="51"/>
+      <c r="AX6" s="51"/>
+      <c r="AY6" s="51"/>
+      <c r="AZ6" s="52"/>
+      <c r="BA6" s="50"/>
+      <c r="BB6" s="51"/>
+      <c r="BC6" s="51"/>
+      <c r="BD6" s="51"/>
+      <c r="BE6" s="51"/>
+      <c r="BF6" s="51"/>
+      <c r="BG6" s="51"/>
+      <c r="BH6" s="51"/>
+      <c r="BI6" s="51"/>
+      <c r="BJ6" s="51"/>
+      <c r="BK6" s="51"/>
+      <c r="BL6" s="51"/>
+      <c r="BM6" s="51"/>
+      <c r="BN6" s="51"/>
+      <c r="BO6" s="51"/>
+      <c r="BP6" s="51"/>
+      <c r="BQ6" s="51"/>
+      <c r="BR6" s="51"/>
+      <c r="BS6" s="51"/>
+      <c r="BT6" s="51"/>
+      <c r="BU6" s="51"/>
+      <c r="BV6" s="51"/>
+      <c r="BW6" s="76"/>
       <c r="BX6" s="8"/>
       <c r="BY6" s="4"/>
       <c r="BZ6" s="4"/>
@@ -3371,10 +3396,10 @@
       <c r="AJ7" s="4"/>
       <c r="AK7" s="4"/>
       <c r="AL7" s="4"/>
-      <c r="AM7" s="64" t="s">
+      <c r="AM7" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="AN7" s="69"/>
+      <c r="AN7" s="54"/>
       <c r="AO7" s="11" t="s">
         <v>17</v>
       </c>
@@ -3621,10 +3646,10 @@
       <c r="AJ10" s="4"/>
       <c r="AK10" s="4"/>
       <c r="AL10" s="4"/>
-      <c r="AM10" s="64" t="s">
+      <c r="AM10" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="AN10" s="65"/>
+      <c r="AN10" s="58"/>
       <c r="AO10" s="17" t="s">
         <v>22</v>
       </c>
@@ -3787,10 +3812,10 @@
       <c r="AJ12" s="4"/>
       <c r="AK12" s="4"/>
       <c r="AL12" s="4"/>
-      <c r="AM12" s="64" t="s">
+      <c r="AM12" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="AN12" s="65"/>
+      <c r="AN12" s="58"/>
       <c r="AO12" s="18" t="s">
         <v>25</v>
       </c>
@@ -3953,10 +3978,10 @@
       <c r="AJ14" s="4"/>
       <c r="AK14" s="4"/>
       <c r="AL14" s="4"/>
-      <c r="AM14" s="64" t="s">
+      <c r="AM14" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="AN14" s="65"/>
+      <c r="AN14" s="58"/>
       <c r="AO14" s="20" t="s">
         <v>28</v>
       </c>
@@ -4201,10 +4226,10 @@
       <c r="AJ17" s="4"/>
       <c r="AK17" s="4"/>
       <c r="AL17" s="4"/>
-      <c r="AM17" s="64" t="s">
+      <c r="AM17" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="AN17" s="65"/>
+      <c r="AN17" s="58"/>
       <c r="AO17" s="20" t="s">
         <v>32</v>
       </c>
@@ -4367,10 +4392,10 @@
       <c r="AJ19" s="4"/>
       <c r="AK19" s="4"/>
       <c r="AL19" s="4"/>
-      <c r="AM19" s="64" t="s">
+      <c r="AM19" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="AN19" s="65"/>
+      <c r="AN19" s="58"/>
       <c r="AO19" s="18" t="s">
         <v>35</v>
       </c>
@@ -4535,10 +4560,10 @@
       <c r="AJ21" s="4"/>
       <c r="AK21" s="4"/>
       <c r="AL21" s="4"/>
-      <c r="AM21" s="64" t="s">
+      <c r="AM21" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="AN21" s="65"/>
+      <c r="AN21" s="58"/>
       <c r="AO21" s="18" t="s">
         <v>39</v>
       </c>
@@ -4703,25 +4728,25 @@
       <c r="AJ23" s="4"/>
       <c r="AK23" s="4"/>
       <c r="AL23" s="4"/>
-      <c r="AM23" s="71" t="s">
+      <c r="AM23" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="AN23" s="70"/>
-      <c r="AO23" s="72" t="s">
+      <c r="AN23" s="55"/>
+      <c r="AO23" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="AP23" s="73"/>
-      <c r="AQ23" s="73"/>
-      <c r="AR23" s="73"/>
-      <c r="AS23" s="73"/>
-      <c r="AT23" s="73"/>
+      <c r="AP23" s="57"/>
+      <c r="AQ23" s="57"/>
+      <c r="AR23" s="57"/>
+      <c r="AS23" s="57"/>
+      <c r="AT23" s="57"/>
       <c r="AU23" s="13"/>
-      <c r="AV23" s="74"/>
+      <c r="AV23" s="39"/>
       <c r="AW23" s="11"/>
       <c r="AX23" s="11"/>
       <c r="AY23" s="11"/>
       <c r="AZ23" s="12"/>
-      <c r="BA23" s="74" t="s">
+      <c r="BA23" s="39" t="s">
         <v>46</v>
       </c>
       <c r="BB23" s="11"/>
@@ -4806,7 +4831,9 @@
       <c r="BA24" s="11"/>
       <c r="BB24" s="11"/>
       <c r="BC24" s="11"/>
-      <c r="BD24" s="11"/>
+      <c r="BD24" s="39" t="s">
+        <v>61</v>
+      </c>
       <c r="BE24" s="11"/>
       <c r="BF24" s="11"/>
       <c r="BG24" s="11"/>
@@ -4869,11 +4896,11 @@
       <c r="AJ25" s="4"/>
       <c r="AK25" s="4"/>
       <c r="AL25" s="4"/>
-      <c r="AM25" s="71" t="s">
+      <c r="AM25" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="AN25" s="75"/>
-      <c r="AO25" s="74" t="s">
+      <c r="AN25" s="45"/>
+      <c r="AO25" s="39" t="s">
         <v>47</v>
       </c>
       <c r="AP25" s="11"/>
@@ -4887,7 +4914,7 @@
       <c r="AX25" s="11"/>
       <c r="AY25" s="11"/>
       <c r="AZ25" s="12"/>
-      <c r="BA25" s="74" t="s">
+      <c r="BA25" s="39" t="s">
         <v>51</v>
       </c>
       <c r="BB25" s="11"/>
@@ -4969,7 +4996,7 @@
       <c r="AX26" s="4"/>
       <c r="AY26" s="4"/>
       <c r="AZ26" s="26"/>
-      <c r="BA26" s="76" t="s">
+      <c r="BA26" s="40" t="s">
         <v>48</v>
       </c>
       <c r="BB26" s="4"/>
@@ -5054,7 +5081,9 @@
       <c r="BA27" s="4"/>
       <c r="BB27" s="4"/>
       <c r="BC27" s="4"/>
-      <c r="BD27" s="4"/>
+      <c r="BD27" s="40" t="s">
+        <v>63</v>
+      </c>
       <c r="BE27" s="4"/>
       <c r="BF27" s="4"/>
       <c r="BG27" s="4"/>
@@ -5117,11 +5146,11 @@
       <c r="AJ28" s="4"/>
       <c r="AK28" s="4"/>
       <c r="AL28" s="4"/>
-      <c r="AM28" s="71" t="s">
+      <c r="AM28" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="AN28" s="77"/>
-      <c r="AO28" s="78" t="s">
+      <c r="AN28" s="46"/>
+      <c r="AO28" s="41" t="s">
         <v>50</v>
       </c>
       <c r="AP28" s="11"/>
@@ -5135,7 +5164,7 @@
       <c r="AX28" s="11"/>
       <c r="AY28" s="11"/>
       <c r="AZ28" s="12"/>
-      <c r="BA28" s="74" t="s">
+      <c r="BA28" s="39" t="s">
         <v>52</v>
       </c>
       <c r="BB28" s="4"/>
@@ -5217,7 +5246,7 @@
       <c r="AX29" s="4"/>
       <c r="AY29" s="4"/>
       <c r="AZ29" s="26"/>
-      <c r="BA29" s="76" t="s">
+      <c r="BA29" s="40" t="s">
         <v>53</v>
       </c>
       <c r="BB29" s="4"/>
@@ -5302,7 +5331,9 @@
       <c r="BA30" s="4"/>
       <c r="BB30" s="4"/>
       <c r="BC30" s="4"/>
-      <c r="BD30" s="4"/>
+      <c r="BD30" s="40" t="s">
+        <v>63</v>
+      </c>
       <c r="BE30" s="4"/>
       <c r="BF30" s="4"/>
       <c r="BG30" s="4"/>
@@ -5365,11 +5396,11 @@
       <c r="AJ31" s="4"/>
       <c r="AK31" s="4"/>
       <c r="AL31" s="4"/>
-      <c r="AM31" s="71" t="s">
+      <c r="AM31" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="AN31" s="77"/>
-      <c r="AO31" s="79" t="s">
+      <c r="AN31" s="46"/>
+      <c r="AO31" s="42" t="s">
         <v>55</v>
       </c>
       <c r="AP31" s="11"/>
@@ -5383,7 +5414,7 @@
       <c r="AX31" s="11"/>
       <c r="AY31" s="11"/>
       <c r="AZ31" s="12"/>
-      <c r="BA31" s="74" t="s">
+      <c r="BA31" s="39" t="s">
         <v>56</v>
       </c>
       <c r="BB31" s="4"/>
@@ -5468,7 +5499,9 @@
       <c r="BA32" s="4"/>
       <c r="BB32" s="4"/>
       <c r="BC32" s="4"/>
-      <c r="BD32" s="4"/>
+      <c r="BD32" s="40" t="s">
+        <v>64</v>
+      </c>
       <c r="BE32" s="4"/>
       <c r="BF32" s="4"/>
       <c r="BG32" s="4"/>
@@ -5531,11 +5564,11 @@
       <c r="AJ33" s="4"/>
       <c r="AK33" s="4"/>
       <c r="AL33" s="4"/>
-      <c r="AM33" s="71" t="s">
+      <c r="AM33" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="AN33" s="77"/>
-      <c r="AO33" s="80" t="s">
+      <c r="AN33" s="46"/>
+      <c r="AO33" s="43" t="s">
         <v>58</v>
       </c>
       <c r="AP33" s="4"/>
@@ -5549,7 +5582,7 @@
       <c r="AX33" s="4"/>
       <c r="AY33" s="4"/>
       <c r="AZ33" s="26"/>
-      <c r="BA33" s="76" t="s">
+      <c r="BA33" s="40" t="s">
         <v>59</v>
       </c>
       <c r="BB33" s="4"/>
@@ -5631,7 +5664,7 @@
       <c r="AX34" s="4"/>
       <c r="AY34" s="4"/>
       <c r="AZ34" s="26"/>
-      <c r="BA34" s="76" t="s">
+      <c r="BA34" s="40" t="s">
         <v>60</v>
       </c>
       <c r="BB34" s="4"/>
@@ -5716,7 +5749,9 @@
       <c r="BA35" s="25"/>
       <c r="BB35" s="4"/>
       <c r="BC35" s="4"/>
-      <c r="BD35" s="4"/>
+      <c r="BD35" s="40" t="s">
+        <v>62</v>
+      </c>
       <c r="BE35" s="4"/>
       <c r="BF35" s="4"/>
       <c r="BG35" s="4"/>
@@ -14774,6 +14809,25 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="BP1:BX1"/>
+    <mergeCell ref="AV5:AZ6"/>
+    <mergeCell ref="BB2:BJ2"/>
+    <mergeCell ref="BA5:BW6"/>
+    <mergeCell ref="BB1:BJ1"/>
+    <mergeCell ref="BK2:BO2"/>
+    <mergeCell ref="AW1:BA1"/>
+    <mergeCell ref="BP2:BX2"/>
+    <mergeCell ref="AW2:BA2"/>
+    <mergeCell ref="F1:AV1"/>
+    <mergeCell ref="F2:Y2"/>
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="BK1:BO1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="AM10:AN10"/>
+    <mergeCell ref="AM12:AN12"/>
+    <mergeCell ref="AM5:AN6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="AE2:AV2"/>
     <mergeCell ref="AM25:AN25"/>
     <mergeCell ref="AM28:AN28"/>
     <mergeCell ref="AM31:AN31"/>
@@ -14786,25 +14840,6 @@
     <mergeCell ref="AM21:AN21"/>
     <mergeCell ref="AM19:AN19"/>
     <mergeCell ref="AM14:AN14"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="AM10:AN10"/>
-    <mergeCell ref="AM12:AN12"/>
-    <mergeCell ref="AM5:AN6"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="AE2:AV2"/>
-    <mergeCell ref="AW2:BA2"/>
-    <mergeCell ref="F1:AV1"/>
-    <mergeCell ref="F2:Y2"/>
-    <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="BK1:BO1"/>
-    <mergeCell ref="BP1:BX1"/>
-    <mergeCell ref="AV5:AZ6"/>
-    <mergeCell ref="BB2:BJ2"/>
-    <mergeCell ref="BA5:BW6"/>
-    <mergeCell ref="BB1:BJ1"/>
-    <mergeCell ref="BK2:BO2"/>
-    <mergeCell ref="AW1:BA1"/>
-    <mergeCell ref="BP2:BX2"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/設計書/01.基本設計/02.画面設計/画面設計書(商品詳細).xlsx
+++ b/設計書/01.基本設計/02.画面設計/画面設計書(商品詳細).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\DesignDocs\設計書\01.基本設計\02.画面設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD61F250-C1FD-45D6-BD99-AE02882585A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C084B250-6A55-482E-93DB-7F7F8C31DF86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="27420" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -201,19 +201,6 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>参考価格（税込み）</t>
-    <rPh sb="0" eb="2">
-      <t>サンコウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カカク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ゼイコ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
     <t>参考価格（税込）を表示。</t>
     <rPh sb="0" eb="4">
       <t>サンコウカカク</t>
@@ -381,6 +368,19 @@
   </si>
   <si>
     <t>2019/11/14 JTM01 岩田侑大対応</t>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>参考価格（税込）</t>
+    <rPh sb="0" eb="2">
+      <t>サンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゼイコ</t>
+    </rPh>
     <phoneticPr fontId="10"/>
   </si>
 </sst>
@@ -876,15 +876,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -893,7 +889,58 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
@@ -906,53 +953,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2831,8 +2831,8 @@
   </sheetPr>
   <dimension ref="A1:BZ1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="BH38" sqref="BH38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BA31" sqref="BA31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -2842,188 +2842,188 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="69" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="65"/>
-      <c r="AL1" s="65"/>
-      <c r="AM1" s="65"/>
-      <c r="AN1" s="65"/>
-      <c r="AO1" s="65"/>
-      <c r="AP1" s="65"/>
-      <c r="AQ1" s="65"/>
-      <c r="AR1" s="65"/>
-      <c r="AS1" s="65"/>
-      <c r="AT1" s="65"/>
-      <c r="AU1" s="65"/>
-      <c r="AV1" s="66"/>
-      <c r="AW1" s="71" t="s">
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="45"/>
+      <c r="AI1" s="45"/>
+      <c r="AJ1" s="45"/>
+      <c r="AK1" s="45"/>
+      <c r="AL1" s="45"/>
+      <c r="AM1" s="45"/>
+      <c r="AN1" s="45"/>
+      <c r="AO1" s="45"/>
+      <c r="AP1" s="45"/>
+      <c r="AQ1" s="45"/>
+      <c r="AR1" s="45"/>
+      <c r="AS1" s="45"/>
+      <c r="AT1" s="45"/>
+      <c r="AU1" s="45"/>
+      <c r="AV1" s="61"/>
+      <c r="AW1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="AX1" s="65"/>
-      <c r="AY1" s="65"/>
-      <c r="AZ1" s="65"/>
-      <c r="BA1" s="66"/>
-      <c r="BB1" s="77" t="s">
+      <c r="AX1" s="45"/>
+      <c r="AY1" s="45"/>
+      <c r="AZ1" s="45"/>
+      <c r="BA1" s="61"/>
+      <c r="BB1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="BC1" s="60"/>
-      <c r="BD1" s="60"/>
-      <c r="BE1" s="60"/>
-      <c r="BF1" s="60"/>
-      <c r="BG1" s="60"/>
-      <c r="BH1" s="60"/>
-      <c r="BI1" s="60"/>
-      <c r="BJ1" s="61"/>
-      <c r="BK1" s="71" t="s">
+      <c r="BC1" s="54"/>
+      <c r="BD1" s="54"/>
+      <c r="BE1" s="54"/>
+      <c r="BF1" s="54"/>
+      <c r="BG1" s="54"/>
+      <c r="BH1" s="54"/>
+      <c r="BI1" s="54"/>
+      <c r="BJ1" s="55"/>
+      <c r="BK1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="BL1" s="65"/>
-      <c r="BM1" s="65"/>
-      <c r="BN1" s="65"/>
-      <c r="BO1" s="66"/>
-      <c r="BP1" s="72" t="s">
+      <c r="BL1" s="45"/>
+      <c r="BM1" s="45"/>
+      <c r="BN1" s="45"/>
+      <c r="BO1" s="61"/>
+      <c r="BP1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="BQ1" s="65"/>
-      <c r="BR1" s="65"/>
-      <c r="BS1" s="65"/>
-      <c r="BT1" s="65"/>
-      <c r="BU1" s="65"/>
-      <c r="BV1" s="65"/>
-      <c r="BW1" s="65"/>
-      <c r="BX1" s="73"/>
+      <c r="BQ1" s="45"/>
+      <c r="BR1" s="45"/>
+      <c r="BS1" s="45"/>
+      <c r="BT1" s="45"/>
+      <c r="BU1" s="45"/>
+      <c r="BV1" s="45"/>
+      <c r="BW1" s="45"/>
+      <c r="BX1" s="46"/>
       <c r="BY1" s="1"/>
       <c r="BZ1" s="1"/>
     </row>
     <row r="2" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="70" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="68" t="s">
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="60"/>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="60"/>
-      <c r="AG2" s="60"/>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="60"/>
-      <c r="AK2" s="60"/>
-      <c r="AL2" s="60"/>
-      <c r="AM2" s="60"/>
-      <c r="AN2" s="60"/>
-      <c r="AO2" s="60"/>
-      <c r="AP2" s="60"/>
-      <c r="AQ2" s="60"/>
-      <c r="AR2" s="60"/>
-      <c r="AS2" s="60"/>
-      <c r="AT2" s="60"/>
-      <c r="AU2" s="60"/>
-      <c r="AV2" s="61"/>
-      <c r="AW2" s="68" t="s">
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="55"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="54"/>
+      <c r="AG2" s="54"/>
+      <c r="AH2" s="54"/>
+      <c r="AI2" s="54"/>
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="54"/>
+      <c r="AN2" s="54"/>
+      <c r="AO2" s="54"/>
+      <c r="AP2" s="54"/>
+      <c r="AQ2" s="54"/>
+      <c r="AR2" s="54"/>
+      <c r="AS2" s="54"/>
+      <c r="AT2" s="54"/>
+      <c r="AU2" s="54"/>
+      <c r="AV2" s="55"/>
+      <c r="AW2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="AX2" s="60"/>
-      <c r="AY2" s="60"/>
-      <c r="AZ2" s="60"/>
-      <c r="BA2" s="61"/>
-      <c r="BB2" s="74">
+      <c r="AX2" s="54"/>
+      <c r="AY2" s="54"/>
+      <c r="AZ2" s="54"/>
+      <c r="BA2" s="55"/>
+      <c r="BB2" s="53">
         <v>43776</v>
       </c>
-      <c r="BC2" s="60"/>
-      <c r="BD2" s="60"/>
-      <c r="BE2" s="60"/>
-      <c r="BF2" s="60"/>
-      <c r="BG2" s="60"/>
-      <c r="BH2" s="60"/>
-      <c r="BI2" s="60"/>
-      <c r="BJ2" s="61"/>
-      <c r="BK2" s="68" t="s">
+      <c r="BC2" s="54"/>
+      <c r="BD2" s="54"/>
+      <c r="BE2" s="54"/>
+      <c r="BF2" s="54"/>
+      <c r="BG2" s="54"/>
+      <c r="BH2" s="54"/>
+      <c r="BI2" s="54"/>
+      <c r="BJ2" s="55"/>
+      <c r="BK2" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="BL2" s="60"/>
-      <c r="BM2" s="60"/>
-      <c r="BN2" s="60"/>
-      <c r="BO2" s="61"/>
-      <c r="BP2" s="78" t="s">
+      <c r="BL2" s="54"/>
+      <c r="BM2" s="54"/>
+      <c r="BN2" s="54"/>
+      <c r="BO2" s="55"/>
+      <c r="BP2" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="BQ2" s="79"/>
-      <c r="BR2" s="79"/>
-      <c r="BS2" s="79"/>
-      <c r="BT2" s="79"/>
-      <c r="BU2" s="79"/>
-      <c r="BV2" s="79"/>
-      <c r="BW2" s="79"/>
-      <c r="BX2" s="80"/>
+      <c r="BQ2" s="63"/>
+      <c r="BR2" s="63"/>
+      <c r="BS2" s="63"/>
+      <c r="BT2" s="63"/>
+      <c r="BU2" s="63"/>
+      <c r="BV2" s="63"/>
+      <c r="BW2" s="63"/>
+      <c r="BX2" s="64"/>
       <c r="BY2" s="1"/>
       <c r="BZ2" s="1"/>
     </row>
@@ -3228,7 +3228,7 @@
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
-      <c r="AM5" s="62" t="s">
+      <c r="AM5" s="70" t="s">
         <v>12</v>
       </c>
       <c r="AN5" s="49"/>
@@ -3272,7 +3272,7 @@
       <c r="BT5" s="48"/>
       <c r="BU5" s="48"/>
       <c r="BV5" s="48"/>
-      <c r="BW5" s="75"/>
+      <c r="BW5" s="56"/>
       <c r="BX5" s="8"/>
       <c r="BY5" s="4"/>
       <c r="BZ5" s="4"/>
@@ -3316,7 +3316,7 @@
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
-      <c r="AM6" s="63"/>
+      <c r="AM6" s="71"/>
       <c r="AN6" s="52"/>
       <c r="AO6" s="50"/>
       <c r="AP6" s="51"/>
@@ -3352,7 +3352,7 @@
       <c r="BT6" s="51"/>
       <c r="BU6" s="51"/>
       <c r="BV6" s="51"/>
-      <c r="BW6" s="76"/>
+      <c r="BW6" s="57"/>
       <c r="BX6" s="8"/>
       <c r="BY6" s="4"/>
       <c r="BZ6" s="4"/>
@@ -3396,10 +3396,10 @@
       <c r="AJ7" s="4"/>
       <c r="AK7" s="4"/>
       <c r="AL7" s="4"/>
-      <c r="AM7" s="53" t="s">
+      <c r="AM7" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="AN7" s="54"/>
+      <c r="AN7" s="77"/>
       <c r="AO7" s="11" t="s">
         <v>17</v>
       </c>
@@ -3646,10 +3646,10 @@
       <c r="AJ10" s="4"/>
       <c r="AK10" s="4"/>
       <c r="AL10" s="4"/>
-      <c r="AM10" s="53" t="s">
+      <c r="AM10" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="AN10" s="58"/>
+      <c r="AN10" s="69"/>
       <c r="AO10" s="17" t="s">
         <v>22</v>
       </c>
@@ -3812,10 +3812,10 @@
       <c r="AJ12" s="4"/>
       <c r="AK12" s="4"/>
       <c r="AL12" s="4"/>
-      <c r="AM12" s="53" t="s">
+      <c r="AM12" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="AN12" s="58"/>
+      <c r="AN12" s="69"/>
       <c r="AO12" s="18" t="s">
         <v>25</v>
       </c>
@@ -3978,10 +3978,10 @@
       <c r="AJ14" s="4"/>
       <c r="AK14" s="4"/>
       <c r="AL14" s="4"/>
-      <c r="AM14" s="53" t="s">
+      <c r="AM14" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="AN14" s="58"/>
+      <c r="AN14" s="69"/>
       <c r="AO14" s="20" t="s">
         <v>28</v>
       </c>
@@ -4226,10 +4226,10 @@
       <c r="AJ17" s="4"/>
       <c r="AK17" s="4"/>
       <c r="AL17" s="4"/>
-      <c r="AM17" s="53" t="s">
+      <c r="AM17" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="AN17" s="58"/>
+      <c r="AN17" s="69"/>
       <c r="AO17" s="20" t="s">
         <v>32</v>
       </c>
@@ -4392,10 +4392,10 @@
       <c r="AJ19" s="4"/>
       <c r="AK19" s="4"/>
       <c r="AL19" s="4"/>
-      <c r="AM19" s="53" t="s">
+      <c r="AM19" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="AN19" s="58"/>
+      <c r="AN19" s="69"/>
       <c r="AO19" s="18" t="s">
         <v>35</v>
       </c>
@@ -4560,10 +4560,10 @@
       <c r="AJ21" s="4"/>
       <c r="AK21" s="4"/>
       <c r="AL21" s="4"/>
-      <c r="AM21" s="53" t="s">
+      <c r="AM21" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="AN21" s="58"/>
+      <c r="AN21" s="69"/>
       <c r="AO21" s="18" t="s">
         <v>39</v>
       </c>
@@ -4728,18 +4728,18 @@
       <c r="AJ23" s="4"/>
       <c r="AK23" s="4"/>
       <c r="AL23" s="4"/>
-      <c r="AM23" s="44" t="s">
+      <c r="AM23" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="AN23" s="55"/>
-      <c r="AO23" s="56" t="s">
+      <c r="AN23" s="78"/>
+      <c r="AO23" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="AP23" s="57"/>
-      <c r="AQ23" s="57"/>
-      <c r="AR23" s="57"/>
-      <c r="AS23" s="57"/>
-      <c r="AT23" s="57"/>
+      <c r="AP23" s="80"/>
+      <c r="AQ23" s="80"/>
+      <c r="AR23" s="80"/>
+      <c r="AS23" s="80"/>
+      <c r="AT23" s="80"/>
       <c r="AU23" s="13"/>
       <c r="AV23" s="39"/>
       <c r="AW23" s="11"/>
@@ -4832,7 +4832,7 @@
       <c r="BB24" s="11"/>
       <c r="BC24" s="11"/>
       <c r="BD24" s="39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="BE24" s="11"/>
       <c r="BF24" s="11"/>
@@ -4896,12 +4896,12 @@
       <c r="AJ25" s="4"/>
       <c r="AK25" s="4"/>
       <c r="AL25" s="4"/>
-      <c r="AM25" s="44" t="s">
+      <c r="AM25" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="AN25" s="45"/>
+      <c r="AN25" s="75"/>
       <c r="AO25" s="39" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="AP25" s="11"/>
       <c r="AQ25" s="11"/>
@@ -4915,7 +4915,7 @@
       <c r="AY25" s="11"/>
       <c r="AZ25" s="12"/>
       <c r="BA25" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="BB25" s="11"/>
       <c r="BC25" s="11"/>
@@ -4997,7 +4997,7 @@
       <c r="AY26" s="4"/>
       <c r="AZ26" s="26"/>
       <c r="BA26" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BB26" s="4"/>
       <c r="BC26" s="4"/>
@@ -5082,7 +5082,7 @@
       <c r="BB27" s="4"/>
       <c r="BC27" s="4"/>
       <c r="BD27" s="40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="BE27" s="4"/>
       <c r="BF27" s="4"/>
@@ -5146,12 +5146,12 @@
       <c r="AJ28" s="4"/>
       <c r="AK28" s="4"/>
       <c r="AL28" s="4"/>
-      <c r="AM28" s="44" t="s">
+      <c r="AM28" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN28" s="76"/>
+      <c r="AO28" s="41" t="s">
         <v>49</v>
-      </c>
-      <c r="AN28" s="46"/>
-      <c r="AO28" s="41" t="s">
-        <v>50</v>
       </c>
       <c r="AP28" s="11"/>
       <c r="AQ28" s="11"/>
@@ -5165,7 +5165,7 @@
       <c r="AY28" s="11"/>
       <c r="AZ28" s="12"/>
       <c r="BA28" s="39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BB28" s="4"/>
       <c r="BC28" s="4"/>
@@ -5247,7 +5247,7 @@
       <c r="AY29" s="4"/>
       <c r="AZ29" s="26"/>
       <c r="BA29" s="40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="BB29" s="4"/>
       <c r="BC29" s="4"/>
@@ -5332,7 +5332,7 @@
       <c r="BB30" s="4"/>
       <c r="BC30" s="4"/>
       <c r="BD30" s="40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="BE30" s="4"/>
       <c r="BF30" s="4"/>
@@ -5396,12 +5396,12 @@
       <c r="AJ31" s="4"/>
       <c r="AK31" s="4"/>
       <c r="AL31" s="4"/>
-      <c r="AM31" s="44" t="s">
+      <c r="AM31" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN31" s="76"/>
+      <c r="AO31" s="42" t="s">
         <v>54</v>
-      </c>
-      <c r="AN31" s="46"/>
-      <c r="AO31" s="42" t="s">
-        <v>55</v>
       </c>
       <c r="AP31" s="11"/>
       <c r="AQ31" s="11"/>
@@ -5415,7 +5415,7 @@
       <c r="AY31" s="11"/>
       <c r="AZ31" s="12"/>
       <c r="BA31" s="39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BB31" s="4"/>
       <c r="BC31" s="4"/>
@@ -5500,7 +5500,7 @@
       <c r="BB32" s="4"/>
       <c r="BC32" s="4"/>
       <c r="BD32" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="BE32" s="4"/>
       <c r="BF32" s="4"/>
@@ -5564,12 +5564,12 @@
       <c r="AJ33" s="4"/>
       <c r="AK33" s="4"/>
       <c r="AL33" s="4"/>
-      <c r="AM33" s="44" t="s">
+      <c r="AM33" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN33" s="76"/>
+      <c r="AO33" s="43" t="s">
         <v>57</v>
-      </c>
-      <c r="AN33" s="46"/>
-      <c r="AO33" s="43" t="s">
-        <v>58</v>
       </c>
       <c r="AP33" s="4"/>
       <c r="AQ33" s="4"/>
@@ -5583,7 +5583,7 @@
       <c r="AY33" s="4"/>
       <c r="AZ33" s="26"/>
       <c r="BA33" s="40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="BB33" s="4"/>
       <c r="BC33" s="4"/>
@@ -5665,7 +5665,7 @@
       <c r="AY34" s="4"/>
       <c r="AZ34" s="26"/>
       <c r="BA34" s="40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="BB34" s="4"/>
       <c r="BC34" s="4"/>
@@ -5750,7 +5750,7 @@
       <c r="BB35" s="4"/>
       <c r="BC35" s="4"/>
       <c r="BD35" s="40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BE35" s="4"/>
       <c r="BF35" s="4"/>
@@ -14809,6 +14809,24 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="AM25:AN25"/>
+    <mergeCell ref="AM28:AN28"/>
+    <mergeCell ref="AM31:AN31"/>
+    <mergeCell ref="AM33:AN33"/>
+    <mergeCell ref="AO5:AU6"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="AM23:AN23"/>
+    <mergeCell ref="AO23:AT23"/>
+    <mergeCell ref="AM17:AN17"/>
+    <mergeCell ref="AM21:AN21"/>
+    <mergeCell ref="AM19:AN19"/>
+    <mergeCell ref="AM14:AN14"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="AM10:AN10"/>
+    <mergeCell ref="AM12:AN12"/>
+    <mergeCell ref="AM5:AN6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="AE2:AV2"/>
     <mergeCell ref="BP1:BX1"/>
     <mergeCell ref="AV5:AZ6"/>
     <mergeCell ref="BB2:BJ2"/>
@@ -14822,24 +14840,6 @@
     <mergeCell ref="F2:Y2"/>
     <mergeCell ref="Z2:AD2"/>
     <mergeCell ref="BK1:BO1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="AM10:AN10"/>
-    <mergeCell ref="AM12:AN12"/>
-    <mergeCell ref="AM5:AN6"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="AE2:AV2"/>
-    <mergeCell ref="AM25:AN25"/>
-    <mergeCell ref="AM28:AN28"/>
-    <mergeCell ref="AM31:AN31"/>
-    <mergeCell ref="AM33:AN33"/>
-    <mergeCell ref="AO5:AU6"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="AM23:AN23"/>
-    <mergeCell ref="AO23:AT23"/>
-    <mergeCell ref="AM17:AN17"/>
-    <mergeCell ref="AM21:AN21"/>
-    <mergeCell ref="AM19:AN19"/>
-    <mergeCell ref="AM14:AN14"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/設計書/01.基本設計/02.画面設計/画面設計書(商品詳細).xlsx
+++ b/設計書/01.基本設計/02.画面設計/画面設計書(商品詳細).xlsx
@@ -1,22 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\DesignDocs\設計書\01.基本設計\02.画面設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seiya/DesignDocs/設計書/01.基本設計/02.画面設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C084B250-6A55-482E-93DB-7F7F8C31DF86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0713FCA-10F5-DB4A-B7D5-FB90D30691AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="27420" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27420" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="商品詳細画面" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={2961B4A1-C1E5-AD4F-B252-4D2ED45BECF6}</author>
+    <author>tc={9F271E39-0231-FD44-8B91-6374084ED2A5}</author>
+  </authors>
+  <commentList>
+    <comment ref="BP23" authorId="0" shapeId="0" xr:uid="{2961B4A1-C1E5-AD4F-B252-4D2ED45BECF6}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    「残り○○個です」と表示する方が正確ですね。</t>
+      </text>
+    </comment>
+    <comment ref="BU25" authorId="1" shapeId="0" xr:uid="{9F271E39-0231-FD44-8B91-6374084ED2A5}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    ここにある参考価格というのは商品マスタテーブルにある販売単価と同じものではないですか？</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -388,7 +415,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -398,27 +425,33 @@
       <b/>
       <sz val="14"/>
       <name val="MS PGothic"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="MS PGothic"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="MS PGothic"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="MS PGothic"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="MS PGothic"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="MS PGothic"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="12"/>
@@ -435,6 +468,8 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="MS PGothic"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="6"/>
@@ -453,6 +488,11 @@
       <color rgb="FFFF0000"/>
       <name val="MS PGothic"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Yu Gothic UI"/>
     </font>
   </fonts>
   <fills count="3">
@@ -876,11 +916,15 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -889,11 +933,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -905,7 +982,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -916,42 +992,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2529,6 +2569,12 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="seiya" id="{D67D1052-3691-854B-BF30-AA7BF861CEC1}" userId="seiya" providerId="None"/>
+</personList>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -2824,206 +2870,217 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="BP23" dT="2019-11-08T07:53:47.86" personId="{D67D1052-3691-854B-BF30-AA7BF861CEC1}" id="{2961B4A1-C1E5-AD4F-B252-4D2ED45BECF6}">
+    <text>「残り○○個です」と表示する方が正確ですね。</text>
+  </threadedComment>
+  <threadedComment ref="BU25" dT="2019-11-08T08:03:39.15" personId="{D67D1052-3691-854B-BF30-AA7BF861CEC1}" id="{9F271E39-0231-FD44-8B91-6374084ED2A5}">
+    <text>ここにある参考価格というのは商品マスタテーブルにある販売単価と同じものではないですか？</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:BZ1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BA31" sqref="BA31"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="BU24" sqref="BU24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="76" width="2.625" customWidth="1"/>
+    <col min="1" max="76" width="2.6640625" customWidth="1"/>
     <col min="77" max="78" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="65" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="45"/>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="45"/>
-      <c r="AK1" s="45"/>
-      <c r="AL1" s="45"/>
-      <c r="AM1" s="45"/>
-      <c r="AN1" s="45"/>
-      <c r="AO1" s="45"/>
-      <c r="AP1" s="45"/>
-      <c r="AQ1" s="45"/>
-      <c r="AR1" s="45"/>
-      <c r="AS1" s="45"/>
-      <c r="AT1" s="45"/>
-      <c r="AU1" s="45"/>
-      <c r="AV1" s="61"/>
-      <c r="AW1" s="60" t="s">
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="65"/>
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="65"/>
+      <c r="AL1" s="65"/>
+      <c r="AM1" s="65"/>
+      <c r="AN1" s="65"/>
+      <c r="AO1" s="65"/>
+      <c r="AP1" s="65"/>
+      <c r="AQ1" s="65"/>
+      <c r="AR1" s="65"/>
+      <c r="AS1" s="65"/>
+      <c r="AT1" s="65"/>
+      <c r="AU1" s="65"/>
+      <c r="AV1" s="66"/>
+      <c r="AW1" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="AX1" s="45"/>
-      <c r="AY1" s="45"/>
-      <c r="AZ1" s="45"/>
-      <c r="BA1" s="61"/>
-      <c r="BB1" s="58" t="s">
+      <c r="AX1" s="65"/>
+      <c r="AY1" s="65"/>
+      <c r="AZ1" s="65"/>
+      <c r="BA1" s="66"/>
+      <c r="BB1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="BC1" s="54"/>
-      <c r="BD1" s="54"/>
-      <c r="BE1" s="54"/>
-      <c r="BF1" s="54"/>
-      <c r="BG1" s="54"/>
-      <c r="BH1" s="54"/>
-      <c r="BI1" s="54"/>
-      <c r="BJ1" s="55"/>
-      <c r="BK1" s="60" t="s">
+      <c r="BC1" s="60"/>
+      <c r="BD1" s="60"/>
+      <c r="BE1" s="60"/>
+      <c r="BF1" s="60"/>
+      <c r="BG1" s="60"/>
+      <c r="BH1" s="60"/>
+      <c r="BI1" s="60"/>
+      <c r="BJ1" s="61"/>
+      <c r="BK1" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="BL1" s="45"/>
-      <c r="BM1" s="45"/>
-      <c r="BN1" s="45"/>
-      <c r="BO1" s="61"/>
-      <c r="BP1" s="44" t="s">
+      <c r="BL1" s="65"/>
+      <c r="BM1" s="65"/>
+      <c r="BN1" s="65"/>
+      <c r="BO1" s="66"/>
+      <c r="BP1" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="BQ1" s="45"/>
-      <c r="BR1" s="45"/>
-      <c r="BS1" s="45"/>
-      <c r="BT1" s="45"/>
-      <c r="BU1" s="45"/>
-      <c r="BV1" s="45"/>
-      <c r="BW1" s="45"/>
-      <c r="BX1" s="46"/>
+      <c r="BQ1" s="65"/>
+      <c r="BR1" s="65"/>
+      <c r="BS1" s="65"/>
+      <c r="BT1" s="65"/>
+      <c r="BU1" s="65"/>
+      <c r="BV1" s="65"/>
+      <c r="BW1" s="65"/>
+      <c r="BX1" s="69"/>
       <c r="BY1" s="1"/>
       <c r="BZ1" s="1"/>
     </row>
     <row r="2" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="66" t="s">
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="59" t="s">
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="73"/>
-      <c r="AF2" s="54"/>
-      <c r="AG2" s="54"/>
-      <c r="AH2" s="54"/>
-      <c r="AI2" s="54"/>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="54"/>
-      <c r="AO2" s="54"/>
-      <c r="AP2" s="54"/>
-      <c r="AQ2" s="54"/>
-      <c r="AR2" s="54"/>
-      <c r="AS2" s="54"/>
-      <c r="AT2" s="54"/>
-      <c r="AU2" s="54"/>
-      <c r="AV2" s="55"/>
-      <c r="AW2" s="59" t="s">
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="61"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="60"/>
+      <c r="AG2" s="60"/>
+      <c r="AH2" s="60"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="60"/>
+      <c r="AK2" s="60"/>
+      <c r="AL2" s="60"/>
+      <c r="AM2" s="60"/>
+      <c r="AN2" s="60"/>
+      <c r="AO2" s="60"/>
+      <c r="AP2" s="60"/>
+      <c r="AQ2" s="60"/>
+      <c r="AR2" s="60"/>
+      <c r="AS2" s="60"/>
+      <c r="AT2" s="60"/>
+      <c r="AU2" s="60"/>
+      <c r="AV2" s="61"/>
+      <c r="AW2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="AX2" s="54"/>
-      <c r="AY2" s="54"/>
-      <c r="AZ2" s="54"/>
-      <c r="BA2" s="55"/>
-      <c r="BB2" s="53">
+      <c r="AX2" s="60"/>
+      <c r="AY2" s="60"/>
+      <c r="AZ2" s="60"/>
+      <c r="BA2" s="61"/>
+      <c r="BB2" s="70">
         <v>43776</v>
       </c>
-      <c r="BC2" s="54"/>
-      <c r="BD2" s="54"/>
-      <c r="BE2" s="54"/>
-      <c r="BF2" s="54"/>
-      <c r="BG2" s="54"/>
-      <c r="BH2" s="54"/>
-      <c r="BI2" s="54"/>
-      <c r="BJ2" s="55"/>
-      <c r="BK2" s="59" t="s">
+      <c r="BC2" s="60"/>
+      <c r="BD2" s="60"/>
+      <c r="BE2" s="60"/>
+      <c r="BF2" s="60"/>
+      <c r="BG2" s="60"/>
+      <c r="BH2" s="60"/>
+      <c r="BI2" s="60"/>
+      <c r="BJ2" s="61"/>
+      <c r="BK2" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="BL2" s="54"/>
-      <c r="BM2" s="54"/>
-      <c r="BN2" s="54"/>
-      <c r="BO2" s="55"/>
-      <c r="BP2" s="62" t="s">
+      <c r="BL2" s="60"/>
+      <c r="BM2" s="60"/>
+      <c r="BN2" s="60"/>
+      <c r="BO2" s="61"/>
+      <c r="BP2" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="BQ2" s="63"/>
-      <c r="BR2" s="63"/>
-      <c r="BS2" s="63"/>
-      <c r="BT2" s="63"/>
-      <c r="BU2" s="63"/>
-      <c r="BV2" s="63"/>
-      <c r="BW2" s="63"/>
-      <c r="BX2" s="64"/>
+      <c r="BQ2" s="77"/>
+      <c r="BR2" s="77"/>
+      <c r="BS2" s="77"/>
+      <c r="BT2" s="77"/>
+      <c r="BU2" s="77"/>
+      <c r="BV2" s="77"/>
+      <c r="BW2" s="77"/>
+      <c r="BX2" s="78"/>
       <c r="BY2" s="1"/>
       <c r="BZ2" s="1"/>
     </row>
@@ -3107,7 +3164,7 @@
       <c r="BY3" s="4"/>
       <c r="BZ3" s="4"/>
     </row>
-    <row r="4" spans="1:78" ht="14.25">
+    <row r="4" spans="1:78">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
         <v>11</v>
@@ -3228,7 +3285,7 @@
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
-      <c r="AM5" s="70" t="s">
+      <c r="AM5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="AN5" s="49"/>
@@ -3272,12 +3329,12 @@
       <c r="BT5" s="48"/>
       <c r="BU5" s="48"/>
       <c r="BV5" s="48"/>
-      <c r="BW5" s="56"/>
+      <c r="BW5" s="71"/>
       <c r="BX5" s="8"/>
       <c r="BY5" s="4"/>
       <c r="BZ5" s="4"/>
     </row>
-    <row r="6" spans="1:78" ht="14.25">
+    <row r="6" spans="1:78">
       <c r="A6" s="6"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -3316,7 +3373,7 @@
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
-      <c r="AM6" s="71"/>
+      <c r="AM6" s="63"/>
       <c r="AN6" s="52"/>
       <c r="AO6" s="50"/>
       <c r="AP6" s="51"/>
@@ -3352,7 +3409,7 @@
       <c r="BT6" s="51"/>
       <c r="BU6" s="51"/>
       <c r="BV6" s="51"/>
-      <c r="BW6" s="57"/>
+      <c r="BW6" s="72"/>
       <c r="BX6" s="8"/>
       <c r="BY6" s="4"/>
       <c r="BZ6" s="4"/>
@@ -3396,10 +3453,10 @@
       <c r="AJ7" s="4"/>
       <c r="AK7" s="4"/>
       <c r="AL7" s="4"/>
-      <c r="AM7" s="68" t="s">
+      <c r="AM7" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="AN7" s="77"/>
+      <c r="AN7" s="54"/>
       <c r="AO7" s="11" t="s">
         <v>17</v>
       </c>
@@ -3646,10 +3703,10 @@
       <c r="AJ10" s="4"/>
       <c r="AK10" s="4"/>
       <c r="AL10" s="4"/>
-      <c r="AM10" s="68" t="s">
+      <c r="AM10" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="AN10" s="69"/>
+      <c r="AN10" s="58"/>
       <c r="AO10" s="17" t="s">
         <v>22</v>
       </c>
@@ -3812,10 +3869,10 @@
       <c r="AJ12" s="4"/>
       <c r="AK12" s="4"/>
       <c r="AL12" s="4"/>
-      <c r="AM12" s="68" t="s">
+      <c r="AM12" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="AN12" s="69"/>
+      <c r="AN12" s="58"/>
       <c r="AO12" s="18" t="s">
         <v>25</v>
       </c>
@@ -3978,10 +4035,10 @@
       <c r="AJ14" s="4"/>
       <c r="AK14" s="4"/>
       <c r="AL14" s="4"/>
-      <c r="AM14" s="68" t="s">
+      <c r="AM14" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="AN14" s="69"/>
+      <c r="AN14" s="58"/>
       <c r="AO14" s="20" t="s">
         <v>28</v>
       </c>
@@ -4226,10 +4283,10 @@
       <c r="AJ17" s="4"/>
       <c r="AK17" s="4"/>
       <c r="AL17" s="4"/>
-      <c r="AM17" s="68" t="s">
+      <c r="AM17" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="AN17" s="69"/>
+      <c r="AN17" s="58"/>
       <c r="AO17" s="20" t="s">
         <v>32</v>
       </c>
@@ -4392,10 +4449,10 @@
       <c r="AJ19" s="4"/>
       <c r="AK19" s="4"/>
       <c r="AL19" s="4"/>
-      <c r="AM19" s="68" t="s">
+      <c r="AM19" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="AN19" s="69"/>
+      <c r="AN19" s="58"/>
       <c r="AO19" s="18" t="s">
         <v>35</v>
       </c>
@@ -4560,10 +4617,10 @@
       <c r="AJ21" s="4"/>
       <c r="AK21" s="4"/>
       <c r="AL21" s="4"/>
-      <c r="AM21" s="68" t="s">
+      <c r="AM21" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="AN21" s="69"/>
+      <c r="AN21" s="58"/>
       <c r="AO21" s="18" t="s">
         <v>39</v>
       </c>
@@ -4728,18 +4785,18 @@
       <c r="AJ23" s="4"/>
       <c r="AK23" s="4"/>
       <c r="AL23" s="4"/>
-      <c r="AM23" s="74" t="s">
+      <c r="AM23" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="AN23" s="78"/>
-      <c r="AO23" s="79" t="s">
+      <c r="AN23" s="55"/>
+      <c r="AO23" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="AP23" s="80"/>
-      <c r="AQ23" s="80"/>
-      <c r="AR23" s="80"/>
-      <c r="AS23" s="80"/>
-      <c r="AT23" s="80"/>
+      <c r="AP23" s="57"/>
+      <c r="AQ23" s="57"/>
+      <c r="AR23" s="57"/>
+      <c r="AS23" s="57"/>
+      <c r="AT23" s="57"/>
       <c r="AU23" s="13"/>
       <c r="AV23" s="39"/>
       <c r="AW23" s="11"/>
@@ -4896,10 +4953,10 @@
       <c r="AJ25" s="4"/>
       <c r="AK25" s="4"/>
       <c r="AL25" s="4"/>
-      <c r="AM25" s="74" t="s">
+      <c r="AM25" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="AN25" s="75"/>
+      <c r="AN25" s="45"/>
       <c r="AO25" s="39" t="s">
         <v>64</v>
       </c>
@@ -5146,10 +5203,10 @@
       <c r="AJ28" s="4"/>
       <c r="AK28" s="4"/>
       <c r="AL28" s="4"/>
-      <c r="AM28" s="74" t="s">
+      <c r="AM28" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="AN28" s="76"/>
+      <c r="AN28" s="46"/>
       <c r="AO28" s="41" t="s">
         <v>49</v>
       </c>
@@ -5396,10 +5453,10 @@
       <c r="AJ31" s="4"/>
       <c r="AK31" s="4"/>
       <c r="AL31" s="4"/>
-      <c r="AM31" s="74" t="s">
+      <c r="AM31" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="AN31" s="76"/>
+      <c r="AN31" s="46"/>
       <c r="AO31" s="42" t="s">
         <v>54</v>
       </c>
@@ -5564,10 +5621,10 @@
       <c r="AJ33" s="4"/>
       <c r="AK33" s="4"/>
       <c r="AL33" s="4"/>
-      <c r="AM33" s="74" t="s">
+      <c r="AM33" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="AN33" s="76"/>
+      <c r="AN33" s="46"/>
       <c r="AO33" s="43" t="s">
         <v>57</v>
       </c>
@@ -6975,7 +7032,7 @@
       <c r="BY50" s="4"/>
       <c r="BZ50" s="4"/>
     </row>
-    <row r="51" spans="1:78" ht="14.25">
+    <row r="51" spans="1:78">
       <c r="A51" s="6"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -7055,7 +7112,7 @@
       <c r="BY51" s="4"/>
       <c r="BZ51" s="4"/>
     </row>
-    <row r="52" spans="1:78" ht="14.25">
+    <row r="52" spans="1:78">
       <c r="A52" s="6"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -7375,7 +7432,7 @@
       <c r="BY55" s="4"/>
       <c r="BZ55" s="4"/>
     </row>
-    <row r="56" spans="1:78" ht="17.25">
+    <row r="56" spans="1:78" ht="17">
       <c r="A56" s="4"/>
       <c r="B56" s="27"/>
       <c r="C56" s="4"/>
@@ -7535,7 +7592,7 @@
       <c r="BY57" s="4"/>
       <c r="BZ57" s="4"/>
     </row>
-    <row r="58" spans="1:78" ht="17.25">
+    <row r="58" spans="1:78" ht="17">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -11055,7 +11112,7 @@
       <c r="BY101" s="4"/>
       <c r="BZ101" s="4"/>
     </row>
-    <row r="102" spans="1:78" ht="14.25">
+    <row r="102" spans="1:78">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -11135,7 +11192,7 @@
       <c r="BY102" s="4"/>
       <c r="BZ102" s="4"/>
     </row>
-    <row r="103" spans="1:78" ht="14.25">
+    <row r="103" spans="1:78">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -11227,7 +11284,7 @@
       <c r="BY106" s="11"/>
       <c r="BZ106" s="11"/>
     </row>
-    <row r="107" spans="1:78" ht="14.25">
+    <row r="107" spans="1:78">
       <c r="BY107" s="11"/>
       <c r="BZ107" s="11"/>
     </row>
@@ -11235,7 +11292,7 @@
       <c r="BY108" s="11"/>
       <c r="BZ108" s="11"/>
     </row>
-    <row r="109" spans="1:78" ht="14.25">
+    <row r="109" spans="1:78">
       <c r="BY109" s="11"/>
       <c r="BZ109" s="11"/>
     </row>
@@ -11411,11 +11468,11 @@
       <c r="BY152" s="11"/>
       <c r="BZ152" s="11"/>
     </row>
-    <row r="153" spans="77:78" ht="14.25">
+    <row r="153" spans="77:78">
       <c r="BY153" s="11"/>
       <c r="BZ153" s="11"/>
     </row>
-    <row r="154" spans="77:78" ht="14.25">
+    <row r="154" spans="77:78">
       <c r="BY154" s="11"/>
       <c r="BZ154" s="11"/>
     </row>
@@ -11431,7 +11488,7 @@
       <c r="BY157" s="11"/>
       <c r="BZ157" s="11"/>
     </row>
-    <row r="158" spans="77:78" ht="14.25">
+    <row r="158" spans="77:78">
       <c r="BY158" s="11"/>
       <c r="BZ158" s="11"/>
     </row>
@@ -11439,7 +11496,7 @@
       <c r="BY159" s="11"/>
       <c r="BZ159" s="11"/>
     </row>
-    <row r="160" spans="77:78" ht="14.25">
+    <row r="160" spans="77:78">
       <c r="BY160" s="11"/>
       <c r="BZ160" s="11"/>
     </row>
@@ -11615,15 +11672,15 @@
       <c r="BY203" s="11"/>
       <c r="BZ203" s="11"/>
     </row>
-    <row r="204" spans="77:78" ht="14.25">
+    <row r="204" spans="77:78">
       <c r="BY204" s="11"/>
       <c r="BZ204" s="11"/>
     </row>
-    <row r="205" spans="77:78" ht="14.25">
+    <row r="205" spans="77:78">
       <c r="BY205" s="11"/>
       <c r="BZ205" s="11"/>
     </row>
-    <row r="206" spans="77:78" ht="14.25">
+    <row r="206" spans="77:78">
       <c r="BY206" s="4"/>
       <c r="BZ206" s="4"/>
     </row>
@@ -14809,24 +14866,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="AM25:AN25"/>
-    <mergeCell ref="AM28:AN28"/>
-    <mergeCell ref="AM31:AN31"/>
-    <mergeCell ref="AM33:AN33"/>
-    <mergeCell ref="AO5:AU6"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="AM23:AN23"/>
-    <mergeCell ref="AO23:AT23"/>
-    <mergeCell ref="AM17:AN17"/>
-    <mergeCell ref="AM21:AN21"/>
-    <mergeCell ref="AM19:AN19"/>
-    <mergeCell ref="AM14:AN14"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="AM10:AN10"/>
-    <mergeCell ref="AM12:AN12"/>
-    <mergeCell ref="AM5:AN6"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="AE2:AV2"/>
     <mergeCell ref="BP1:BX1"/>
     <mergeCell ref="AV5:AZ6"/>
     <mergeCell ref="BB2:BJ2"/>
@@ -14840,9 +14879,28 @@
     <mergeCell ref="F2:Y2"/>
     <mergeCell ref="Z2:AD2"/>
     <mergeCell ref="BK1:BO1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="AM10:AN10"/>
+    <mergeCell ref="AM12:AN12"/>
+    <mergeCell ref="AM5:AN6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="AE2:AV2"/>
+    <mergeCell ref="AM25:AN25"/>
+    <mergeCell ref="AM28:AN28"/>
+    <mergeCell ref="AM31:AN31"/>
+    <mergeCell ref="AM33:AN33"/>
+    <mergeCell ref="AO5:AU6"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="AM23:AN23"/>
+    <mergeCell ref="AO23:AT23"/>
+    <mergeCell ref="AM17:AN17"/>
+    <mergeCell ref="AM21:AN21"/>
+    <mergeCell ref="AM19:AN19"/>
+    <mergeCell ref="AM14:AN14"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/設計書/01.基本設計/02.画面設計/画面設計書(商品詳細).xlsx
+++ b/設計書/01.基本設計/02.画面設計/画面設計書(商品詳細).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seiya/DesignDocs/設計書/01.基本設計/02.画面設計/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\DesignDocs\設計書\01.基本設計\02.画面設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0713FCA-10F5-DB4A-B7D5-FB90D30691AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00476030-FEC2-4835-B264-42A4DDC5CF6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27420" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="27420" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="商品詳細画面" sheetId="1" r:id="rId1"/>
@@ -415,7 +415,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -425,33 +425,33 @@
       <b/>
       <sz val="14"/>
       <name val="MS PGothic"/>
-      <charset val="128"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="MS PGothic"/>
-      <charset val="128"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="MS PGothic"/>
-      <charset val="128"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="MS PGothic"/>
-      <charset val="128"/>
+      <family val="3"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="MS PGothic"/>
-      <charset val="128"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="MS PGothic"/>
-      <charset val="128"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="12"/>
@@ -488,11 +488,6 @@
       <color rgb="FFFF0000"/>
       <name val="MS PGothic"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Yu Gothic UI"/>
     </font>
   </fonts>
   <fills count="3">
@@ -916,15 +911,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -933,7 +924,58 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
@@ -945,53 +987,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1069,7 +1064,7 @@
               <a:cs typeface="Calibri"/>
               <a:sym typeface="Calibri"/>
             </a:rPr>
-            <a:t>Online Shop</a:t>
+            <a:t>Online Shp</a:t>
           </a:r>
           <a:endParaRPr sz="1400"/>
         </a:p>
@@ -1628,59 +1623,25 @@
     </xdr:sp>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="314325"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>178072</xdr:rowOff>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12261</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="図 25">
+        <xdr:cNvPr id="10" name="図 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F409603D-674C-4309-837C-57AC5F219DB7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{313C1ED5-57B0-42E0-A756-B967C1791564}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1689,15 +1650,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="190500" y="1244872"/>
-          <a:ext cx="7229475" cy="3450954"/>
+          <a:off x="180975" y="1260036"/>
+          <a:ext cx="7267575" cy="3511989"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2481,7 +2442,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2888,199 +2849,199 @@
   </sheetPr>
   <dimension ref="A1:BZ1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="BU24" sqref="BU24"/>
+    <sheetView tabSelected="1" topLeftCell="X7" workbookViewId="0">
+      <selection activeCell="BU25" sqref="BU25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="76" width="2.6640625" customWidth="1"/>
+    <col min="1" max="76" width="2.625" customWidth="1"/>
     <col min="77" max="78" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="79" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="65"/>
-      <c r="AL1" s="65"/>
-      <c r="AM1" s="65"/>
-      <c r="AN1" s="65"/>
-      <c r="AO1" s="65"/>
-      <c r="AP1" s="65"/>
-      <c r="AQ1" s="65"/>
-      <c r="AR1" s="65"/>
-      <c r="AS1" s="65"/>
-      <c r="AT1" s="65"/>
-      <c r="AU1" s="65"/>
-      <c r="AV1" s="66"/>
-      <c r="AW1" s="75" t="s">
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="45"/>
+      <c r="AI1" s="45"/>
+      <c r="AJ1" s="45"/>
+      <c r="AK1" s="45"/>
+      <c r="AL1" s="45"/>
+      <c r="AM1" s="45"/>
+      <c r="AN1" s="45"/>
+      <c r="AO1" s="45"/>
+      <c r="AP1" s="45"/>
+      <c r="AQ1" s="45"/>
+      <c r="AR1" s="45"/>
+      <c r="AS1" s="45"/>
+      <c r="AT1" s="45"/>
+      <c r="AU1" s="45"/>
+      <c r="AV1" s="61"/>
+      <c r="AW1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="AX1" s="65"/>
-      <c r="AY1" s="65"/>
-      <c r="AZ1" s="65"/>
-      <c r="BA1" s="66"/>
-      <c r="BB1" s="73" t="s">
+      <c r="AX1" s="45"/>
+      <c r="AY1" s="45"/>
+      <c r="AZ1" s="45"/>
+      <c r="BA1" s="61"/>
+      <c r="BB1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="BC1" s="60"/>
-      <c r="BD1" s="60"/>
-      <c r="BE1" s="60"/>
-      <c r="BF1" s="60"/>
-      <c r="BG1" s="60"/>
-      <c r="BH1" s="60"/>
-      <c r="BI1" s="60"/>
-      <c r="BJ1" s="61"/>
-      <c r="BK1" s="75" t="s">
+      <c r="BC1" s="54"/>
+      <c r="BD1" s="54"/>
+      <c r="BE1" s="54"/>
+      <c r="BF1" s="54"/>
+      <c r="BG1" s="54"/>
+      <c r="BH1" s="54"/>
+      <c r="BI1" s="54"/>
+      <c r="BJ1" s="55"/>
+      <c r="BK1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="BL1" s="65"/>
-      <c r="BM1" s="65"/>
-      <c r="BN1" s="65"/>
-      <c r="BO1" s="66"/>
-      <c r="BP1" s="68" t="s">
+      <c r="BL1" s="45"/>
+      <c r="BM1" s="45"/>
+      <c r="BN1" s="45"/>
+      <c r="BO1" s="61"/>
+      <c r="BP1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="BQ1" s="65"/>
-      <c r="BR1" s="65"/>
-      <c r="BS1" s="65"/>
-      <c r="BT1" s="65"/>
-      <c r="BU1" s="65"/>
-      <c r="BV1" s="65"/>
-      <c r="BW1" s="65"/>
-      <c r="BX1" s="69"/>
+      <c r="BQ1" s="45"/>
+      <c r="BR1" s="45"/>
+      <c r="BS1" s="45"/>
+      <c r="BT1" s="45"/>
+      <c r="BU1" s="45"/>
+      <c r="BV1" s="45"/>
+      <c r="BW1" s="45"/>
+      <c r="BX1" s="46"/>
       <c r="BY1" s="1"/>
       <c r="BZ1" s="1"/>
     </row>
     <row r="2" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="80" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="74" t="s">
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="60"/>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="60"/>
-      <c r="AG2" s="60"/>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="60"/>
-      <c r="AK2" s="60"/>
-      <c r="AL2" s="60"/>
-      <c r="AM2" s="60"/>
-      <c r="AN2" s="60"/>
-      <c r="AO2" s="60"/>
-      <c r="AP2" s="60"/>
-      <c r="AQ2" s="60"/>
-      <c r="AR2" s="60"/>
-      <c r="AS2" s="60"/>
-      <c r="AT2" s="60"/>
-      <c r="AU2" s="60"/>
-      <c r="AV2" s="61"/>
-      <c r="AW2" s="74" t="s">
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="55"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="54"/>
+      <c r="AG2" s="54"/>
+      <c r="AH2" s="54"/>
+      <c r="AI2" s="54"/>
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="54"/>
+      <c r="AN2" s="54"/>
+      <c r="AO2" s="54"/>
+      <c r="AP2" s="54"/>
+      <c r="AQ2" s="54"/>
+      <c r="AR2" s="54"/>
+      <c r="AS2" s="54"/>
+      <c r="AT2" s="54"/>
+      <c r="AU2" s="54"/>
+      <c r="AV2" s="55"/>
+      <c r="AW2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="AX2" s="60"/>
-      <c r="AY2" s="60"/>
-      <c r="AZ2" s="60"/>
-      <c r="BA2" s="61"/>
-      <c r="BB2" s="70">
+      <c r="AX2" s="54"/>
+      <c r="AY2" s="54"/>
+      <c r="AZ2" s="54"/>
+      <c r="BA2" s="55"/>
+      <c r="BB2" s="53">
         <v>43776</v>
       </c>
-      <c r="BC2" s="60"/>
-      <c r="BD2" s="60"/>
-      <c r="BE2" s="60"/>
-      <c r="BF2" s="60"/>
-      <c r="BG2" s="60"/>
-      <c r="BH2" s="60"/>
-      <c r="BI2" s="60"/>
-      <c r="BJ2" s="61"/>
-      <c r="BK2" s="74" t="s">
+      <c r="BC2" s="54"/>
+      <c r="BD2" s="54"/>
+      <c r="BE2" s="54"/>
+      <c r="BF2" s="54"/>
+      <c r="BG2" s="54"/>
+      <c r="BH2" s="54"/>
+      <c r="BI2" s="54"/>
+      <c r="BJ2" s="55"/>
+      <c r="BK2" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="BL2" s="60"/>
-      <c r="BM2" s="60"/>
-      <c r="BN2" s="60"/>
-      <c r="BO2" s="61"/>
-      <c r="BP2" s="76" t="s">
+      <c r="BL2" s="54"/>
+      <c r="BM2" s="54"/>
+      <c r="BN2" s="54"/>
+      <c r="BO2" s="55"/>
+      <c r="BP2" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="BQ2" s="77"/>
-      <c r="BR2" s="77"/>
-      <c r="BS2" s="77"/>
-      <c r="BT2" s="77"/>
-      <c r="BU2" s="77"/>
-      <c r="BV2" s="77"/>
-      <c r="BW2" s="77"/>
-      <c r="BX2" s="78"/>
+      <c r="BQ2" s="63"/>
+      <c r="BR2" s="63"/>
+      <c r="BS2" s="63"/>
+      <c r="BT2" s="63"/>
+      <c r="BU2" s="63"/>
+      <c r="BV2" s="63"/>
+      <c r="BW2" s="63"/>
+      <c r="BX2" s="64"/>
       <c r="BY2" s="1"/>
       <c r="BZ2" s="1"/>
     </row>
@@ -3164,7 +3125,7 @@
       <c r="BY3" s="4"/>
       <c r="BZ3" s="4"/>
     </row>
-    <row r="4" spans="1:78">
+    <row r="4" spans="1:78" ht="14.25">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
         <v>11</v>
@@ -3285,7 +3246,7 @@
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
-      <c r="AM5" s="62" t="s">
+      <c r="AM5" s="70" t="s">
         <v>12</v>
       </c>
       <c r="AN5" s="49"/>
@@ -3329,12 +3290,12 @@
       <c r="BT5" s="48"/>
       <c r="BU5" s="48"/>
       <c r="BV5" s="48"/>
-      <c r="BW5" s="71"/>
+      <c r="BW5" s="56"/>
       <c r="BX5" s="8"/>
       <c r="BY5" s="4"/>
       <c r="BZ5" s="4"/>
     </row>
-    <row r="6" spans="1:78">
+    <row r="6" spans="1:78" ht="14.25">
       <c r="A6" s="6"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -3373,7 +3334,7 @@
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
-      <c r="AM6" s="63"/>
+      <c r="AM6" s="71"/>
       <c r="AN6" s="52"/>
       <c r="AO6" s="50"/>
       <c r="AP6" s="51"/>
@@ -3409,7 +3370,7 @@
       <c r="BT6" s="51"/>
       <c r="BU6" s="51"/>
       <c r="BV6" s="51"/>
-      <c r="BW6" s="72"/>
+      <c r="BW6" s="57"/>
       <c r="BX6" s="8"/>
       <c r="BY6" s="4"/>
       <c r="BZ6" s="4"/>
@@ -3453,10 +3414,10 @@
       <c r="AJ7" s="4"/>
       <c r="AK7" s="4"/>
       <c r="AL7" s="4"/>
-      <c r="AM7" s="53" t="s">
+      <c r="AM7" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="AN7" s="54"/>
+      <c r="AN7" s="77"/>
       <c r="AO7" s="11" t="s">
         <v>17</v>
       </c>
@@ -3703,10 +3664,10 @@
       <c r="AJ10" s="4"/>
       <c r="AK10" s="4"/>
       <c r="AL10" s="4"/>
-      <c r="AM10" s="53" t="s">
+      <c r="AM10" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="AN10" s="58"/>
+      <c r="AN10" s="69"/>
       <c r="AO10" s="17" t="s">
         <v>22</v>
       </c>
@@ -3869,10 +3830,10 @@
       <c r="AJ12" s="4"/>
       <c r="AK12" s="4"/>
       <c r="AL12" s="4"/>
-      <c r="AM12" s="53" t="s">
+      <c r="AM12" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="AN12" s="58"/>
+      <c r="AN12" s="69"/>
       <c r="AO12" s="18" t="s">
         <v>25</v>
       </c>
@@ -4035,10 +3996,10 @@
       <c r="AJ14" s="4"/>
       <c r="AK14" s="4"/>
       <c r="AL14" s="4"/>
-      <c r="AM14" s="53" t="s">
+      <c r="AM14" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="AN14" s="58"/>
+      <c r="AN14" s="69"/>
       <c r="AO14" s="20" t="s">
         <v>28</v>
       </c>
@@ -4283,10 +4244,10 @@
       <c r="AJ17" s="4"/>
       <c r="AK17" s="4"/>
       <c r="AL17" s="4"/>
-      <c r="AM17" s="53" t="s">
+      <c r="AM17" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="AN17" s="58"/>
+      <c r="AN17" s="69"/>
       <c r="AO17" s="20" t="s">
         <v>32</v>
       </c>
@@ -4449,10 +4410,10 @@
       <c r="AJ19" s="4"/>
       <c r="AK19" s="4"/>
       <c r="AL19" s="4"/>
-      <c r="AM19" s="53" t="s">
+      <c r="AM19" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="AN19" s="58"/>
+      <c r="AN19" s="69"/>
       <c r="AO19" s="18" t="s">
         <v>35</v>
       </c>
@@ -4617,10 +4578,10 @@
       <c r="AJ21" s="4"/>
       <c r="AK21" s="4"/>
       <c r="AL21" s="4"/>
-      <c r="AM21" s="53" t="s">
+      <c r="AM21" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="AN21" s="58"/>
+      <c r="AN21" s="69"/>
       <c r="AO21" s="18" t="s">
         <v>39</v>
       </c>
@@ -4785,18 +4746,18 @@
       <c r="AJ23" s="4"/>
       <c r="AK23" s="4"/>
       <c r="AL23" s="4"/>
-      <c r="AM23" s="44" t="s">
+      <c r="AM23" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="AN23" s="55"/>
-      <c r="AO23" s="56" t="s">
+      <c r="AN23" s="78"/>
+      <c r="AO23" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="AP23" s="57"/>
-      <c r="AQ23" s="57"/>
-      <c r="AR23" s="57"/>
-      <c r="AS23" s="57"/>
-      <c r="AT23" s="57"/>
+      <c r="AP23" s="80"/>
+      <c r="AQ23" s="80"/>
+      <c r="AR23" s="80"/>
+      <c r="AS23" s="80"/>
+      <c r="AT23" s="80"/>
       <c r="AU23" s="13"/>
       <c r="AV23" s="39"/>
       <c r="AW23" s="11"/>
@@ -4953,10 +4914,10 @@
       <c r="AJ25" s="4"/>
       <c r="AK25" s="4"/>
       <c r="AL25" s="4"/>
-      <c r="AM25" s="44" t="s">
+      <c r="AM25" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="AN25" s="45"/>
+      <c r="AN25" s="75"/>
       <c r="AO25" s="39" t="s">
         <v>64</v>
       </c>
@@ -5203,10 +5164,10 @@
       <c r="AJ28" s="4"/>
       <c r="AK28" s="4"/>
       <c r="AL28" s="4"/>
-      <c r="AM28" s="44" t="s">
+      <c r="AM28" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="AN28" s="46"/>
+      <c r="AN28" s="76"/>
       <c r="AO28" s="41" t="s">
         <v>49</v>
       </c>
@@ -5453,10 +5414,10 @@
       <c r="AJ31" s="4"/>
       <c r="AK31" s="4"/>
       <c r="AL31" s="4"/>
-      <c r="AM31" s="44" t="s">
+      <c r="AM31" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="AN31" s="46"/>
+      <c r="AN31" s="76"/>
       <c r="AO31" s="42" t="s">
         <v>54</v>
       </c>
@@ -5621,10 +5582,10 @@
       <c r="AJ33" s="4"/>
       <c r="AK33" s="4"/>
       <c r="AL33" s="4"/>
-      <c r="AM33" s="44" t="s">
+      <c r="AM33" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="AN33" s="46"/>
+      <c r="AN33" s="76"/>
       <c r="AO33" s="43" t="s">
         <v>57</v>
       </c>
@@ -7032,7 +6993,7 @@
       <c r="BY50" s="4"/>
       <c r="BZ50" s="4"/>
     </row>
-    <row r="51" spans="1:78">
+    <row r="51" spans="1:78" ht="14.25">
       <c r="A51" s="6"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -7112,7 +7073,7 @@
       <c r="BY51" s="4"/>
       <c r="BZ51" s="4"/>
     </row>
-    <row r="52" spans="1:78">
+    <row r="52" spans="1:78" ht="14.25">
       <c r="A52" s="6"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -7432,7 +7393,7 @@
       <c r="BY55" s="4"/>
       <c r="BZ55" s="4"/>
     </row>
-    <row r="56" spans="1:78" ht="17">
+    <row r="56" spans="1:78" ht="17.25">
       <c r="A56" s="4"/>
       <c r="B56" s="27"/>
       <c r="C56" s="4"/>
@@ -7592,7 +7553,7 @@
       <c r="BY57" s="4"/>
       <c r="BZ57" s="4"/>
     </row>
-    <row r="58" spans="1:78" ht="17">
+    <row r="58" spans="1:78" ht="17.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -11112,7 +11073,7 @@
       <c r="BY101" s="4"/>
       <c r="BZ101" s="4"/>
     </row>
-    <row r="102" spans="1:78">
+    <row r="102" spans="1:78" ht="14.25">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -11192,7 +11153,7 @@
       <c r="BY102" s="4"/>
       <c r="BZ102" s="4"/>
     </row>
-    <row r="103" spans="1:78">
+    <row r="103" spans="1:78" ht="14.25">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -11284,7 +11245,7 @@
       <c r="BY106" s="11"/>
       <c r="BZ106" s="11"/>
     </row>
-    <row r="107" spans="1:78">
+    <row r="107" spans="1:78" ht="14.25">
       <c r="BY107" s="11"/>
       <c r="BZ107" s="11"/>
     </row>
@@ -11292,7 +11253,7 @@
       <c r="BY108" s="11"/>
       <c r="BZ108" s="11"/>
     </row>
-    <row r="109" spans="1:78">
+    <row r="109" spans="1:78" ht="14.25">
       <c r="BY109" s="11"/>
       <c r="BZ109" s="11"/>
     </row>
@@ -11468,11 +11429,11 @@
       <c r="BY152" s="11"/>
       <c r="BZ152" s="11"/>
     </row>
-    <row r="153" spans="77:78">
+    <row r="153" spans="77:78" ht="14.25">
       <c r="BY153" s="11"/>
       <c r="BZ153" s="11"/>
     </row>
-    <row r="154" spans="77:78">
+    <row r="154" spans="77:78" ht="14.25">
       <c r="BY154" s="11"/>
       <c r="BZ154" s="11"/>
     </row>
@@ -11488,7 +11449,7 @@
       <c r="BY157" s="11"/>
       <c r="BZ157" s="11"/>
     </row>
-    <row r="158" spans="77:78">
+    <row r="158" spans="77:78" ht="14.25">
       <c r="BY158" s="11"/>
       <c r="BZ158" s="11"/>
     </row>
@@ -11496,7 +11457,7 @@
       <c r="BY159" s="11"/>
       <c r="BZ159" s="11"/>
     </row>
-    <row r="160" spans="77:78">
+    <row r="160" spans="77:78" ht="14.25">
       <c r="BY160" s="11"/>
       <c r="BZ160" s="11"/>
     </row>
@@ -11672,15 +11633,15 @@
       <c r="BY203" s="11"/>
       <c r="BZ203" s="11"/>
     </row>
-    <row r="204" spans="77:78">
+    <row r="204" spans="77:78" ht="14.25">
       <c r="BY204" s="11"/>
       <c r="BZ204" s="11"/>
     </row>
-    <row r="205" spans="77:78">
+    <row r="205" spans="77:78" ht="14.25">
       <c r="BY205" s="11"/>
       <c r="BZ205" s="11"/>
     </row>
-    <row r="206" spans="77:78">
+    <row r="206" spans="77:78" ht="14.25">
       <c r="BY206" s="4"/>
       <c r="BZ206" s="4"/>
     </row>
@@ -14866,6 +14827,24 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="AM25:AN25"/>
+    <mergeCell ref="AM28:AN28"/>
+    <mergeCell ref="AM31:AN31"/>
+    <mergeCell ref="AM33:AN33"/>
+    <mergeCell ref="AO5:AU6"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="AM23:AN23"/>
+    <mergeCell ref="AO23:AT23"/>
+    <mergeCell ref="AM17:AN17"/>
+    <mergeCell ref="AM21:AN21"/>
+    <mergeCell ref="AM19:AN19"/>
+    <mergeCell ref="AM14:AN14"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="AM10:AN10"/>
+    <mergeCell ref="AM12:AN12"/>
+    <mergeCell ref="AM5:AN6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="AE2:AV2"/>
     <mergeCell ref="BP1:BX1"/>
     <mergeCell ref="AV5:AZ6"/>
     <mergeCell ref="BB2:BJ2"/>
@@ -14879,24 +14858,6 @@
     <mergeCell ref="F2:Y2"/>
     <mergeCell ref="Z2:AD2"/>
     <mergeCell ref="BK1:BO1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="AM10:AN10"/>
-    <mergeCell ref="AM12:AN12"/>
-    <mergeCell ref="AM5:AN6"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="AE2:AV2"/>
-    <mergeCell ref="AM25:AN25"/>
-    <mergeCell ref="AM28:AN28"/>
-    <mergeCell ref="AM31:AN31"/>
-    <mergeCell ref="AM33:AN33"/>
-    <mergeCell ref="AO5:AU6"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="AM23:AN23"/>
-    <mergeCell ref="AO23:AT23"/>
-    <mergeCell ref="AM17:AN17"/>
-    <mergeCell ref="AM21:AN21"/>
-    <mergeCell ref="AM19:AN19"/>
-    <mergeCell ref="AM14:AN14"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/設計書/01.基本設計/02.画面設計/画面設計書(商品詳細).xlsx
+++ b/設計書/01.基本設計/02.画面設計/画面設計書(商品詳細).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\DesignDocs\設計書\01.基本設計\02.画面設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00476030-FEC2-4835-B264-42A4DDC5CF6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6312B2-F67E-4BF1-9A33-7B4F2E815D07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="27420" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="商品詳細画面" sheetId="1" r:id="rId1"/>
@@ -911,11 +911,15 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -924,11 +928,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -940,7 +977,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -951,42 +987,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2849,8 +2849,8 @@
   </sheetPr>
   <dimension ref="A1:BZ1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X7" workbookViewId="0">
-      <selection activeCell="BU25" sqref="BU25"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="BA28" sqref="BA28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -2860,188 +2860,188 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="65" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="45"/>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="45"/>
-      <c r="AK1" s="45"/>
-      <c r="AL1" s="45"/>
-      <c r="AM1" s="45"/>
-      <c r="AN1" s="45"/>
-      <c r="AO1" s="45"/>
-      <c r="AP1" s="45"/>
-      <c r="AQ1" s="45"/>
-      <c r="AR1" s="45"/>
-      <c r="AS1" s="45"/>
-      <c r="AT1" s="45"/>
-      <c r="AU1" s="45"/>
-      <c r="AV1" s="61"/>
-      <c r="AW1" s="60" t="s">
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="65"/>
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="65"/>
+      <c r="AL1" s="65"/>
+      <c r="AM1" s="65"/>
+      <c r="AN1" s="65"/>
+      <c r="AO1" s="65"/>
+      <c r="AP1" s="65"/>
+      <c r="AQ1" s="65"/>
+      <c r="AR1" s="65"/>
+      <c r="AS1" s="65"/>
+      <c r="AT1" s="65"/>
+      <c r="AU1" s="65"/>
+      <c r="AV1" s="66"/>
+      <c r="AW1" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="AX1" s="45"/>
-      <c r="AY1" s="45"/>
-      <c r="AZ1" s="45"/>
-      <c r="BA1" s="61"/>
-      <c r="BB1" s="58" t="s">
+      <c r="AX1" s="65"/>
+      <c r="AY1" s="65"/>
+      <c r="AZ1" s="65"/>
+      <c r="BA1" s="66"/>
+      <c r="BB1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="BC1" s="54"/>
-      <c r="BD1" s="54"/>
-      <c r="BE1" s="54"/>
-      <c r="BF1" s="54"/>
-      <c r="BG1" s="54"/>
-      <c r="BH1" s="54"/>
-      <c r="BI1" s="54"/>
-      <c r="BJ1" s="55"/>
-      <c r="BK1" s="60" t="s">
+      <c r="BC1" s="60"/>
+      <c r="BD1" s="60"/>
+      <c r="BE1" s="60"/>
+      <c r="BF1" s="60"/>
+      <c r="BG1" s="60"/>
+      <c r="BH1" s="60"/>
+      <c r="BI1" s="60"/>
+      <c r="BJ1" s="61"/>
+      <c r="BK1" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="BL1" s="45"/>
-      <c r="BM1" s="45"/>
-      <c r="BN1" s="45"/>
-      <c r="BO1" s="61"/>
-      <c r="BP1" s="44" t="s">
+      <c r="BL1" s="65"/>
+      <c r="BM1" s="65"/>
+      <c r="BN1" s="65"/>
+      <c r="BO1" s="66"/>
+      <c r="BP1" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="BQ1" s="45"/>
-      <c r="BR1" s="45"/>
-      <c r="BS1" s="45"/>
-      <c r="BT1" s="45"/>
-      <c r="BU1" s="45"/>
-      <c r="BV1" s="45"/>
-      <c r="BW1" s="45"/>
-      <c r="BX1" s="46"/>
+      <c r="BQ1" s="65"/>
+      <c r="BR1" s="65"/>
+      <c r="BS1" s="65"/>
+      <c r="BT1" s="65"/>
+      <c r="BU1" s="65"/>
+      <c r="BV1" s="65"/>
+      <c r="BW1" s="65"/>
+      <c r="BX1" s="69"/>
       <c r="BY1" s="1"/>
       <c r="BZ1" s="1"/>
     </row>
     <row r="2" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="66" t="s">
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="59" t="s">
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="73"/>
-      <c r="AF2" s="54"/>
-      <c r="AG2" s="54"/>
-      <c r="AH2" s="54"/>
-      <c r="AI2" s="54"/>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="54"/>
-      <c r="AO2" s="54"/>
-      <c r="AP2" s="54"/>
-      <c r="AQ2" s="54"/>
-      <c r="AR2" s="54"/>
-      <c r="AS2" s="54"/>
-      <c r="AT2" s="54"/>
-      <c r="AU2" s="54"/>
-      <c r="AV2" s="55"/>
-      <c r="AW2" s="59" t="s">
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="61"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="60"/>
+      <c r="AG2" s="60"/>
+      <c r="AH2" s="60"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="60"/>
+      <c r="AK2" s="60"/>
+      <c r="AL2" s="60"/>
+      <c r="AM2" s="60"/>
+      <c r="AN2" s="60"/>
+      <c r="AO2" s="60"/>
+      <c r="AP2" s="60"/>
+      <c r="AQ2" s="60"/>
+      <c r="AR2" s="60"/>
+      <c r="AS2" s="60"/>
+      <c r="AT2" s="60"/>
+      <c r="AU2" s="60"/>
+      <c r="AV2" s="61"/>
+      <c r="AW2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="AX2" s="54"/>
-      <c r="AY2" s="54"/>
-      <c r="AZ2" s="54"/>
-      <c r="BA2" s="55"/>
-      <c r="BB2" s="53">
+      <c r="AX2" s="60"/>
+      <c r="AY2" s="60"/>
+      <c r="AZ2" s="60"/>
+      <c r="BA2" s="61"/>
+      <c r="BB2" s="70">
         <v>43776</v>
       </c>
-      <c r="BC2" s="54"/>
-      <c r="BD2" s="54"/>
-      <c r="BE2" s="54"/>
-      <c r="BF2" s="54"/>
-      <c r="BG2" s="54"/>
-      <c r="BH2" s="54"/>
-      <c r="BI2" s="54"/>
-      <c r="BJ2" s="55"/>
-      <c r="BK2" s="59" t="s">
+      <c r="BC2" s="60"/>
+      <c r="BD2" s="60"/>
+      <c r="BE2" s="60"/>
+      <c r="BF2" s="60"/>
+      <c r="BG2" s="60"/>
+      <c r="BH2" s="60"/>
+      <c r="BI2" s="60"/>
+      <c r="BJ2" s="61"/>
+      <c r="BK2" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="BL2" s="54"/>
-      <c r="BM2" s="54"/>
-      <c r="BN2" s="54"/>
-      <c r="BO2" s="55"/>
-      <c r="BP2" s="62" t="s">
+      <c r="BL2" s="60"/>
+      <c r="BM2" s="60"/>
+      <c r="BN2" s="60"/>
+      <c r="BO2" s="61"/>
+      <c r="BP2" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="BQ2" s="63"/>
-      <c r="BR2" s="63"/>
-      <c r="BS2" s="63"/>
-      <c r="BT2" s="63"/>
-      <c r="BU2" s="63"/>
-      <c r="BV2" s="63"/>
-      <c r="BW2" s="63"/>
-      <c r="BX2" s="64"/>
+      <c r="BQ2" s="77"/>
+      <c r="BR2" s="77"/>
+      <c r="BS2" s="77"/>
+      <c r="BT2" s="77"/>
+      <c r="BU2" s="77"/>
+      <c r="BV2" s="77"/>
+      <c r="BW2" s="77"/>
+      <c r="BX2" s="78"/>
       <c r="BY2" s="1"/>
       <c r="BZ2" s="1"/>
     </row>
@@ -3246,7 +3246,7 @@
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
-      <c r="AM5" s="70" t="s">
+      <c r="AM5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="AN5" s="49"/>
@@ -3290,7 +3290,7 @@
       <c r="BT5" s="48"/>
       <c r="BU5" s="48"/>
       <c r="BV5" s="48"/>
-      <c r="BW5" s="56"/>
+      <c r="BW5" s="71"/>
       <c r="BX5" s="8"/>
       <c r="BY5" s="4"/>
       <c r="BZ5" s="4"/>
@@ -3334,7 +3334,7 @@
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
-      <c r="AM6" s="71"/>
+      <c r="AM6" s="63"/>
       <c r="AN6" s="52"/>
       <c r="AO6" s="50"/>
       <c r="AP6" s="51"/>
@@ -3370,7 +3370,7 @@
       <c r="BT6" s="51"/>
       <c r="BU6" s="51"/>
       <c r="BV6" s="51"/>
-      <c r="BW6" s="57"/>
+      <c r="BW6" s="72"/>
       <c r="BX6" s="8"/>
       <c r="BY6" s="4"/>
       <c r="BZ6" s="4"/>
@@ -3414,10 +3414,10 @@
       <c r="AJ7" s="4"/>
       <c r="AK7" s="4"/>
       <c r="AL7" s="4"/>
-      <c r="AM7" s="68" t="s">
+      <c r="AM7" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="AN7" s="77"/>
+      <c r="AN7" s="54"/>
       <c r="AO7" s="11" t="s">
         <v>17</v>
       </c>
@@ -3664,10 +3664,10 @@
       <c r="AJ10" s="4"/>
       <c r="AK10" s="4"/>
       <c r="AL10" s="4"/>
-      <c r="AM10" s="68" t="s">
+      <c r="AM10" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="AN10" s="69"/>
+      <c r="AN10" s="58"/>
       <c r="AO10" s="17" t="s">
         <v>22</v>
       </c>
@@ -3830,10 +3830,10 @@
       <c r="AJ12" s="4"/>
       <c r="AK12" s="4"/>
       <c r="AL12" s="4"/>
-      <c r="AM12" s="68" t="s">
+      <c r="AM12" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="AN12" s="69"/>
+      <c r="AN12" s="58"/>
       <c r="AO12" s="18" t="s">
         <v>25</v>
       </c>
@@ -3996,10 +3996,10 @@
       <c r="AJ14" s="4"/>
       <c r="AK14" s="4"/>
       <c r="AL14" s="4"/>
-      <c r="AM14" s="68" t="s">
+      <c r="AM14" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="AN14" s="69"/>
+      <c r="AN14" s="58"/>
       <c r="AO14" s="20" t="s">
         <v>28</v>
       </c>
@@ -4244,10 +4244,10 @@
       <c r="AJ17" s="4"/>
       <c r="AK17" s="4"/>
       <c r="AL17" s="4"/>
-      <c r="AM17" s="68" t="s">
+      <c r="AM17" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="AN17" s="69"/>
+      <c r="AN17" s="58"/>
       <c r="AO17" s="20" t="s">
         <v>32</v>
       </c>
@@ -4410,10 +4410,10 @@
       <c r="AJ19" s="4"/>
       <c r="AK19" s="4"/>
       <c r="AL19" s="4"/>
-      <c r="AM19" s="68" t="s">
+      <c r="AM19" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="AN19" s="69"/>
+      <c r="AN19" s="58"/>
       <c r="AO19" s="18" t="s">
         <v>35</v>
       </c>
@@ -4578,10 +4578,10 @@
       <c r="AJ21" s="4"/>
       <c r="AK21" s="4"/>
       <c r="AL21" s="4"/>
-      <c r="AM21" s="68" t="s">
+      <c r="AM21" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="AN21" s="69"/>
+      <c r="AN21" s="58"/>
       <c r="AO21" s="18" t="s">
         <v>39</v>
       </c>
@@ -4746,18 +4746,18 @@
       <c r="AJ23" s="4"/>
       <c r="AK23" s="4"/>
       <c r="AL23" s="4"/>
-      <c r="AM23" s="74" t="s">
+      <c r="AM23" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="AN23" s="78"/>
-      <c r="AO23" s="79" t="s">
+      <c r="AN23" s="55"/>
+      <c r="AO23" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="AP23" s="80"/>
-      <c r="AQ23" s="80"/>
-      <c r="AR23" s="80"/>
-      <c r="AS23" s="80"/>
-      <c r="AT23" s="80"/>
+      <c r="AP23" s="57"/>
+      <c r="AQ23" s="57"/>
+      <c r="AR23" s="57"/>
+      <c r="AS23" s="57"/>
+      <c r="AT23" s="57"/>
       <c r="AU23" s="13"/>
       <c r="AV23" s="39"/>
       <c r="AW23" s="11"/>
@@ -4914,10 +4914,10 @@
       <c r="AJ25" s="4"/>
       <c r="AK25" s="4"/>
       <c r="AL25" s="4"/>
-      <c r="AM25" s="74" t="s">
+      <c r="AM25" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="AN25" s="75"/>
+      <c r="AN25" s="45"/>
       <c r="AO25" s="39" t="s">
         <v>64</v>
       </c>
@@ -5164,10 +5164,10 @@
       <c r="AJ28" s="4"/>
       <c r="AK28" s="4"/>
       <c r="AL28" s="4"/>
-      <c r="AM28" s="74" t="s">
+      <c r="AM28" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="AN28" s="76"/>
+      <c r="AN28" s="46"/>
       <c r="AO28" s="41" t="s">
         <v>49</v>
       </c>
@@ -5414,10 +5414,10 @@
       <c r="AJ31" s="4"/>
       <c r="AK31" s="4"/>
       <c r="AL31" s="4"/>
-      <c r="AM31" s="74" t="s">
+      <c r="AM31" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="AN31" s="76"/>
+      <c r="AN31" s="46"/>
       <c r="AO31" s="42" t="s">
         <v>54</v>
       </c>
@@ -5582,10 +5582,10 @@
       <c r="AJ33" s="4"/>
       <c r="AK33" s="4"/>
       <c r="AL33" s="4"/>
-      <c r="AM33" s="74" t="s">
+      <c r="AM33" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="AN33" s="76"/>
+      <c r="AN33" s="46"/>
       <c r="AO33" s="43" t="s">
         <v>57</v>
       </c>
@@ -14827,24 +14827,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="AM25:AN25"/>
-    <mergeCell ref="AM28:AN28"/>
-    <mergeCell ref="AM31:AN31"/>
-    <mergeCell ref="AM33:AN33"/>
-    <mergeCell ref="AO5:AU6"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="AM23:AN23"/>
-    <mergeCell ref="AO23:AT23"/>
-    <mergeCell ref="AM17:AN17"/>
-    <mergeCell ref="AM21:AN21"/>
-    <mergeCell ref="AM19:AN19"/>
-    <mergeCell ref="AM14:AN14"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="AM10:AN10"/>
-    <mergeCell ref="AM12:AN12"/>
-    <mergeCell ref="AM5:AN6"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="AE2:AV2"/>
     <mergeCell ref="BP1:BX1"/>
     <mergeCell ref="AV5:AZ6"/>
     <mergeCell ref="BB2:BJ2"/>
@@ -14858,10 +14840,29 @@
     <mergeCell ref="F2:Y2"/>
     <mergeCell ref="Z2:AD2"/>
     <mergeCell ref="BK1:BO1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="AM10:AN10"/>
+    <mergeCell ref="AM12:AN12"/>
+    <mergeCell ref="AM5:AN6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="AE2:AV2"/>
+    <mergeCell ref="AM25:AN25"/>
+    <mergeCell ref="AM28:AN28"/>
+    <mergeCell ref="AM31:AN31"/>
+    <mergeCell ref="AM33:AN33"/>
+    <mergeCell ref="AO5:AU6"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="AM23:AN23"/>
+    <mergeCell ref="AO23:AT23"/>
+    <mergeCell ref="AM17:AN17"/>
+    <mergeCell ref="AM21:AN21"/>
+    <mergeCell ref="AM19:AN19"/>
+    <mergeCell ref="AM14:AN14"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/設計書/01.基本設計/02.画面設計/画面設計書(商品詳細).xlsx
+++ b/設計書/01.基本設計/02.画面設計/画面設計書(商品詳細).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\DesignDocs\設計書\01.基本設計\02.画面設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6312B2-F67E-4BF1-9A33-7B4F2E815D07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D890D8-FD98-42B3-9BD0-B3A3F5FEF078}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="27420" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="商品詳細画面" sheetId="1" r:id="rId1"/>
@@ -394,10 +394,6 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>2019/11/14 JTM01 岩田侑大対応</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
     <t>参考価格（税込）</t>
     <rPh sb="0" eb="2">
       <t>サンコウ</t>
@@ -408,6 +404,10 @@
     <rPh sb="5" eb="7">
       <t>ゼイコ</t>
     </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>2019/11/14 JTM10 岩田侑大対応</t>
     <phoneticPr fontId="10"/>
   </si>
 </sst>
@@ -911,15 +911,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -928,7 +924,58 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
@@ -940,53 +987,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2849,8 +2849,8 @@
   </sheetPr>
   <dimension ref="A1:BZ1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="BA28" sqref="BA28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="BT39" sqref="BT39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -2860,188 +2860,188 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="79" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="65"/>
-      <c r="AL1" s="65"/>
-      <c r="AM1" s="65"/>
-      <c r="AN1" s="65"/>
-      <c r="AO1" s="65"/>
-      <c r="AP1" s="65"/>
-      <c r="AQ1" s="65"/>
-      <c r="AR1" s="65"/>
-      <c r="AS1" s="65"/>
-      <c r="AT1" s="65"/>
-      <c r="AU1" s="65"/>
-      <c r="AV1" s="66"/>
-      <c r="AW1" s="75" t="s">
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="45"/>
+      <c r="AI1" s="45"/>
+      <c r="AJ1" s="45"/>
+      <c r="AK1" s="45"/>
+      <c r="AL1" s="45"/>
+      <c r="AM1" s="45"/>
+      <c r="AN1" s="45"/>
+      <c r="AO1" s="45"/>
+      <c r="AP1" s="45"/>
+      <c r="AQ1" s="45"/>
+      <c r="AR1" s="45"/>
+      <c r="AS1" s="45"/>
+      <c r="AT1" s="45"/>
+      <c r="AU1" s="45"/>
+      <c r="AV1" s="61"/>
+      <c r="AW1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="AX1" s="65"/>
-      <c r="AY1" s="65"/>
-      <c r="AZ1" s="65"/>
-      <c r="BA1" s="66"/>
-      <c r="BB1" s="73" t="s">
+      <c r="AX1" s="45"/>
+      <c r="AY1" s="45"/>
+      <c r="AZ1" s="45"/>
+      <c r="BA1" s="61"/>
+      <c r="BB1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="BC1" s="60"/>
-      <c r="BD1" s="60"/>
-      <c r="BE1" s="60"/>
-      <c r="BF1" s="60"/>
-      <c r="BG1" s="60"/>
-      <c r="BH1" s="60"/>
-      <c r="BI1" s="60"/>
-      <c r="BJ1" s="61"/>
-      <c r="BK1" s="75" t="s">
+      <c r="BC1" s="54"/>
+      <c r="BD1" s="54"/>
+      <c r="BE1" s="54"/>
+      <c r="BF1" s="54"/>
+      <c r="BG1" s="54"/>
+      <c r="BH1" s="54"/>
+      <c r="BI1" s="54"/>
+      <c r="BJ1" s="55"/>
+      <c r="BK1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="BL1" s="65"/>
-      <c r="BM1" s="65"/>
-      <c r="BN1" s="65"/>
-      <c r="BO1" s="66"/>
-      <c r="BP1" s="68" t="s">
+      <c r="BL1" s="45"/>
+      <c r="BM1" s="45"/>
+      <c r="BN1" s="45"/>
+      <c r="BO1" s="61"/>
+      <c r="BP1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="BQ1" s="65"/>
-      <c r="BR1" s="65"/>
-      <c r="BS1" s="65"/>
-      <c r="BT1" s="65"/>
-      <c r="BU1" s="65"/>
-      <c r="BV1" s="65"/>
-      <c r="BW1" s="65"/>
-      <c r="BX1" s="69"/>
+      <c r="BQ1" s="45"/>
+      <c r="BR1" s="45"/>
+      <c r="BS1" s="45"/>
+      <c r="BT1" s="45"/>
+      <c r="BU1" s="45"/>
+      <c r="BV1" s="45"/>
+      <c r="BW1" s="45"/>
+      <c r="BX1" s="46"/>
       <c r="BY1" s="1"/>
       <c r="BZ1" s="1"/>
     </row>
     <row r="2" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="80" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="74" t="s">
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="60"/>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="60"/>
-      <c r="AG2" s="60"/>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="60"/>
-      <c r="AK2" s="60"/>
-      <c r="AL2" s="60"/>
-      <c r="AM2" s="60"/>
-      <c r="AN2" s="60"/>
-      <c r="AO2" s="60"/>
-      <c r="AP2" s="60"/>
-      <c r="AQ2" s="60"/>
-      <c r="AR2" s="60"/>
-      <c r="AS2" s="60"/>
-      <c r="AT2" s="60"/>
-      <c r="AU2" s="60"/>
-      <c r="AV2" s="61"/>
-      <c r="AW2" s="74" t="s">
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="55"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="54"/>
+      <c r="AG2" s="54"/>
+      <c r="AH2" s="54"/>
+      <c r="AI2" s="54"/>
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="54"/>
+      <c r="AN2" s="54"/>
+      <c r="AO2" s="54"/>
+      <c r="AP2" s="54"/>
+      <c r="AQ2" s="54"/>
+      <c r="AR2" s="54"/>
+      <c r="AS2" s="54"/>
+      <c r="AT2" s="54"/>
+      <c r="AU2" s="54"/>
+      <c r="AV2" s="55"/>
+      <c r="AW2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="AX2" s="60"/>
-      <c r="AY2" s="60"/>
-      <c r="AZ2" s="60"/>
-      <c r="BA2" s="61"/>
-      <c r="BB2" s="70">
+      <c r="AX2" s="54"/>
+      <c r="AY2" s="54"/>
+      <c r="AZ2" s="54"/>
+      <c r="BA2" s="55"/>
+      <c r="BB2" s="53">
         <v>43776</v>
       </c>
-      <c r="BC2" s="60"/>
-      <c r="BD2" s="60"/>
-      <c r="BE2" s="60"/>
-      <c r="BF2" s="60"/>
-      <c r="BG2" s="60"/>
-      <c r="BH2" s="60"/>
-      <c r="BI2" s="60"/>
-      <c r="BJ2" s="61"/>
-      <c r="BK2" s="74" t="s">
+      <c r="BC2" s="54"/>
+      <c r="BD2" s="54"/>
+      <c r="BE2" s="54"/>
+      <c r="BF2" s="54"/>
+      <c r="BG2" s="54"/>
+      <c r="BH2" s="54"/>
+      <c r="BI2" s="54"/>
+      <c r="BJ2" s="55"/>
+      <c r="BK2" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="BL2" s="60"/>
-      <c r="BM2" s="60"/>
-      <c r="BN2" s="60"/>
-      <c r="BO2" s="61"/>
-      <c r="BP2" s="76" t="s">
+      <c r="BL2" s="54"/>
+      <c r="BM2" s="54"/>
+      <c r="BN2" s="54"/>
+      <c r="BO2" s="55"/>
+      <c r="BP2" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="BQ2" s="77"/>
-      <c r="BR2" s="77"/>
-      <c r="BS2" s="77"/>
-      <c r="BT2" s="77"/>
-      <c r="BU2" s="77"/>
-      <c r="BV2" s="77"/>
-      <c r="BW2" s="77"/>
-      <c r="BX2" s="78"/>
+      <c r="BQ2" s="63"/>
+      <c r="BR2" s="63"/>
+      <c r="BS2" s="63"/>
+      <c r="BT2" s="63"/>
+      <c r="BU2" s="63"/>
+      <c r="BV2" s="63"/>
+      <c r="BW2" s="63"/>
+      <c r="BX2" s="64"/>
       <c r="BY2" s="1"/>
       <c r="BZ2" s="1"/>
     </row>
@@ -3246,7 +3246,7 @@
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
-      <c r="AM5" s="62" t="s">
+      <c r="AM5" s="70" t="s">
         <v>12</v>
       </c>
       <c r="AN5" s="49"/>
@@ -3290,7 +3290,7 @@
       <c r="BT5" s="48"/>
       <c r="BU5" s="48"/>
       <c r="BV5" s="48"/>
-      <c r="BW5" s="71"/>
+      <c r="BW5" s="56"/>
       <c r="BX5" s="8"/>
       <c r="BY5" s="4"/>
       <c r="BZ5" s="4"/>
@@ -3334,7 +3334,7 @@
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
-      <c r="AM6" s="63"/>
+      <c r="AM6" s="71"/>
       <c r="AN6" s="52"/>
       <c r="AO6" s="50"/>
       <c r="AP6" s="51"/>
@@ -3370,7 +3370,7 @@
       <c r="BT6" s="51"/>
       <c r="BU6" s="51"/>
       <c r="BV6" s="51"/>
-      <c r="BW6" s="72"/>
+      <c r="BW6" s="57"/>
       <c r="BX6" s="8"/>
       <c r="BY6" s="4"/>
       <c r="BZ6" s="4"/>
@@ -3414,10 +3414,10 @@
       <c r="AJ7" s="4"/>
       <c r="AK7" s="4"/>
       <c r="AL7" s="4"/>
-      <c r="AM7" s="53" t="s">
+      <c r="AM7" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="AN7" s="54"/>
+      <c r="AN7" s="77"/>
       <c r="AO7" s="11" t="s">
         <v>17</v>
       </c>
@@ -3664,10 +3664,10 @@
       <c r="AJ10" s="4"/>
       <c r="AK10" s="4"/>
       <c r="AL10" s="4"/>
-      <c r="AM10" s="53" t="s">
+      <c r="AM10" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="AN10" s="58"/>
+      <c r="AN10" s="69"/>
       <c r="AO10" s="17" t="s">
         <v>22</v>
       </c>
@@ -3830,10 +3830,10 @@
       <c r="AJ12" s="4"/>
       <c r="AK12" s="4"/>
       <c r="AL12" s="4"/>
-      <c r="AM12" s="53" t="s">
+      <c r="AM12" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="AN12" s="58"/>
+      <c r="AN12" s="69"/>
       <c r="AO12" s="18" t="s">
         <v>25</v>
       </c>
@@ -3996,10 +3996,10 @@
       <c r="AJ14" s="4"/>
       <c r="AK14" s="4"/>
       <c r="AL14" s="4"/>
-      <c r="AM14" s="53" t="s">
+      <c r="AM14" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="AN14" s="58"/>
+      <c r="AN14" s="69"/>
       <c r="AO14" s="20" t="s">
         <v>28</v>
       </c>
@@ -4244,10 +4244,10 @@
       <c r="AJ17" s="4"/>
       <c r="AK17" s="4"/>
       <c r="AL17" s="4"/>
-      <c r="AM17" s="53" t="s">
+      <c r="AM17" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="AN17" s="58"/>
+      <c r="AN17" s="69"/>
       <c r="AO17" s="20" t="s">
         <v>32</v>
       </c>
@@ -4410,10 +4410,10 @@
       <c r="AJ19" s="4"/>
       <c r="AK19" s="4"/>
       <c r="AL19" s="4"/>
-      <c r="AM19" s="53" t="s">
+      <c r="AM19" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="AN19" s="58"/>
+      <c r="AN19" s="69"/>
       <c r="AO19" s="18" t="s">
         <v>35</v>
       </c>
@@ -4578,10 +4578,10 @@
       <c r="AJ21" s="4"/>
       <c r="AK21" s="4"/>
       <c r="AL21" s="4"/>
-      <c r="AM21" s="53" t="s">
+      <c r="AM21" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="AN21" s="58"/>
+      <c r="AN21" s="69"/>
       <c r="AO21" s="18" t="s">
         <v>39</v>
       </c>
@@ -4746,18 +4746,18 @@
       <c r="AJ23" s="4"/>
       <c r="AK23" s="4"/>
       <c r="AL23" s="4"/>
-      <c r="AM23" s="44" t="s">
+      <c r="AM23" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="AN23" s="55"/>
-      <c r="AO23" s="56" t="s">
+      <c r="AN23" s="78"/>
+      <c r="AO23" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="AP23" s="57"/>
-      <c r="AQ23" s="57"/>
-      <c r="AR23" s="57"/>
-      <c r="AS23" s="57"/>
-      <c r="AT23" s="57"/>
+      <c r="AP23" s="80"/>
+      <c r="AQ23" s="80"/>
+      <c r="AR23" s="80"/>
+      <c r="AS23" s="80"/>
+      <c r="AT23" s="80"/>
       <c r="AU23" s="13"/>
       <c r="AV23" s="39"/>
       <c r="AW23" s="11"/>
@@ -4914,12 +4914,12 @@
       <c r="AJ25" s="4"/>
       <c r="AK25" s="4"/>
       <c r="AL25" s="4"/>
-      <c r="AM25" s="44" t="s">
+      <c r="AM25" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="AN25" s="45"/>
+      <c r="AN25" s="75"/>
       <c r="AO25" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AP25" s="11"/>
       <c r="AQ25" s="11"/>
@@ -5164,10 +5164,10 @@
       <c r="AJ28" s="4"/>
       <c r="AK28" s="4"/>
       <c r="AL28" s="4"/>
-      <c r="AM28" s="44" t="s">
+      <c r="AM28" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="AN28" s="46"/>
+      <c r="AN28" s="76"/>
       <c r="AO28" s="41" t="s">
         <v>49</v>
       </c>
@@ -5414,10 +5414,10 @@
       <c r="AJ31" s="4"/>
       <c r="AK31" s="4"/>
       <c r="AL31" s="4"/>
-      <c r="AM31" s="44" t="s">
+      <c r="AM31" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="AN31" s="46"/>
+      <c r="AN31" s="76"/>
       <c r="AO31" s="42" t="s">
         <v>54</v>
       </c>
@@ -5518,7 +5518,7 @@
       <c r="BB32" s="4"/>
       <c r="BC32" s="4"/>
       <c r="BD32" s="40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BE32" s="4"/>
       <c r="BF32" s="4"/>
@@ -5582,10 +5582,10 @@
       <c r="AJ33" s="4"/>
       <c r="AK33" s="4"/>
       <c r="AL33" s="4"/>
-      <c r="AM33" s="44" t="s">
+      <c r="AM33" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="AN33" s="46"/>
+      <c r="AN33" s="76"/>
       <c r="AO33" s="43" t="s">
         <v>57</v>
       </c>
@@ -14827,6 +14827,24 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="AM25:AN25"/>
+    <mergeCell ref="AM28:AN28"/>
+    <mergeCell ref="AM31:AN31"/>
+    <mergeCell ref="AM33:AN33"/>
+    <mergeCell ref="AO5:AU6"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="AM23:AN23"/>
+    <mergeCell ref="AO23:AT23"/>
+    <mergeCell ref="AM17:AN17"/>
+    <mergeCell ref="AM21:AN21"/>
+    <mergeCell ref="AM19:AN19"/>
+    <mergeCell ref="AM14:AN14"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="AM10:AN10"/>
+    <mergeCell ref="AM12:AN12"/>
+    <mergeCell ref="AM5:AN6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="AE2:AV2"/>
     <mergeCell ref="BP1:BX1"/>
     <mergeCell ref="AV5:AZ6"/>
     <mergeCell ref="BB2:BJ2"/>
@@ -14840,24 +14858,6 @@
     <mergeCell ref="F2:Y2"/>
     <mergeCell ref="Z2:AD2"/>
     <mergeCell ref="BK1:BO1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="AM10:AN10"/>
-    <mergeCell ref="AM12:AN12"/>
-    <mergeCell ref="AM5:AN6"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="AE2:AV2"/>
-    <mergeCell ref="AM25:AN25"/>
-    <mergeCell ref="AM28:AN28"/>
-    <mergeCell ref="AM31:AN31"/>
-    <mergeCell ref="AM33:AN33"/>
-    <mergeCell ref="AO5:AU6"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="AM23:AN23"/>
-    <mergeCell ref="AO23:AT23"/>
-    <mergeCell ref="AM17:AN17"/>
-    <mergeCell ref="AM21:AN21"/>
-    <mergeCell ref="AM19:AN19"/>
-    <mergeCell ref="AM14:AN14"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/設計書/01.基本設計/02.画面設計/画面設計書(商品詳細).xlsx
+++ b/設計書/01.基本設計/02.画面設計/画面設計書(商品詳細).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DesignDocs\設計書\01.基本設計\02.画面設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00FDC72-0254-4A60-9C63-395F7D8D0CDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB13F6AE-6C90-49DA-8782-645A83BBEECC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -239,16 +239,6 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>2020/03/11 JTM02　対応 角屋</t>
-    <rPh sb="17" eb="19">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>カドヤ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
     <t>０点なら完売しましたと赤字で表示する</t>
     <rPh sb="1" eb="2">
       <t>テン</t>
@@ -261,6 +251,16 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>2020/03/11 JTM01　対応 角屋</t>
+    <rPh sb="17" eb="19">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カドヤ</t>
     </rPh>
     <phoneticPr fontId="10"/>
   </si>
@@ -757,38 +757,55 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -796,35 +813,18 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3671,7 +3671,7 @@
   <dimension ref="A1:BZ1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BA23" sqref="BA23"/>
+      <selection activeCell="BI25" sqref="BI25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -3681,190 +3681,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="58" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="54"/>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="54"/>
-      <c r="AI1" s="54"/>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="54"/>
-      <c r="AL1" s="54"/>
-      <c r="AM1" s="54"/>
-      <c r="AN1" s="54"/>
-      <c r="AO1" s="54"/>
-      <c r="AP1" s="54"/>
-      <c r="AQ1" s="54"/>
-      <c r="AR1" s="54"/>
-      <c r="AS1" s="54"/>
-      <c r="AT1" s="54"/>
-      <c r="AU1" s="54"/>
-      <c r="AV1" s="55"/>
-      <c r="AW1" s="60" t="s">
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="45"/>
+      <c r="AI1" s="45"/>
+      <c r="AJ1" s="45"/>
+      <c r="AK1" s="45"/>
+      <c r="AL1" s="45"/>
+      <c r="AM1" s="45"/>
+      <c r="AN1" s="45"/>
+      <c r="AO1" s="45"/>
+      <c r="AP1" s="45"/>
+      <c r="AQ1" s="45"/>
+      <c r="AR1" s="45"/>
+      <c r="AS1" s="45"/>
+      <c r="AT1" s="45"/>
+      <c r="AU1" s="45"/>
+      <c r="AV1" s="46"/>
+      <c r="AW1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="AX1" s="54"/>
-      <c r="AY1" s="54"/>
-      <c r="AZ1" s="54"/>
-      <c r="BA1" s="55"/>
-      <c r="BB1" s="66" t="s">
+      <c r="AX1" s="45"/>
+      <c r="AY1" s="45"/>
+      <c r="AZ1" s="45"/>
+      <c r="BA1" s="46"/>
+      <c r="BB1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="BC1" s="51"/>
-      <c r="BD1" s="51"/>
-      <c r="BE1" s="51"/>
-      <c r="BF1" s="51"/>
-      <c r="BG1" s="51"/>
-      <c r="BH1" s="51"/>
-      <c r="BI1" s="51"/>
-      <c r="BJ1" s="52"/>
-      <c r="BK1" s="60" t="s">
+      <c r="BC1" s="56"/>
+      <c r="BD1" s="56"/>
+      <c r="BE1" s="56"/>
+      <c r="BF1" s="56"/>
+      <c r="BG1" s="56"/>
+      <c r="BH1" s="56"/>
+      <c r="BI1" s="56"/>
+      <c r="BJ1" s="57"/>
+      <c r="BK1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="BL1" s="54"/>
-      <c r="BM1" s="54"/>
-      <c r="BN1" s="54"/>
-      <c r="BO1" s="55"/>
-      <c r="BP1" s="61" t="s">
+      <c r="BL1" s="45"/>
+      <c r="BM1" s="45"/>
+      <c r="BN1" s="45"/>
+      <c r="BO1" s="46"/>
+      <c r="BP1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="BQ1" s="54"/>
-      <c r="BR1" s="54"/>
-      <c r="BS1" s="54"/>
-      <c r="BT1" s="54"/>
-      <c r="BU1" s="54"/>
-      <c r="BV1" s="54"/>
-      <c r="BW1" s="54"/>
-      <c r="BX1" s="62"/>
+      <c r="BQ1" s="45"/>
+      <c r="BR1" s="45"/>
+      <c r="BS1" s="45"/>
+      <c r="BT1" s="45"/>
+      <c r="BU1" s="45"/>
+      <c r="BV1" s="45"/>
+      <c r="BW1" s="45"/>
+      <c r="BX1" s="48"/>
       <c r="BY1" s="1"/>
       <c r="BZ1" s="1"/>
     </row>
     <row r="2" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="59" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="57" t="s">
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="56" t="s">
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="51"/>
-      <c r="AL2" s="51"/>
-      <c r="AM2" s="51"/>
-      <c r="AN2" s="51"/>
-      <c r="AO2" s="51"/>
-      <c r="AP2" s="51"/>
-      <c r="AQ2" s="51"/>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51"/>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="57" t="s">
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="56"/>
+      <c r="AP2" s="56"/>
+      <c r="AQ2" s="56"/>
+      <c r="AR2" s="56"/>
+      <c r="AS2" s="56"/>
+      <c r="AT2" s="56"/>
+      <c r="AU2" s="56"/>
+      <c r="AV2" s="57"/>
+      <c r="AW2" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="52"/>
-      <c r="BB2" s="63">
+      <c r="AX2" s="56"/>
+      <c r="AY2" s="56"/>
+      <c r="AZ2" s="56"/>
+      <c r="BA2" s="57"/>
+      <c r="BB2" s="55">
         <v>43901</v>
       </c>
-      <c r="BC2" s="51"/>
-      <c r="BD2" s="51"/>
-      <c r="BE2" s="51"/>
-      <c r="BF2" s="51"/>
-      <c r="BG2" s="51"/>
-      <c r="BH2" s="51"/>
-      <c r="BI2" s="51"/>
-      <c r="BJ2" s="52"/>
-      <c r="BK2" s="57" t="s">
+      <c r="BC2" s="56"/>
+      <c r="BD2" s="56"/>
+      <c r="BE2" s="56"/>
+      <c r="BF2" s="56"/>
+      <c r="BG2" s="56"/>
+      <c r="BH2" s="56"/>
+      <c r="BI2" s="56"/>
+      <c r="BJ2" s="57"/>
+      <c r="BK2" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="BL2" s="51"/>
-      <c r="BM2" s="51"/>
-      <c r="BN2" s="51"/>
-      <c r="BO2" s="52"/>
-      <c r="BP2" s="67" t="s">
+      <c r="BL2" s="56"/>
+      <c r="BM2" s="56"/>
+      <c r="BN2" s="56"/>
+      <c r="BO2" s="57"/>
+      <c r="BP2" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="BQ2" s="68"/>
-      <c r="BR2" s="68"/>
-      <c r="BS2" s="68"/>
-      <c r="BT2" s="68"/>
-      <c r="BU2" s="68"/>
-      <c r="BV2" s="68"/>
-      <c r="BW2" s="68"/>
-      <c r="BX2" s="69"/>
+      <c r="BQ2" s="63"/>
+      <c r="BR2" s="63"/>
+      <c r="BS2" s="63"/>
+      <c r="BT2" s="63"/>
+      <c r="BU2" s="63"/>
+      <c r="BV2" s="63"/>
+      <c r="BW2" s="63"/>
+      <c r="BX2" s="64"/>
       <c r="BY2" s="1"/>
       <c r="BZ2" s="1"/>
     </row>
@@ -4069,51 +4069,51 @@
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
-      <c r="AM5" s="41" t="s">
+      <c r="AM5" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="AN5" s="42"/>
-      <c r="AO5" s="45" t="s">
+      <c r="AN5" s="51"/>
+      <c r="AO5" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="AP5" s="46"/>
-      <c r="AQ5" s="46"/>
-      <c r="AR5" s="46"/>
-      <c r="AS5" s="46"/>
-      <c r="AT5" s="46"/>
-      <c r="AU5" s="42"/>
-      <c r="AV5" s="45" t="s">
+      <c r="AP5" s="50"/>
+      <c r="AQ5" s="50"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="51"/>
+      <c r="AV5" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="AW5" s="46"/>
-      <c r="AX5" s="46"/>
-      <c r="AY5" s="46"/>
-      <c r="AZ5" s="42"/>
-      <c r="BA5" s="45" t="s">
+      <c r="AW5" s="50"/>
+      <c r="AX5" s="50"/>
+      <c r="AY5" s="50"/>
+      <c r="AZ5" s="51"/>
+      <c r="BA5" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="BB5" s="46"/>
-      <c r="BC5" s="46"/>
-      <c r="BD5" s="46"/>
-      <c r="BE5" s="46"/>
-      <c r="BF5" s="46"/>
-      <c r="BG5" s="46"/>
-      <c r="BH5" s="46"/>
-      <c r="BI5" s="46"/>
-      <c r="BJ5" s="46"/>
-      <c r="BK5" s="46"/>
-      <c r="BL5" s="46"/>
-      <c r="BM5" s="46"/>
-      <c r="BN5" s="46"/>
-      <c r="BO5" s="46"/>
-      <c r="BP5" s="46"/>
-      <c r="BQ5" s="46"/>
-      <c r="BR5" s="46"/>
-      <c r="BS5" s="46"/>
-      <c r="BT5" s="46"/>
-      <c r="BU5" s="46"/>
-      <c r="BV5" s="46"/>
-      <c r="BW5" s="64"/>
+      <c r="BB5" s="50"/>
+      <c r="BC5" s="50"/>
+      <c r="BD5" s="50"/>
+      <c r="BE5" s="50"/>
+      <c r="BF5" s="50"/>
+      <c r="BG5" s="50"/>
+      <c r="BH5" s="50"/>
+      <c r="BI5" s="50"/>
+      <c r="BJ5" s="50"/>
+      <c r="BK5" s="50"/>
+      <c r="BL5" s="50"/>
+      <c r="BM5" s="50"/>
+      <c r="BN5" s="50"/>
+      <c r="BO5" s="50"/>
+      <c r="BP5" s="50"/>
+      <c r="BQ5" s="50"/>
+      <c r="BR5" s="50"/>
+      <c r="BS5" s="50"/>
+      <c r="BT5" s="50"/>
+      <c r="BU5" s="50"/>
+      <c r="BV5" s="50"/>
+      <c r="BW5" s="58"/>
       <c r="BX5" s="8"/>
       <c r="BY5" s="4"/>
       <c r="BZ5" s="4"/>
@@ -4157,43 +4157,43 @@
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
-      <c r="AM6" s="43"/>
-      <c r="AN6" s="44"/>
-      <c r="AO6" s="47"/>
-      <c r="AP6" s="48"/>
-      <c r="AQ6" s="48"/>
-      <c r="AR6" s="48"/>
-      <c r="AS6" s="48"/>
-      <c r="AT6" s="48"/>
-      <c r="AU6" s="44"/>
-      <c r="AV6" s="47"/>
-      <c r="AW6" s="48"/>
-      <c r="AX6" s="48"/>
-      <c r="AY6" s="48"/>
-      <c r="AZ6" s="44"/>
-      <c r="BA6" s="47"/>
-      <c r="BB6" s="48"/>
-      <c r="BC6" s="48"/>
-      <c r="BD6" s="48"/>
-      <c r="BE6" s="48"/>
-      <c r="BF6" s="48"/>
-      <c r="BG6" s="48"/>
-      <c r="BH6" s="48"/>
-      <c r="BI6" s="48"/>
-      <c r="BJ6" s="48"/>
-      <c r="BK6" s="48"/>
-      <c r="BL6" s="48"/>
-      <c r="BM6" s="48"/>
-      <c r="BN6" s="48"/>
-      <c r="BO6" s="48"/>
-      <c r="BP6" s="48"/>
-      <c r="BQ6" s="48"/>
-      <c r="BR6" s="48"/>
-      <c r="BS6" s="48"/>
-      <c r="BT6" s="48"/>
-      <c r="BU6" s="48"/>
-      <c r="BV6" s="48"/>
-      <c r="BW6" s="65"/>
+      <c r="AM6" s="73"/>
+      <c r="AN6" s="54"/>
+      <c r="AO6" s="52"/>
+      <c r="AP6" s="53"/>
+      <c r="AQ6" s="53"/>
+      <c r="AR6" s="53"/>
+      <c r="AS6" s="53"/>
+      <c r="AT6" s="53"/>
+      <c r="AU6" s="54"/>
+      <c r="AV6" s="52"/>
+      <c r="AW6" s="53"/>
+      <c r="AX6" s="53"/>
+      <c r="AY6" s="53"/>
+      <c r="AZ6" s="54"/>
+      <c r="BA6" s="52"/>
+      <c r="BB6" s="53"/>
+      <c r="BC6" s="53"/>
+      <c r="BD6" s="53"/>
+      <c r="BE6" s="53"/>
+      <c r="BF6" s="53"/>
+      <c r="BG6" s="53"/>
+      <c r="BH6" s="53"/>
+      <c r="BI6" s="53"/>
+      <c r="BJ6" s="53"/>
+      <c r="BK6" s="53"/>
+      <c r="BL6" s="53"/>
+      <c r="BM6" s="53"/>
+      <c r="BN6" s="53"/>
+      <c r="BO6" s="53"/>
+      <c r="BP6" s="53"/>
+      <c r="BQ6" s="53"/>
+      <c r="BR6" s="53"/>
+      <c r="BS6" s="53"/>
+      <c r="BT6" s="53"/>
+      <c r="BU6" s="53"/>
+      <c r="BV6" s="53"/>
+      <c r="BW6" s="59"/>
       <c r="BX6" s="8"/>
       <c r="BY6" s="4"/>
       <c r="BZ6" s="4"/>
@@ -4237,10 +4237,10 @@
       <c r="AJ7" s="4"/>
       <c r="AK7" s="4"/>
       <c r="AL7" s="4"/>
-      <c r="AM7" s="39" t="s">
+      <c r="AM7" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="AN7" s="49"/>
+      <c r="AN7" s="74"/>
       <c r="AO7" s="11" t="s">
         <v>17</v>
       </c>
@@ -4487,10 +4487,10 @@
       <c r="AJ10" s="4"/>
       <c r="AK10" s="4"/>
       <c r="AL10" s="4"/>
-      <c r="AM10" s="39" t="s">
+      <c r="AM10" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="AN10" s="40"/>
+      <c r="AN10" s="69"/>
       <c r="AO10" s="17" t="s">
         <v>41</v>
       </c>
@@ -4653,10 +4653,10 @@
       <c r="AJ12" s="4"/>
       <c r="AK12" s="4"/>
       <c r="AL12" s="4"/>
-      <c r="AM12" s="39" t="s">
+      <c r="AM12" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="AN12" s="40"/>
+      <c r="AN12" s="69"/>
       <c r="AO12" s="18" t="s">
         <v>24</v>
       </c>
@@ -4819,10 +4819,10 @@
       <c r="AJ14" s="4"/>
       <c r="AK14" s="4"/>
       <c r="AL14" s="4"/>
-      <c r="AM14" s="39" t="s">
+      <c r="AM14" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="AN14" s="40"/>
+      <c r="AN14" s="69"/>
       <c r="AO14" s="20" t="s">
         <v>27</v>
       </c>
@@ -5067,10 +5067,10 @@
       <c r="AJ17" s="4"/>
       <c r="AK17" s="4"/>
       <c r="AL17" s="4"/>
-      <c r="AM17" s="39" t="s">
+      <c r="AM17" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="AN17" s="40"/>
+      <c r="AN17" s="69"/>
       <c r="AO17" s="20" t="s">
         <v>31</v>
       </c>
@@ -5233,10 +5233,10 @@
       <c r="AJ19" s="4"/>
       <c r="AK19" s="4"/>
       <c r="AL19" s="4"/>
-      <c r="AM19" s="39" t="s">
+      <c r="AM19" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="AN19" s="40"/>
+      <c r="AN19" s="69"/>
       <c r="AO19" s="18" t="s">
         <v>34</v>
       </c>
@@ -5404,8 +5404,8 @@
       <c r="AM21" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="AN21" s="40"/>
-      <c r="AO21" s="71" t="s">
+      <c r="AN21" s="69"/>
+      <c r="AO21" s="39" t="s">
         <v>47</v>
       </c>
       <c r="AP21" s="11"/>
@@ -5414,14 +5414,14 @@
       <c r="AS21" s="11"/>
       <c r="AT21" s="11"/>
       <c r="AU21" s="12"/>
-      <c r="AV21" s="72" t="s">
+      <c r="AV21" s="40" t="s">
         <v>42</v>
       </c>
       <c r="AW21" s="38"/>
       <c r="AX21" s="11"/>
       <c r="AY21" s="11"/>
       <c r="AZ21" s="12"/>
-      <c r="BA21" s="73" t="s">
+      <c r="BA21" s="41" t="s">
         <v>43</v>
       </c>
       <c r="BB21" s="11"/>
@@ -5503,7 +5503,7 @@
       <c r="AX22" s="11"/>
       <c r="AY22" s="11"/>
       <c r="AZ22" s="12"/>
-      <c r="BA22" s="72" t="s">
+      <c r="BA22" s="40" t="s">
         <v>44</v>
       </c>
       <c r="BB22" s="11"/>
@@ -5585,8 +5585,8 @@
       <c r="AX23" s="13"/>
       <c r="AY23" s="13"/>
       <c r="AZ23" s="12"/>
-      <c r="BA23" s="72" t="s">
-        <v>50</v>
+      <c r="BA23" s="40" t="s">
+        <v>49</v>
       </c>
       <c r="BB23" s="13"/>
       <c r="BC23" s="13"/>
@@ -5667,8 +5667,8 @@
       <c r="AX24" s="11"/>
       <c r="AY24" s="11"/>
       <c r="AZ24" s="12"/>
-      <c r="BA24" s="72" t="s">
-        <v>49</v>
+      <c r="BA24" s="40" t="s">
+        <v>50</v>
       </c>
       <c r="BB24" s="11"/>
       <c r="BC24" s="11"/>
@@ -5815,10 +5815,10 @@
       <c r="AJ26" s="4"/>
       <c r="AK26" s="4"/>
       <c r="AL26" s="4"/>
-      <c r="AM26" s="39" t="s">
+      <c r="AM26" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="AN26" s="74"/>
+      <c r="AN26" s="43"/>
       <c r="AO26" s="25" t="s">
         <v>38</v>
       </c>
@@ -15618,6 +15618,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AM5:AN6"/>
+    <mergeCell ref="AO5:AU6"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="AE2:AV2"/>
+    <mergeCell ref="AW2:BA2"/>
+    <mergeCell ref="F1:AV1"/>
+    <mergeCell ref="F2:Y2"/>
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="AM26:AN26"/>
     <mergeCell ref="BK1:BO1"/>
     <mergeCell ref="BP1:BX1"/>
@@ -15628,22 +15638,12 @@
     <mergeCell ref="BK2:BO2"/>
     <mergeCell ref="AW1:BA1"/>
     <mergeCell ref="BP2:BX2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="AE2:AV2"/>
-    <mergeCell ref="AW2:BA2"/>
-    <mergeCell ref="F1:AV1"/>
-    <mergeCell ref="F2:Y2"/>
-    <mergeCell ref="Z2:AD2"/>
     <mergeCell ref="AM17:AN17"/>
     <mergeCell ref="AM21:AN21"/>
     <mergeCell ref="AM19:AN19"/>
     <mergeCell ref="AM14:AN14"/>
-    <mergeCell ref="A2:E2"/>
     <mergeCell ref="AM10:AN10"/>
     <mergeCell ref="AM12:AN12"/>
-    <mergeCell ref="AM5:AN6"/>
-    <mergeCell ref="AO5:AU6"/>
-    <mergeCell ref="AM7:AN7"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
